--- a/data/kindergarten/data.xlsx
+++ b/data/kindergarten/data.xlsx
@@ -884,7 +884,7 @@
         <v>高松市立大町幼稚園</v>
       </c>
       <c r="E19" t="str">
-        <v>高松市牟礼町大町605-1</v>
+        <v>高松市牟礼町牟礼100-1</v>
       </c>
       <c r="F19" t="str">
         <v>087-845-5718</v>

--- a/data/kindergarten/data.xlsx
+++ b/data/kindergarten/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:R116"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,31 +427,91 @@
       <c r="H1" t="str">
         <v>note</v>
       </c>
+      <c r="I1" t="str">
+        <v>certifiedType</v>
+      </c>
+      <c r="J1" t="str">
+        <v>access</v>
+      </c>
+      <c r="K1" t="str">
+        <v>parkingInformation</v>
+      </c>
+      <c r="L1" t="str">
+        <v>capacity</v>
+      </c>
+      <c r="M1" t="str">
+        <v>acceptedAge</v>
+      </c>
+      <c r="N1" t="str">
+        <v>availableDate</v>
+      </c>
+      <c r="O1" t="str">
+        <v>startTime</v>
+      </c>
+      <c r="P1" t="str">
+        <v>endTime</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>availableDateNote</v>
+      </c>
+      <c r="R1" t="str">
+        <v>temporaryKeeping</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>34.296244</v>
+        <v>34.347392</v>
       </c>
       <c r="C2" t="str">
-        <v>134.113886</v>
+        <v>134.032587</v>
       </c>
       <c r="D2" t="str">
-        <v>高松市立前田幼稚園</v>
+        <v>高松市立瀬戸内保育所</v>
       </c>
       <c r="E2" t="str">
-        <v>高松市前田東町788-1</v>
+        <v>高松市瀬戸内町23-7</v>
       </c>
       <c r="F2" t="str">
-        <v>087-847-6582</v>
+        <v>087-861-5701</v>
       </c>
       <c r="G2" t="str">
-        <v>http://www.city.takamatsu.kagawa.jp/kurashi/kosodate/youchien_hoiku/kodomoen/chiiki_suishin/gaiyou.html</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h1/</v>
       </c>
       <c r="H2" t="str">
-        <v>市立幼稚園</v>
+        <v/>
+      </c>
+      <c r="I2" t="str">
+        <v>認定公立保育所</v>
+      </c>
+      <c r="J2" t="str">
+        <v/>
+      </c>
+      <c r="K2" t="str">
+        <v/>
+      </c>
+      <c r="L2" t="str">
+        <v>120</v>
+      </c>
+      <c r="M2" t="str">
+        <v>3か月～</v>
+      </c>
+      <c r="N2" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O2" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P2" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q2" t="str">
+        <v/>
+      </c>
+      <c r="R2" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="3">
@@ -459,311 +519,671 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>34.306811</v>
+        <v>34.345889</v>
       </c>
       <c r="C3" t="str">
-        <v>134.094141</v>
+        <v>134.038672</v>
       </c>
       <c r="D3" t="str">
-        <v>高松市立川添幼稚園</v>
+        <v>高松市立扇町保育所</v>
       </c>
       <c r="E3" t="str">
-        <v>高松市東山崎町601</v>
+        <v>高松市扇町一丁目24-17</v>
       </c>
       <c r="F3" t="str">
-        <v>087-847-6934</v>
+        <v>087-821-7629</v>
       </c>
       <c r="G3" t="str">
-        <v>http://www.city.takamatsu.kagawa.jp/kurashi/kosodate/youchien_hoiku/kodomoen/chiiki_suishin/gaiyou.html</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h2/</v>
       </c>
       <c r="H3" t="str">
-        <v>市立幼稚園</v>
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <v>認定公立保育所</v>
+      </c>
+      <c r="J3" t="str">
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <v/>
+      </c>
+      <c r="L3" t="str">
+        <v>150</v>
+      </c>
+      <c r="M3" t="str">
+        <v>3か月～</v>
+      </c>
+      <c r="N3" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O3" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P3" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q3" t="str">
+        <v/>
+      </c>
+      <c r="R3" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>34.275992</v>
+        <v>34.332681</v>
       </c>
       <c r="C4" t="str">
-        <v>134.070302</v>
+        <v>134.036106</v>
       </c>
       <c r="D4" t="str">
-        <v>高松市立三渓幼稚園</v>
+        <v>高松市立宮脇保育所</v>
       </c>
       <c r="E4" t="str">
-        <v>高松市三谷町2316-2</v>
+        <v>高松市宮脇町二丁目10-63</v>
       </c>
       <c r="F4" t="str">
-        <v>087-889-2514</v>
+        <v>087-835-1636</v>
       </c>
       <c r="G4" t="str">
-        <v>http://www.city.takamatsu.kagawa.jp/kurashi/kosodate/youchien_hoiku/kodomoen/chiiki_suishin/gaiyou.html</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h3/</v>
       </c>
       <c r="H4" t="str">
-        <v>市立幼稚園</v>
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <v>認定公立保育所</v>
+      </c>
+      <c r="J4" t="str">
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <v/>
+      </c>
+      <c r="L4" t="str">
+        <v>60</v>
+      </c>
+      <c r="M4" t="str">
+        <v>1歳～</v>
+      </c>
+      <c r="N4" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O4" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P4" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q4" t="str">
+        <v/>
+      </c>
+      <c r="R4" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="str">
-        <v>34.345893</v>
+        <v>34.335033</v>
       </c>
       <c r="C5" t="str">
-        <v>133.996786</v>
+        <v>134.068946</v>
       </c>
       <c r="D5" t="str">
-        <v>高松市立香西幼稚園</v>
+        <v>高松市立松島保育所</v>
       </c>
       <c r="E5" t="str">
-        <v>高松市香西西町59-1</v>
+        <v>高松市松島町三丁目13-6</v>
       </c>
       <c r="F5" t="str">
-        <v>087-882-0161</v>
+        <v>087-831-8066</v>
       </c>
       <c r="G5" t="str">
-        <v>http://www.city.takamatsu.kagawa.jp/kurashi/kosodate/youchien_hoiku/kodomoen/chiiki_suishin/gaiyou.html</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h4/</v>
       </c>
       <c r="H5" t="str">
-        <v>市立幼稚園</v>
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <v>認定公立保育所</v>
+      </c>
+      <c r="J5" t="str">
+        <v/>
+      </c>
+      <c r="K5" t="str">
+        <v/>
+      </c>
+      <c r="L5" t="str">
+        <v>130</v>
+      </c>
+      <c r="M5" t="str">
+        <v>3か月～</v>
+      </c>
+      <c r="N5" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O5" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P5" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q5" t="str">
+        <v/>
+      </c>
+      <c r="R5" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="str">
-        <v>34.291795</v>
+        <v>34.343454</v>
       </c>
       <c r="C6" t="str">
-        <v>134.024177</v>
+        <v>134.070941</v>
       </c>
       <c r="D6" t="str">
-        <v>高松市立一宮幼稚園</v>
+        <v>高松市立福岡保育所</v>
       </c>
       <c r="E6" t="str">
-        <v>高松市一宮町1233-2</v>
+        <v>高松市福岡町三丁目31-3</v>
       </c>
       <c r="F6" t="str">
-        <v>087-886-3088</v>
+        <v>087-851-1206</v>
       </c>
       <c r="G6" t="str">
-        <v>http://www.city.takamatsu.kagawa.jp/kurashi/kosodate/youchien_hoiku/kodomoen/chiiki_suishin/gaiyou.html</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h5/</v>
       </c>
       <c r="H6" t="str">
-        <v>市立幼稚園</v>
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <v>認定公立保育所</v>
+      </c>
+      <c r="J6" t="str">
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <v/>
+      </c>
+      <c r="L6" t="str">
+        <v>70</v>
+      </c>
+      <c r="M6" t="str">
+        <v>3か月～</v>
+      </c>
+      <c r="N6" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O6" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P6" t="str">
+        <v>18:30</v>
+      </c>
+      <c r="Q6" t="str">
+        <v/>
+      </c>
+      <c r="R6" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="str">
-        <v>34.292403</v>
+        <v>34.331232</v>
       </c>
       <c r="C7" t="str">
-        <v>134.051671</v>
+        <v>134.054318</v>
       </c>
       <c r="D7" t="str">
-        <v>高松市立多肥幼稚園</v>
+        <v>高松市立桜町保育所</v>
       </c>
       <c r="E7" t="str">
-        <v>高松市多肥上町990-2</v>
+        <v>高松市桜町一丁目3-15</v>
       </c>
       <c r="F7" t="str">
-        <v>087-889-2513</v>
+        <v>087-834-3628</v>
       </c>
       <c r="G7" t="str">
-        <v>http://www.city.takamatsu.kagawa.jp/kurashi/kosodate/youchien_hoiku/kodomoen/chiiki_suishin/gaiyou.html</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h6/</v>
       </c>
       <c r="H7" t="str">
-        <v>市立幼稚園</v>
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <v>認定公立保育所</v>
+      </c>
+      <c r="J7" t="str">
+        <v/>
+      </c>
+      <c r="K7" t="str">
+        <v/>
+      </c>
+      <c r="L7" t="str">
+        <v>190</v>
+      </c>
+      <c r="M7" t="str">
+        <v>3か月～</v>
+      </c>
+      <c r="N7" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O7" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P7" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q7" t="str">
+        <v/>
+      </c>
+      <c r="R7" t="str">
+        <v>有</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="str">
-        <v>34.268131</v>
+        <v>34.30444</v>
       </c>
       <c r="C8" t="str">
-        <v>134.008164</v>
+        <v>134.028568</v>
       </c>
       <c r="D8" t="str">
-        <v>高松市立川岡幼稚園</v>
+        <v>高松市立田村保育所</v>
       </c>
       <c r="E8" t="str">
-        <v>高松市川部町524-3</v>
+        <v>高松市鹿角町937</v>
       </c>
       <c r="F8" t="str">
-        <v>087-885-0550</v>
+        <v>087-866-0962</v>
       </c>
       <c r="G8" t="str">
-        <v>http://www.city.takamatsu.kagawa.jp/kurashi/kosodate/youchien_hoiku/kodomoen/chiiki_suishin/gaiyou.html</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h7/</v>
       </c>
       <c r="H8" t="str">
-        <v>市立幼稚園</v>
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <v>認定公立保育所</v>
+      </c>
+      <c r="J8" t="str">
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <v/>
+      </c>
+      <c r="L8" t="str">
+        <v>70</v>
+      </c>
+      <c r="M8" t="str">
+        <v>3か月～</v>
+      </c>
+      <c r="N8" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O8" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P8" t="str">
+        <v>18:30</v>
+      </c>
+      <c r="Q8" t="str">
+        <v/>
+      </c>
+      <c r="R8" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="str">
-        <v>34.285767</v>
+        <v>34.318866</v>
       </c>
       <c r="C9" t="str">
-        <v>134.003182</v>
+        <v>134.038194</v>
       </c>
       <c r="D9" t="str">
-        <v>高松市立円座幼稚園</v>
+        <v>高松市立鶴尾保育所</v>
       </c>
       <c r="E9" t="str">
-        <v>高松市円座町125-2</v>
+        <v>高松市東ハゼ町19-8</v>
       </c>
       <c r="F9" t="str">
-        <v>087-885-0846</v>
+        <v>087-865-6342</v>
       </c>
       <c r="G9" t="str">
-        <v>http://www.city.takamatsu.kagawa.jp/kurashi/kosodate/youchien_hoiku/kodomoen/chiiki_suishin/gaiyou.html</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h8/</v>
       </c>
       <c r="H9" t="str">
-        <v>市立幼稚園</v>
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <v>認定公立保育所</v>
+      </c>
+      <c r="J9" t="str">
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <v/>
+      </c>
+      <c r="L9" t="str">
+        <v>50</v>
+      </c>
+      <c r="M9" t="str">
+        <v>3か月～</v>
+      </c>
+      <c r="N9" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O9" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P9" t="str">
+        <v>18:30</v>
+      </c>
+      <c r="Q9" t="str">
+        <v/>
+      </c>
+      <c r="R9" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="str">
-        <v>34.300941</v>
+        <v>34.313113</v>
       </c>
       <c r="C10" t="str">
-        <v>133.995119</v>
+        <v>134.051756</v>
       </c>
       <c r="D10" t="str">
-        <v>高松市立檀紙幼稚園</v>
+        <v>高松市立太田保育所</v>
       </c>
       <c r="E10" t="str">
-        <v>高松市御厩町776-1</v>
+        <v>高松市伏石町1062</v>
       </c>
       <c r="F10" t="str">
-        <v>087-885-2595</v>
+        <v>087-867-5741</v>
       </c>
       <c r="G10" t="str">
-        <v>http://www.city.takamatsu.kagawa.jp/kurashi/kosodate/youchien_hoiku/kodomoen/chiiki_suishin/gaiyou.html</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h9/</v>
       </c>
       <c r="H10" t="str">
-        <v>市立幼稚園</v>
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <v>認定公立保育所</v>
+      </c>
+      <c r="J10" t="str">
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <v/>
+      </c>
+      <c r="L10" t="str">
+        <v>150</v>
+      </c>
+      <c r="M10" t="str">
+        <v>3か月～</v>
+      </c>
+      <c r="N10" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O10" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P10" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q10" t="str">
+        <v/>
+      </c>
+      <c r="R10" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="str">
-        <v>34.32771</v>
+        <v>34.324586</v>
       </c>
       <c r="C11" t="str">
-        <v>134.005074</v>
+        <v>134.077269</v>
       </c>
       <c r="D11" t="str">
-        <v>高松市立弦打幼稚園</v>
+        <v>高松市立木太保育所</v>
       </c>
       <c r="E11" t="str">
-        <v>高松市鶴市町360</v>
+        <v>高松市木太町3502</v>
       </c>
       <c r="F11" t="str">
-        <v>087-881-3563</v>
+        <v>087-861-2650</v>
       </c>
       <c r="G11" t="str">
-        <v>http://www.city.takamatsu.kagawa.jp/kurashi/kosodate/youchien_hoiku/kodomoen/chiiki_suishin/gaiyou.html</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h10/</v>
       </c>
       <c r="H11" t="str">
-        <v>市立幼稚園</v>
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <v>認定公立保育所</v>
+      </c>
+      <c r="J11" t="str">
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <v/>
+      </c>
+      <c r="L11" t="str">
+        <v>150</v>
+      </c>
+      <c r="M11" t="str">
+        <v>3か月～</v>
+      </c>
+      <c r="N11" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O11" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P11" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q11" t="str">
+        <v/>
+      </c>
+      <c r="R11" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="str">
-        <v>34.328058</v>
+        <v>34.330899</v>
       </c>
       <c r="C12" t="str">
-        <v>133.992816</v>
+        <v>134.10763</v>
       </c>
       <c r="D12" t="str">
-        <v>高松市立鬼無幼稚園</v>
+        <v>高松市立古高松保育所</v>
       </c>
       <c r="E12" t="str">
-        <v>高松市鬼無町佐藤128-1</v>
+        <v>高松市高松町423-1</v>
       </c>
       <c r="F12" t="str">
-        <v>087-881-4913</v>
+        <v>087-841-9845</v>
       </c>
       <c r="G12" t="str">
-        <v>http://www.city.takamatsu.kagawa.jp/kurashi/kosodate/youchien_hoiku/kodomoen/chiiki_suishin/gaiyou.html</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h11/</v>
       </c>
       <c r="H12" t="str">
-        <v>市立幼稚園</v>
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <v>認定公立保育所</v>
+      </c>
+      <c r="J12" t="str">
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <v/>
+      </c>
+      <c r="L12" t="str">
+        <v>200</v>
+      </c>
+      <c r="M12" t="str">
+        <v>3か月～</v>
+      </c>
+      <c r="N12" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O12" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P12" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q12" t="str">
+        <v/>
+      </c>
+      <c r="R12" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" t="str">
-        <v>34.322396</v>
+        <v>34.352344</v>
       </c>
       <c r="C13" t="str">
-        <v>134.076556</v>
+        <v>133.987044</v>
       </c>
       <c r="D13" t="str">
-        <v>高松市立木太幼稚園</v>
+        <v>高松市立下笠居東部保育所</v>
       </c>
       <c r="E13" t="str">
-        <v>高松市木太町3901-1</v>
+        <v>高松市植松町44-4</v>
       </c>
       <c r="F13" t="str">
-        <v>087-833-8144</v>
+        <v>087-881-4752</v>
       </c>
       <c r="G13" t="str">
-        <v>http://www.city.takamatsu.kagawa.jp/kurashi/kosodate/youchien_hoiku/kodomoen/chiiki_suishin/gaiyou.html</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h14/</v>
       </c>
       <c r="H13" t="str">
-        <v>市立幼稚園</v>
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <v>認定公立保育所</v>
+      </c>
+      <c r="J13" t="str">
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <v/>
+      </c>
+      <c r="L13" t="str">
+        <v>50</v>
+      </c>
+      <c r="M13" t="str">
+        <v>1歳～</v>
+      </c>
+      <c r="N13" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O13" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P13" t="str">
+        <v>18:30</v>
+      </c>
+      <c r="Q13" t="str">
+        <v/>
+      </c>
+      <c r="R13" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" t="str">
-        <v>34.276993</v>
+        <v>34.345215</v>
       </c>
       <c r="C14" t="str">
-        <v>134.085666</v>
+        <v>133.996915</v>
       </c>
       <c r="D14" t="str">
-        <v>高松市立山田幼稚園</v>
+        <v>高松市立香西保育所</v>
       </c>
       <c r="E14" t="str">
-        <v>高松市川島本町191-10</v>
+        <v>高松市香西西町57-9</v>
       </c>
       <c r="F14" t="str">
-        <v>087-848-1978</v>
+        <v>087-881-2328</v>
       </c>
       <c r="G14" t="str">
-        <v>http://www.city.takamatsu.kagawa.jp/kurashi/kosodate/youchien_hoiku/kodomoen/chiiki_suishin/gaiyou.html</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h15/</v>
       </c>
       <c r="H14" t="str">
-        <v>市立幼稚園</v>
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <v>認定公立保育所</v>
+      </c>
+      <c r="J14" t="str">
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <v/>
+      </c>
+      <c r="L14" t="str">
+        <v>210</v>
+      </c>
+      <c r="M14" t="str">
+        <v>3か月～</v>
+      </c>
+      <c r="N14" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O14" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P14" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q14" t="str">
+        <v/>
+      </c>
+      <c r="R14" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="15">
@@ -771,25 +1191,55 @@
         <v>16</v>
       </c>
       <c r="B15" t="str">
-        <v>34.325778</v>
+        <v>34.32833</v>
       </c>
       <c r="C15" t="str">
-        <v>134.091344</v>
+        <v>134.005514</v>
       </c>
       <c r="D15" t="str">
-        <v>高松市立春日幼稚園</v>
+        <v>高松市立弦打保育所</v>
       </c>
       <c r="E15" t="str">
-        <v>高松市春日町744</v>
+        <v>高松市鶴市町359-1</v>
       </c>
       <c r="F15" t="str">
-        <v>087-843-2767</v>
+        <v>087-881-2552</v>
       </c>
       <c r="G15" t="str">
-        <v>http://www.city.takamatsu.kagawa.jp/kurashi/kosodate/youchien_hoiku/kodomoen/chiiki_suishin/gaiyou.html</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h16/</v>
       </c>
       <c r="H15" t="str">
-        <v>市立幼稚園</v>
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <v>認定公立保育所</v>
+      </c>
+      <c r="J15" t="str">
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <v/>
+      </c>
+      <c r="L15" t="str">
+        <v>150</v>
+      </c>
+      <c r="M15" t="str">
+        <v>3か月～</v>
+      </c>
+      <c r="N15" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O15" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P15" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q15" t="str">
+        <v/>
+      </c>
+      <c r="R15" t="str">
+        <v>有</v>
       </c>
     </row>
     <row r="16">
@@ -797,25 +1247,55 @@
         <v>17</v>
       </c>
       <c r="B16" t="str">
-        <v>34.336237</v>
+        <v>34.327852</v>
       </c>
       <c r="C16" t="str">
-        <v>134.07927</v>
+        <v>133.993597</v>
       </c>
       <c r="D16" t="str">
-        <v>高松市立木太北部幼稚園</v>
+        <v>高松市立鬼無保育所</v>
       </c>
       <c r="E16" t="str">
-        <v>高松市木太町2604-5</v>
+        <v>高松市鬼無町佐藤41-1</v>
       </c>
       <c r="F16" t="str">
-        <v>087-862-1031</v>
+        <v>087-881-2844</v>
       </c>
       <c r="G16" t="str">
-        <v>http://www.city.takamatsu.kagawa.jp/kurashi/kosodate/youchien_hoiku/kodomoen/chiiki_suishin/gaiyou.html</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h17/</v>
       </c>
       <c r="H16" t="str">
-        <v>市立幼稚園</v>
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <v>認定公立保育所</v>
+      </c>
+      <c r="J16" t="str">
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <v/>
+      </c>
+      <c r="L16" t="str">
+        <v>150</v>
+      </c>
+      <c r="M16" t="str">
+        <v>3か月～</v>
+      </c>
+      <c r="N16" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O16" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P16" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q16" t="str">
+        <v/>
+      </c>
+      <c r="R16" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="17">
@@ -823,25 +1303,55 @@
         <v>18</v>
       </c>
       <c r="B17" t="str">
-        <v>34.35044</v>
+        <v>34.277337</v>
       </c>
       <c r="C17" t="str">
-        <v>134.126751</v>
+        <v>134.070381</v>
       </c>
       <c r="D17" t="str">
-        <v>高松市立栗山幼稚園</v>
+        <v>高松市立三谷保育所</v>
       </c>
       <c r="E17" t="str">
-        <v>高松市牟礼町牟礼3028</v>
+        <v>高松市三谷町1193-1</v>
       </c>
       <c r="F17" t="str">
-        <v>087-845-1646</v>
+        <v>087-889-0720</v>
       </c>
       <c r="G17" t="str">
-        <v>http://www.city.takamatsu.kagawa.jp/kurashi/kosodate/youchien_hoiku/kodomoen/chiiki_suishin/gaiyou.html</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h18/</v>
       </c>
       <c r="H17" t="str">
-        <v>市立幼稚園</v>
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <v>認定公立保育所</v>
+      </c>
+      <c r="J17" t="str">
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <v/>
+      </c>
+      <c r="L17" t="str">
+        <v>100</v>
+      </c>
+      <c r="M17" t="str">
+        <v>3か月～</v>
+      </c>
+      <c r="N17" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O17" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P17" t="str">
+        <v>18:30</v>
+      </c>
+      <c r="Q17" t="str">
+        <v/>
+      </c>
+      <c r="R17" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="18">
@@ -849,1408 +1359,5548 @@
         <v>19</v>
       </c>
       <c r="B18" t="str">
-        <v>34.344356</v>
+        <v>34.29128</v>
       </c>
       <c r="C18" t="str">
-        <v>134.137129</v>
+        <v>134.051165</v>
       </c>
       <c r="D18" t="str">
-        <v>高松市立田井幼稚園（令和2年4月1日から休園）</v>
+        <v>高松市立多肥保育所</v>
       </c>
       <c r="E18" t="str">
-        <v>高松市牟礼町牟礼1243-2</v>
+        <v>高松市多肥上町424</v>
       </c>
       <c r="F18" t="str">
-        <v>087-845-3701</v>
+        <v>087-889-0475</v>
       </c>
       <c r="G18" t="str">
-        <v>http://www.city.takamatsu.kagawa.jp/kurashi/kosodate/youchien_hoiku/kodomoen/chiiki_suishin/gaiyou.html</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h19/</v>
       </c>
       <c r="H18" t="str">
-        <v>市立幼稚園</v>
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <v>認定公立保育所</v>
+      </c>
+      <c r="J18" t="str">
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <v/>
+      </c>
+      <c r="L18" t="str">
+        <v>140</v>
+      </c>
+      <c r="M18" t="str">
+        <v>3か月～</v>
+      </c>
+      <c r="N18" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O18" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P18" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q18" t="str">
+        <v/>
+      </c>
+      <c r="R18" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19" t="str">
-        <v>34.33989</v>
+        <v>34.240061</v>
       </c>
       <c r="C19" t="str">
-        <v>134.148384</v>
+        <v>134.078063</v>
       </c>
       <c r="D19" t="str">
-        <v>高松市立大町幼稚園</v>
+        <v>高松市立西植田保育所</v>
       </c>
       <c r="E19" t="str">
-        <v>高松市牟礼町牟礼100-1</v>
+        <v>高松市西植田町2350-1</v>
       </c>
       <c r="F19" t="str">
-        <v>087-845-5718</v>
+        <v>087-849-0102</v>
       </c>
       <c r="G19" t="str">
-        <v>http://www.city.takamatsu.kagawa.jp/kurashi/kosodate/youchien_hoiku/kodomoen/chiiki_suishin/gaiyou.html</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h22/</v>
       </c>
       <c r="H19" t="str">
-        <v>市立幼稚園</v>
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <v>認定公立保育所</v>
+      </c>
+      <c r="J19" t="str">
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <v/>
+      </c>
+      <c r="L19" t="str">
+        <v>60</v>
+      </c>
+      <c r="M19" t="str">
+        <v>1歳～</v>
+      </c>
+      <c r="N19" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O19" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P19" t="str">
+        <v>18:30</v>
+      </c>
+      <c r="Q19" t="str">
+        <v/>
+      </c>
+      <c r="R19" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20" t="str">
-        <v>34.267361</v>
+        <v>34.239913</v>
       </c>
       <c r="C20" t="str">
-        <v>134.024324</v>
+        <v>134.097878</v>
       </c>
       <c r="D20" t="str">
-        <v>高松市立大野幼稚園</v>
+        <v>高松市立東植田保育所</v>
       </c>
       <c r="E20" t="str">
-        <v>高松市香川町大野1331-1</v>
+        <v>高松市東植田町2023-1</v>
       </c>
       <c r="F20" t="str">
-        <v>087-886-5010</v>
+        <v>087-849-0082</v>
       </c>
       <c r="G20" t="str">
-        <v>http://www.city.takamatsu.kagawa.jp/kurashi/kosodate/youchien_hoiku/kodomoen/chiiki_suishin/gaiyou.html</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h23/</v>
       </c>
       <c r="H20" t="str">
-        <v>市立幼稚園</v>
+        <v/>
+      </c>
+      <c r="I20" t="str">
+        <v>認定公立保育所</v>
+      </c>
+      <c r="J20" t="str">
+        <v/>
+      </c>
+      <c r="K20" t="str">
+        <v/>
+      </c>
+      <c r="L20" t="str">
+        <v>30</v>
+      </c>
+      <c r="M20" t="str">
+        <v>1歳～</v>
+      </c>
+      <c r="N20" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O20" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P20" t="str">
+        <v>18:30</v>
+      </c>
+      <c r="Q20" t="str">
+        <v/>
+      </c>
+      <c r="R20" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21" t="str">
-        <v>34.260769</v>
+        <v>34.26789</v>
       </c>
       <c r="C21" t="str">
-        <v>134.041964</v>
+        <v>134.027335</v>
       </c>
       <c r="D21" t="str">
-        <v>高松市立浅野幼稚園</v>
+        <v>高松市立大野保育所</v>
       </c>
       <c r="E21" t="str">
-        <v>高松市香川町浅野3117</v>
+        <v>高松市香川町大野1063-1</v>
       </c>
       <c r="F21" t="str">
-        <v>087-889-2489</v>
+        <v>087-886-9356</v>
       </c>
       <c r="G21" t="str">
-        <v>http://www.city.takamatsu.kagawa.jp/kurashi/kosodate/youchien_hoiku/kodomoen/chiiki_suishin/gaiyou.html</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h24/</v>
       </c>
       <c r="H21" t="str">
-        <v>市立幼稚園</v>
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <v>認定公立保育所</v>
+      </c>
+      <c r="J21" t="str">
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <v/>
+      </c>
+      <c r="L21" t="str">
+        <v>200</v>
+      </c>
+      <c r="M21" t="str">
+        <v>3か月～</v>
+      </c>
+      <c r="N21" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O21" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P21" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q21" t="str">
+        <v/>
+      </c>
+      <c r="R21" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22" t="str">
-        <v>34.306989</v>
+        <v>34.257828</v>
       </c>
       <c r="C22" t="str">
-        <v>133.963516</v>
+        <v>134.036939</v>
       </c>
       <c r="D22" t="str">
-        <v>高松市立国分寺北部幼稚園</v>
+        <v>高松市立浅野保育所</v>
       </c>
       <c r="E22" t="str">
-        <v>高松市国分寺町新居1870-2</v>
+        <v>高松市香川町浅野816-1</v>
       </c>
       <c r="F22" t="str">
-        <v>087-874-1155</v>
+        <v>087-889-2416</v>
       </c>
       <c r="G22" t="str">
-        <v>http://www.city.takamatsu.kagawa.jp/kurashi/kosodate/youchien_hoiku/kodomoen/chiiki_suishin/gaiyou.html</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h26/</v>
       </c>
       <c r="H22" t="str">
-        <v>市立幼稚園</v>
+        <v/>
+      </c>
+      <c r="I22" t="str">
+        <v>認定公立保育所</v>
+      </c>
+      <c r="J22" t="str">
+        <v/>
+      </c>
+      <c r="K22" t="str">
+        <v/>
+      </c>
+      <c r="L22" t="str">
+        <v>110</v>
+      </c>
+      <c r="M22" t="str">
+        <v>3か月～</v>
+      </c>
+      <c r="N22" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O22" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P22" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q22" t="str">
+        <v/>
+      </c>
+      <c r="R22" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23" t="str">
-        <v>34.285316</v>
+        <v>34.229495</v>
       </c>
       <c r="C23" t="str">
-        <v>133.961113</v>
+        <v>134.040497</v>
       </c>
       <c r="D23" t="str">
-        <v>高松市立国分寺南部幼稚園</v>
+        <v>高松市立川東南保育所</v>
       </c>
       <c r="E23" t="str">
-        <v>高松市国分寺町福家甲3123-1</v>
+        <v>高松市香川町川内原574-56</v>
       </c>
       <c r="F23" t="str">
-        <v>087-874-1159</v>
+        <v>087-879-5784</v>
       </c>
       <c r="G23" t="str">
-        <v>http://www.city.takamatsu.kagawa.jp/kurashi/kosodate/youchien_hoiku/kodomoen/chiiki_suishin/gaiyou.html</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h28/</v>
       </c>
       <c r="H23" t="str">
-        <v>市立幼稚園</v>
+        <v/>
+      </c>
+      <c r="I23" t="str">
+        <v>認定公立保育所</v>
+      </c>
+      <c r="J23" t="str">
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <v/>
+      </c>
+      <c r="L23" t="str">
+        <v>45</v>
+      </c>
+      <c r="M23" t="str">
+        <v>1歳～</v>
+      </c>
+      <c r="N23" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O23" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P23" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q23" t="str">
+        <v/>
+      </c>
+      <c r="R23" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24" t="str">
-        <v>34.358509</v>
+        <v>34.307041</v>
       </c>
       <c r="C24" t="str">
-        <v>133.967533</v>
+        <v>133.964275</v>
       </c>
       <c r="D24" t="str">
-        <v>高松市下笠居こども園</v>
+        <v>高松市立国分寺北部保育所</v>
       </c>
       <c r="E24" t="str">
-        <v>高松市生島町335</v>
+        <v>高松市国分寺町新居1906-1</v>
       </c>
       <c r="F24" t="str">
-        <v>087-882-2531</v>
+        <v>087-874-1487</v>
       </c>
       <c r="G24" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h142</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h29/</v>
       </c>
       <c r="H24" t="str">
-        <v>市立認定こども園</v>
+        <v/>
+      </c>
+      <c r="I24" t="str">
+        <v>認定公立保育所</v>
+      </c>
+      <c r="J24" t="str">
+        <v/>
+      </c>
+      <c r="K24" t="str">
+        <v/>
+      </c>
+      <c r="L24" t="str">
+        <v>100</v>
+      </c>
+      <c r="M24" t="str">
+        <v>1歳～</v>
+      </c>
+      <c r="N24" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O24" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P24" t="str">
+        <v>18:30</v>
+      </c>
+      <c r="Q24" t="str">
+        <v/>
+      </c>
+      <c r="R24" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25" t="str">
-        <v>34.328643</v>
+        <v>34.284657</v>
       </c>
       <c r="C25" t="str">
-        <v>134.156038</v>
+        <v>133.960908</v>
       </c>
       <c r="D25" t="str">
-        <v>高松市はらこども園</v>
+        <v>高松市立国分寺南部保育所</v>
       </c>
       <c r="E25" t="str">
-        <v>高松市牟礼町原570-1</v>
+        <v>高松市国分寺町福家甲3106-1</v>
       </c>
       <c r="F25" t="str">
-        <v>087-845-0234</v>
+        <v>087-874-1120</v>
       </c>
       <c r="G25" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h143</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h30/</v>
       </c>
       <c r="H25" t="str">
-        <v>市立認定こども園</v>
+        <v/>
+      </c>
+      <c r="I25" t="str">
+        <v>認定公立保育所</v>
+      </c>
+      <c r="J25" t="str">
+        <v/>
+      </c>
+      <c r="K25" t="str">
+        <v/>
+      </c>
+      <c r="L25" t="str">
+        <v>90</v>
+      </c>
+      <c r="M25" t="str">
+        <v>1歳～</v>
+      </c>
+      <c r="N25" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O25" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P25" t="str">
+        <v>18:30</v>
+      </c>
+      <c r="Q25" t="str">
+        <v/>
+      </c>
+      <c r="R25" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26" t="str">
-        <v>34.385761</v>
+        <v>34.345964</v>
       </c>
       <c r="C26" t="str">
-        <v>134.131516</v>
+        <v>134.126933</v>
       </c>
       <c r="D26" t="str">
-        <v>高松市庵治こども園</v>
+        <v>高松市立牟礼保育所</v>
       </c>
       <c r="E26" t="str">
-        <v>高松市庵治町853-1</v>
+        <v>高松市牟礼町牟礼1978-1</v>
       </c>
       <c r="F26" t="str">
-        <v>087-871-2535</v>
+        <v>087-845-1647</v>
       </c>
       <c r="G26" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h144</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h31/</v>
       </c>
       <c r="H26" t="str">
-        <v>市立認定こども園</v>
+        <v/>
+      </c>
+      <c r="I26" t="str">
+        <v>認定公立保育所</v>
+      </c>
+      <c r="J26" t="str">
+        <v/>
+      </c>
+      <c r="K26" t="str">
+        <v/>
+      </c>
+      <c r="L26" t="str">
+        <v>120</v>
+      </c>
+      <c r="M26" t="str">
+        <v>3か月～</v>
+      </c>
+      <c r="N26" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O26" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P26" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q26" t="str">
+        <v/>
+      </c>
+      <c r="R26" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27" t="str">
-        <v>34.242096</v>
+        <v>34.341172</v>
       </c>
       <c r="C27" t="str">
-        <v>134.005834</v>
+        <v>134.140155</v>
       </c>
       <c r="D27" t="str">
-        <v>高松市香南こども園</v>
+        <v>高松市立田井保育所</v>
       </c>
       <c r="E27" t="str">
-        <v>高松市香南町横井865-1</v>
+        <v>高松市牟礼町牟礼100-1</v>
       </c>
       <c r="F27" t="str">
-        <v>087-887-7876</v>
+        <v>087-845-5411</v>
       </c>
       <c r="G27" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h145</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h32/</v>
       </c>
       <c r="H27" t="str">
-        <v>市立認定こども園</v>
+        <v/>
+      </c>
+      <c r="I27" t="str">
+        <v>認定公立保育所</v>
+      </c>
+      <c r="J27" t="str">
+        <v/>
+      </c>
+      <c r="K27" t="str">
+        <v/>
+      </c>
+      <c r="L27" t="str">
+        <v>80</v>
+      </c>
+      <c r="M27" t="str">
+        <v>3か月～</v>
+      </c>
+      <c r="N27" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O27" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P27" t="str">
+        <v>18:30</v>
+      </c>
+      <c r="Q27" t="str">
+        <v/>
+      </c>
+      <c r="R27" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28" t="str">
-        <v>34.188524</v>
+        <v>34.358509</v>
       </c>
       <c r="C28" t="str">
-        <v>134.061382</v>
+        <v>133.967533</v>
       </c>
       <c r="D28" t="str">
-        <v>高松市塩江こども園</v>
+        <v>高松市下笠居こども園</v>
       </c>
       <c r="E28" t="str">
-        <v>高松市塩江町安原下第1号887</v>
+        <v>高松市生島町335</v>
       </c>
       <c r="F28" t="str">
-        <v>087-890-2022</v>
+        <v>087-881-2515</v>
       </c>
       <c r="G28" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h146</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h142</v>
       </c>
       <c r="H28" t="str">
-        <v>市立認定こども園</v>
+        <v/>
+      </c>
+      <c r="I28" t="str">
+        <v>認定こども園（幼保連携型）</v>
+      </c>
+      <c r="J28" t="str">
+        <v/>
+      </c>
+      <c r="K28" t="str">
+        <v/>
+      </c>
+      <c r="L28" t="str">
+        <v>1号認定 40、2・3号認定 105</v>
+      </c>
+      <c r="M28" t="str">
+        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
+      </c>
+      <c r="N28" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O28" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P28" t="str">
+        <v>18:30</v>
+      </c>
+      <c r="Q28" t="str">
+        <v/>
+      </c>
+      <c r="R28" t="str">
+        <v>有</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29" t="str">
-        <v>34.237755</v>
+        <v>34.328643</v>
       </c>
       <c r="C29" t="str">
-        <v>134.035134</v>
+        <v>134.156038</v>
       </c>
       <c r="D29" t="str">
-        <v>高松市川東こども園</v>
+        <v>高松市はらこども園</v>
       </c>
       <c r="E29" t="str">
-        <v>高松市香川町川東上1987-4</v>
+        <v>高松市牟礼町原570-1</v>
       </c>
       <c r="F29" t="str">
-        <v>087-879-4602</v>
+        <v>087-845-0234</v>
       </c>
       <c r="G29" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h27</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h143</v>
       </c>
       <c r="H29" t="str">
-        <v>市立認定こども園</v>
+        <v/>
+      </c>
+      <c r="I29" t="str">
+        <v>認定こども園（幼保連携型）</v>
+      </c>
+      <c r="J29" t="str">
+        <v/>
+      </c>
+      <c r="K29" t="str">
+        <v/>
+      </c>
+      <c r="L29" t="str">
+        <v>1号認定 90、2・3号認定 138</v>
+      </c>
+      <c r="M29" t="str">
+        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
+      </c>
+      <c r="N29" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O29" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P29" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q29" t="str">
+        <v/>
+      </c>
+      <c r="R29" t="str">
+        <v>有</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30" t="str">
-        <v>34.342609</v>
+        <v>34.385761</v>
       </c>
       <c r="C30" t="str">
-        <v>134.099868</v>
+        <v>134.131516</v>
       </c>
       <c r="D30" t="str">
-        <v>屋島こども園</v>
+        <v>高松市庵治こども園</v>
       </c>
       <c r="E30" t="str">
-        <v>高松市屋島西町1744-1</v>
+        <v>高松市庵治町853-1</v>
       </c>
       <c r="F30" t="str">
-        <v>087-841-9711</v>
+        <v>087-871-2535</v>
       </c>
       <c r="G30" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h307/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h144</v>
       </c>
       <c r="H30" t="str">
-        <v>市立認定こども園</v>
+        <v/>
+      </c>
+      <c r="I30" t="str">
+        <v>認定こども園（幼保連携型）</v>
+      </c>
+      <c r="J30" t="str">
+        <v/>
+      </c>
+      <c r="K30" t="str">
+        <v/>
+      </c>
+      <c r="L30" t="str">
+        <v>1号認定 45、2・3号認定 105</v>
+      </c>
+      <c r="M30" t="str">
+        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
+      </c>
+      <c r="N30" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O30" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P30" t="str">
+        <v>18:30</v>
+      </c>
+      <c r="Q30" t="str">
+        <v/>
+      </c>
+      <c r="R30" t="str">
+        <v>有</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31" t="str">
-        <v>34.2959789</v>
+        <v>34.242096</v>
       </c>
       <c r="C31" t="str">
-        <v>134.0789659</v>
+        <v>134.005834</v>
       </c>
       <c r="D31" t="str">
-        <v>林こども園</v>
+        <v>高松市香南こども園</v>
       </c>
       <c r="E31" t="str">
-        <v>高松市林町1405-4</v>
+        <v>高松市香南町横井865-1</v>
       </c>
       <c r="F31" t="str">
-        <v>087-865-1676</v>
+        <v>087-887-7876</v>
       </c>
       <c r="G31" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h306/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h145</v>
       </c>
       <c r="H31" t="str">
-        <v>市立認定こども園</v>
+        <v/>
+      </c>
+      <c r="I31" t="str">
+        <v>認定こども園（幼保連携型）</v>
+      </c>
+      <c r="J31" t="str">
+        <v/>
+      </c>
+      <c r="K31" t="str">
+        <v/>
+      </c>
+      <c r="L31" t="str">
+        <v>1号認定 90、2・3号認定 179</v>
+      </c>
+      <c r="M31" t="str">
+        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
+      </c>
+      <c r="N31" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O31" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P31" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q31" t="str">
+        <v/>
+      </c>
+      <c r="R31" t="str">
+        <v>有</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32" t="str">
-        <v>34.339334</v>
+        <v>34.188524</v>
       </c>
       <c r="C32" t="str">
-        <v>134.043665</v>
+        <v>134.061382</v>
       </c>
       <c r="D32" t="str">
-        <v>香川大学教育学部附属幼稚園高松園舎</v>
+        <v>高松市塩江こども園</v>
       </c>
       <c r="E32" t="str">
-        <v>高松市番町五丁目1-55</v>
+        <v>高松市塩江町安原下第1号887</v>
       </c>
       <c r="F32" t="str">
-        <v>087-861-2393</v>
+        <v>087-890-2022</v>
       </c>
       <c r="G32" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h146</v>
       </c>
       <c r="H32" t="str">
-        <v>国立幼稚園</v>
+        <v/>
+      </c>
+      <c r="I32" t="str">
+        <v>認定こども園（幼保連携型）</v>
+      </c>
+      <c r="J32" t="str">
+        <v/>
+      </c>
+      <c r="K32" t="str">
+        <v/>
+      </c>
+      <c r="L32" t="str">
+        <v>1号認定 15、2・3号認定 105</v>
+      </c>
+      <c r="M32" t="str">
+        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
+      </c>
+      <c r="N32" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O32" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P32" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q32" t="str">
+        <v/>
+      </c>
+      <c r="R32" t="str">
+        <v>有</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33" t="str">
-        <v>34.33993</v>
+        <v>34.237755</v>
       </c>
       <c r="C33" t="str">
-        <v>134.060168</v>
+        <v>134.035134</v>
       </c>
       <c r="D33" t="str">
-        <v>高松中央高校幼稚園</v>
+        <v>高松市川東こども園</v>
       </c>
       <c r="E33" t="str">
-        <v>高松市松島町一丁目14-8</v>
+        <v>高松市香川町川東上1987-4</v>
       </c>
       <c r="F33" t="str">
-        <v>087-831-0338</v>
+        <v>087-879-4602</v>
       </c>
       <c r="G33" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h27</v>
       </c>
       <c r="H33" t="str">
-        <v>私立幼稚園</v>
+        <v/>
+      </c>
+      <c r="I33" t="str">
+        <v>認定こども園（幼保連携型）</v>
+      </c>
+      <c r="J33" t="str">
+        <v/>
+      </c>
+      <c r="K33" t="str">
+        <v/>
+      </c>
+      <c r="L33" t="str">
+        <v>1号認定 90、2・3号認定 153</v>
+      </c>
+      <c r="M33" t="str">
+        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
+      </c>
+      <c r="N33" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O33" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P33" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q33" t="str">
+        <v/>
+      </c>
+      <c r="R33" t="str">
+        <v>有</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34" t="str">
-        <v>34.299667</v>
+        <v>34.342609</v>
       </c>
       <c r="C34" t="str">
-        <v>134.049999</v>
+        <v>134.099868</v>
       </c>
       <c r="D34" t="str">
-        <v>マリア幼稚園</v>
+        <v>屋島こども園</v>
       </c>
       <c r="E34" t="str">
-        <v>高松市多肥下町14-3</v>
+        <v>高松市屋島西町1744-1</v>
       </c>
       <c r="F34" t="str">
-        <v>087-867-7303</v>
+        <v>087-841-9711</v>
       </c>
       <c r="G34" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h307/</v>
       </c>
       <c r="H34" t="str">
-        <v>私立幼稚園</v>
+        <v/>
+      </c>
+      <c r="I34" t="str">
+        <v>認定こども園（幼保連携型）</v>
+      </c>
+      <c r="J34" t="str">
+        <v/>
+      </c>
+      <c r="K34" t="str">
+        <v/>
+      </c>
+      <c r="L34" t="str">
+        <v>1号認定 9、2・3号認定 135</v>
+      </c>
+      <c r="M34" t="str">
+        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
+      </c>
+      <c r="N34" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O34" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P34" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q34" t="str">
+        <v/>
+      </c>
+      <c r="R34" t="str">
+        <v>有</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35" t="str">
-        <v>34.341348</v>
+        <v>34.2959789</v>
       </c>
       <c r="C35" t="str">
-        <v>134.10799</v>
+        <v>134.0789659</v>
       </c>
       <c r="D35" t="str">
-        <v>のぞみ幼稚園</v>
+        <v>林こども園</v>
       </c>
       <c r="E35" t="str">
-        <v>高松市屋島中町30</v>
+        <v>高松市林町1405-4</v>
       </c>
       <c r="F35" t="str">
-        <v>087-843-2107</v>
+        <v>087-865-1676</v>
       </c>
       <c r="G35" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h306/</v>
       </c>
       <c r="H35" t="str">
-        <v>私立幼稚園</v>
+        <v/>
+      </c>
+      <c r="I35" t="str">
+        <v>認定こども園（幼保連携型）</v>
+      </c>
+      <c r="J35" t="str">
+        <v/>
+      </c>
+      <c r="K35" t="str">
+        <v/>
+      </c>
+      <c r="L35" t="str">
+        <v>1号認定 105、2・3号認定 194</v>
+      </c>
+      <c r="M35" t="str">
+        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
+      </c>
+      <c r="N35" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O35" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P35" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q35" t="str">
+        <v/>
+      </c>
+      <c r="R35" t="str">
+        <v>有</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36" t="str">
-        <v>34.330038</v>
+        <v>34.420292</v>
       </c>
       <c r="C36" t="str">
-        <v>134.05066</v>
+        <v>134.057016</v>
       </c>
       <c r="D36" t="str">
-        <v>栗林幼稚園</v>
+        <v>高松市小規模保育事業所男木保育所</v>
       </c>
       <c r="E36" t="str">
-        <v>高松市栗林町二丁目19-4</v>
+        <v>高松市男木町165</v>
       </c>
       <c r="F36" t="str">
-        <v>087-834-0263</v>
+        <v>087-873-0614</v>
       </c>
       <c r="G36" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/%25E9%25AB%2598%25E6%259D%25BE%25E5%25B8%2582%25E5%25B0%258F%25E8%25A6%258F%25E6%25A8%25A1%25E4%25BF%259D%25E8%2582%25B2%25E4%25BA%258B%25E6%25A5%25AD%25E6%2589%2580%25E3%2580%2580%25E7%2594%25B7%25E6%259C%25A8%25E4%25BF%259D%25E8%2582%25B2%25E6%2589%2580%25EF%25BC%2592/</v>
       </c>
       <c r="H36" t="str">
-        <v>私立幼稚園</v>
+        <v/>
+      </c>
+      <c r="I36" t="str">
+        <v>小規模保育施設</v>
+      </c>
+      <c r="J36" t="str">
+        <v/>
+      </c>
+      <c r="K36" t="str">
+        <v/>
+      </c>
+      <c r="L36" t="str">
+        <v>6</v>
+      </c>
+      <c r="M36" t="str">
+        <v>1歳児～</v>
+      </c>
+      <c r="N36" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O36" t="str">
+        <v>09:00</v>
+      </c>
+      <c r="P36" t="str">
+        <v>16:00</v>
+      </c>
+      <c r="Q36" t="str">
+        <v/>
+      </c>
+      <c r="R36" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37" t="str">
-        <v>34.337611</v>
+        <v>34.327973</v>
       </c>
       <c r="C37" t="str">
-        <v>134.042829</v>
+        <v>134.058101</v>
       </c>
       <c r="D37" t="str">
-        <v>高松幼稚園</v>
+        <v>こぶし今里保育園</v>
       </c>
       <c r="E37" t="str">
-        <v>高松市亀岡町1-6</v>
+        <v>高松市今里町一丁目7-2</v>
       </c>
       <c r="F37" t="str">
-        <v>087-861-3666</v>
+        <v>087-834-1946</v>
       </c>
       <c r="G37" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h159/</v>
       </c>
       <c r="H37" t="str">
-        <v>私立幼稚園</v>
+        <v/>
+      </c>
+      <c r="I37" t="str">
+        <v>認定私立保育所</v>
+      </c>
+      <c r="J37" t="str">
+        <v/>
+      </c>
+      <c r="K37" t="str">
+        <v/>
+      </c>
+      <c r="L37" t="str">
+        <v>90</v>
+      </c>
+      <c r="M37" t="str">
+        <v>2か月～</v>
+      </c>
+      <c r="N37" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O37" t="str">
+        <v>07:00</v>
+      </c>
+      <c r="P37" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q37" t="str">
+        <v/>
+      </c>
+      <c r="R37" t="str">
+        <v>有</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38" t="str">
-        <v>34.330593</v>
+        <v>34.333037</v>
       </c>
       <c r="C38" t="str">
-        <v>134.051379</v>
+        <v>134.051372</v>
       </c>
       <c r="D38" t="str">
-        <v>桜町聖母幼稚園</v>
+        <v>敬愛保育園</v>
       </c>
       <c r="E38" t="str">
-        <v>高松市桜町一丁目8-13</v>
+        <v>高松市藤塚町三丁目18-2</v>
       </c>
       <c r="F38" t="str">
-        <v>087-831-0328</v>
+        <v>087-831-6778</v>
       </c>
       <c r="G38" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h33/</v>
       </c>
       <c r="H38" t="str">
-        <v>私立幼稚園</v>
+        <v/>
+      </c>
+      <c r="I38" t="str">
+        <v>認定私立保育所</v>
+      </c>
+      <c r="J38" t="str">
+        <v/>
+      </c>
+      <c r="K38" t="str">
+        <v/>
+      </c>
+      <c r="L38" t="str">
+        <v>150</v>
+      </c>
+      <c r="M38" t="str">
+        <v>3か月～</v>
+      </c>
+      <c r="N38" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O38" t="str">
+        <v>07:00</v>
+      </c>
+      <c r="P38" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q38" t="str">
+        <v/>
+      </c>
+      <c r="R38" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39" t="str">
-        <v>34.280112</v>
+        <v>34.328268</v>
       </c>
       <c r="C39" t="str">
-        <v>134.047253</v>
+        <v>134.066087</v>
       </c>
       <c r="D39" t="str">
-        <v>相愛幼稚園</v>
+        <v>平安保育園</v>
       </c>
       <c r="E39" t="str">
-        <v>高松市仏生山町甲546</v>
+        <v>高松市上福岡町894-8</v>
       </c>
       <c r="F39" t="str">
-        <v>087-888-2606</v>
+        <v>087-833-7734</v>
       </c>
       <c r="G39" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h160/</v>
       </c>
       <c r="H39" t="str">
-        <v>私立幼稚園</v>
+        <v/>
+      </c>
+      <c r="I39" t="str">
+        <v>認定私立保育所</v>
+      </c>
+      <c r="J39" t="str">
+        <v/>
+      </c>
+      <c r="K39" t="str">
+        <v/>
+      </c>
+      <c r="L39" t="str">
+        <v>130</v>
+      </c>
+      <c r="M39" t="str">
+        <v>2か月～</v>
+      </c>
+      <c r="N39" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O39" t="str">
+        <v>07:00</v>
+      </c>
+      <c r="P39" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q39" t="str">
+        <v/>
+      </c>
+      <c r="R39" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40" t="str">
-        <v>34.301496</v>
+        <v>34.304804</v>
       </c>
       <c r="C40" t="str">
-        <v>134.044062</v>
+        <v>134.02164</v>
       </c>
       <c r="D40" t="str">
-        <v>太田百華幼稚園</v>
+        <v>勅使百華保育園</v>
       </c>
       <c r="E40" t="str">
-        <v>高松市太田上町932</v>
+        <v>高松市勅使町955</v>
       </c>
       <c r="F40" t="str">
-        <v>087-867-7445</v>
+        <v>087-865-2998</v>
       </c>
       <c r="G40" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h34/</v>
       </c>
       <c r="H40" t="str">
-        <v>私立幼稚園</v>
+        <v/>
+      </c>
+      <c r="I40" t="str">
+        <v>認定私立保育所</v>
+      </c>
+      <c r="J40" t="str">
+        <v/>
+      </c>
+      <c r="K40" t="str">
+        <v/>
+      </c>
+      <c r="L40" t="str">
+        <v>230</v>
+      </c>
+      <c r="M40" t="str">
+        <v>3か月～</v>
+      </c>
+      <c r="N40" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O40" t="str">
+        <v>07:00</v>
+      </c>
+      <c r="P40" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q40" t="str">
+        <v/>
+      </c>
+      <c r="R40" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41" t="str">
-        <v>34.340658</v>
+        <v>34.316835</v>
       </c>
       <c r="C41" t="str">
-        <v>134.052507</v>
+        <v>134.024336</v>
       </c>
       <c r="D41" t="str">
-        <v>光華幼稚園</v>
+        <v>西春日保育所</v>
       </c>
       <c r="E41" t="str">
-        <v>高松市瓦町一丁目13-8</v>
+        <v>高松市西春日町1407</v>
       </c>
       <c r="F41" t="str">
-        <v>087-831-5011</v>
+        <v>087-866-4166</v>
       </c>
       <c r="G41" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h161/</v>
       </c>
       <c r="H41" t="str">
-        <v>私立幼稚園</v>
+        <v/>
+      </c>
+      <c r="I41" t="str">
+        <v>認定私立保育所</v>
+      </c>
+      <c r="J41" t="str">
+        <v/>
+      </c>
+      <c r="K41" t="str">
+        <v/>
+      </c>
+      <c r="L41" t="str">
+        <v>130</v>
+      </c>
+      <c r="M41" t="str">
+        <v>2か月～</v>
+      </c>
+      <c r="N41" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O41" t="str">
+        <v>07:00</v>
+      </c>
+      <c r="P41" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q41" t="str">
+        <v/>
+      </c>
+      <c r="R41" t="str">
+        <v>有</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42" t="str">
-        <v>34.322588</v>
+        <v>34.304304</v>
       </c>
       <c r="C42" t="str">
-        <v>134.052686</v>
+        <v>134.037996</v>
       </c>
       <c r="D42" t="str">
-        <v>くにとう幼稚園</v>
+        <v>太田西保育園</v>
       </c>
       <c r="E42" t="str">
-        <v>高松市伏石町1611</v>
+        <v>高松市太田下町2025</v>
       </c>
       <c r="F42" t="str">
-        <v>087-866-1666</v>
+        <v>087-865-0601</v>
       </c>
       <c r="G42" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h162/</v>
       </c>
       <c r="H42" t="str">
-        <v>私立幼稚園</v>
+        <v/>
+      </c>
+      <c r="I42" t="str">
+        <v>認定私立保育所</v>
+      </c>
+      <c r="J42" t="str">
+        <v/>
+      </c>
+      <c r="K42" t="str">
+        <v/>
+      </c>
+      <c r="L42" t="str">
+        <v>100</v>
+      </c>
+      <c r="M42" t="str">
+        <v>2か月～</v>
+      </c>
+      <c r="N42" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O42" t="str">
+        <v>07:00</v>
+      </c>
+      <c r="P42" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q42" t="str">
+        <v/>
+      </c>
+      <c r="R42" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43" t="str">
-        <v>34.344964</v>
+        <v>34.309654</v>
       </c>
       <c r="C43" t="str">
-        <v>134.095292</v>
+        <v>134.0631</v>
       </c>
       <c r="D43" t="str">
-        <v>屋島教会幼稚園</v>
+        <v>こぶし中央保育園</v>
       </c>
       <c r="E43" t="str">
-        <v>高松市屋島西町1392-7</v>
+        <v>高松市木太町5089-9</v>
       </c>
       <c r="F43" t="str">
-        <v>087-841-1925</v>
+        <v>087-866-7169</v>
       </c>
       <c r="G43" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h35/</v>
       </c>
       <c r="H43" t="str">
-        <v>新制度に移行している私立幼稚園</v>
+        <v/>
+      </c>
+      <c r="I43" t="str">
+        <v>認定私立保育所</v>
+      </c>
+      <c r="J43" t="str">
+        <v/>
+      </c>
+      <c r="K43" t="str">
+        <v/>
+      </c>
+      <c r="L43" t="str">
+        <v>90</v>
+      </c>
+      <c r="M43" t="str">
+        <v>2か月～</v>
+      </c>
+      <c r="N43" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O43" t="str">
+        <v>07:00</v>
+      </c>
+      <c r="P43" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q43" t="str">
+        <v/>
+      </c>
+      <c r="R43" t="str">
+        <v>有</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B44" t="str">
-        <v>34.318503</v>
+        <v>34.350107</v>
       </c>
       <c r="C44" t="str">
-        <v>134.045934</v>
+        <v>134.091559</v>
       </c>
       <c r="D44" t="str">
-        <v>青空幼稚園</v>
+        <v>あすなろ保育園</v>
       </c>
       <c r="E44" t="str">
-        <v>高松市三条町498</v>
+        <v>高松市屋島西町2453-6</v>
       </c>
       <c r="F44" t="str">
-        <v>087-867-7314</v>
+        <v>087-843-3143</v>
       </c>
       <c r="G44" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h36/</v>
       </c>
       <c r="H44" t="str">
-        <v>新制度に移行している私立幼稚園</v>
+        <v/>
+      </c>
+      <c r="I44" t="str">
+        <v>認定私立保育所</v>
+      </c>
+      <c r="J44" t="str">
+        <v/>
+      </c>
+      <c r="K44" t="str">
+        <v/>
+      </c>
+      <c r="L44" t="str">
+        <v>180</v>
+      </c>
+      <c r="M44" t="str">
+        <v>3か月～</v>
+      </c>
+      <c r="N44" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O44" t="str">
+        <v>07:00</v>
+      </c>
+      <c r="P44" t="str">
+        <v>20:00</v>
+      </c>
+      <c r="Q44" t="str">
+        <v/>
+      </c>
+      <c r="R44" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B45" t="str">
-        <v>34.319073</v>
+        <v>34.300415</v>
       </c>
       <c r="C45" t="str">
-        <v>134.034293</v>
+        <v>134.115798</v>
       </c>
       <c r="D45" t="str">
-        <v>愛育幼稚園</v>
+        <v>西光寺保育所</v>
       </c>
       <c r="E45" t="str">
-        <v>高松市西ハゼ町310</v>
+        <v>高松市前田西町167-1</v>
       </c>
       <c r="F45" t="str">
-        <v>087-865-5845</v>
+        <v>087-847-6237</v>
       </c>
       <c r="G45" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h164/</v>
       </c>
       <c r="H45" t="str">
-        <v>新制度に移行している私立幼稚園</v>
+        <v/>
+      </c>
+      <c r="I45" t="str">
+        <v>認定私立保育所</v>
+      </c>
+      <c r="J45" t="str">
+        <v/>
+      </c>
+      <c r="K45" t="str">
+        <v/>
+      </c>
+      <c r="L45" t="str">
+        <v>110</v>
+      </c>
+      <c r="M45" t="str">
+        <v>2か月～</v>
+      </c>
+      <c r="N45" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O45" t="str">
+        <v>07:00</v>
+      </c>
+      <c r="P45" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q45" t="str">
+        <v/>
+      </c>
+      <c r="R45" t="str">
+        <v>有</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B46" t="str">
-        <v>34.304447</v>
+        <v>34.299537</v>
       </c>
       <c r="C46" t="str">
-        <v>134.000126</v>
+        <v>134.092378</v>
       </c>
       <c r="D46" t="str">
-        <v>まゆみ幼稚園</v>
+        <v>川添保育園</v>
       </c>
       <c r="E46" t="str">
-        <v>高松市檀紙町1541-4</v>
+        <v>高松市下田井町52</v>
       </c>
       <c r="F46" t="str">
-        <v>087-885-0756</v>
+        <v>087-847-5078</v>
       </c>
       <c r="G46" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h165/</v>
       </c>
       <c r="H46" t="str">
-        <v>新制度に移行している私立幼稚園</v>
+        <v/>
+      </c>
+      <c r="I46" t="str">
+        <v>認定私立保育所</v>
+      </c>
+      <c r="J46" t="str">
+        <v/>
+      </c>
+      <c r="K46" t="str">
+        <v/>
+      </c>
+      <c r="L46" t="str">
+        <v>120</v>
+      </c>
+      <c r="M46" t="str">
+        <v>3か月～</v>
+      </c>
+      <c r="N46" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O46" t="str">
+        <v>07:00</v>
+      </c>
+      <c r="P46" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q46" t="str">
+        <v/>
+      </c>
+      <c r="R46" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47" t="str">
-        <v>34.343464</v>
+        <v>34.277465</v>
       </c>
       <c r="C47" t="str">
-        <v>134.031956</v>
+        <v>134.030037</v>
       </c>
       <c r="D47" t="str">
-        <v>二番丁幼稚園</v>
+        <v>高松南保育園</v>
       </c>
       <c r="E47" t="str">
-        <v>高松市昭和町二丁目7-1</v>
+        <v>高松市寺井町453-1</v>
       </c>
       <c r="F47" t="str">
-        <v>087-861-3575</v>
+        <v>087-886-0275</v>
       </c>
       <c r="G47" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h38/</v>
       </c>
       <c r="H47" t="str">
-        <v>新制度に移行している私立幼稚園</v>
+        <v/>
+      </c>
+      <c r="I47" t="str">
+        <v>認定私立保育所</v>
+      </c>
+      <c r="J47" t="str">
+        <v/>
+      </c>
+      <c r="K47" t="str">
+        <v/>
+      </c>
+      <c r="L47" t="str">
+        <v>160</v>
+      </c>
+      <c r="M47" t="str">
+        <v>6か月～</v>
+      </c>
+      <c r="N47" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O47" t="str">
+        <v>07:00</v>
+      </c>
+      <c r="P47" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q47" t="str">
+        <v/>
+      </c>
+      <c r="R47" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48" t="str">
-        <v>34.314879</v>
+        <v>34.284927</v>
       </c>
       <c r="C48" t="str">
-        <v>133.994961</v>
+        <v>134.010137</v>
       </c>
       <c r="D48" t="str">
-        <v>ときわ幼稚園</v>
+        <v>円座百華保育園</v>
       </c>
       <c r="E48" t="str">
-        <v>高松市飯田町138</v>
+        <v>高松市円座町1478-1</v>
       </c>
       <c r="F48" t="str">
-        <v>087-881-2796</v>
+        <v>087-885-1203</v>
       </c>
       <c r="G48" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h167/</v>
       </c>
       <c r="H48" t="str">
-        <v>新制度に移行している私立幼稚園</v>
+        <v/>
+      </c>
+      <c r="I48" t="str">
+        <v>認定私立保育所</v>
+      </c>
+      <c r="J48" t="str">
+        <v/>
+      </c>
+      <c r="K48" t="str">
+        <v/>
+      </c>
+      <c r="L48" t="str">
+        <v>260</v>
+      </c>
+      <c r="M48" t="str">
+        <v>7か月～</v>
+      </c>
+      <c r="N48" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O48" t="str">
+        <v>07:00</v>
+      </c>
+      <c r="P48" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q48" t="str">
+        <v/>
+      </c>
+      <c r="R48" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49" t="str">
-        <v>34.343412</v>
+        <v>34.306205</v>
       </c>
       <c r="C49" t="str">
-        <v>134.044394</v>
+        <v>133.998614</v>
       </c>
       <c r="D49" t="str">
-        <v>高松聖母幼稚園</v>
+        <v>高松西保育園</v>
       </c>
       <c r="E49" t="str">
-        <v>高松市番町二丁目4-31</v>
+        <v>高松市檀紙町1521-4</v>
       </c>
       <c r="F49" t="str">
-        <v>087-851-2372</v>
+        <v>087-886-5006</v>
       </c>
       <c r="G49" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h40/</v>
       </c>
       <c r="H49" t="str">
-        <v>新制度に移行している私立幼稚園</v>
+        <v/>
+      </c>
+      <c r="I49" t="str">
+        <v>認定私立保育所</v>
+      </c>
+      <c r="J49" t="str">
+        <v/>
+      </c>
+      <c r="K49" t="str">
+        <v/>
+      </c>
+      <c r="L49" t="str">
+        <v>130</v>
+      </c>
+      <c r="M49" t="str">
+        <v>2か月～</v>
+      </c>
+      <c r="N49" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O49" t="str">
+        <v>07:00</v>
+      </c>
+      <c r="P49" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q49" t="str">
+        <v/>
+      </c>
+      <c r="R49" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50" t="str">
-        <v>34.292144</v>
+        <v>34.285075</v>
       </c>
       <c r="C50" t="str">
-        <v>134.066237</v>
+        <v>134.110374</v>
       </c>
       <c r="D50" t="str">
-        <v>サンシャインこどもの森</v>
+        <v>若葉保育園</v>
       </c>
       <c r="E50" t="str">
-        <v>高松市上林町502-2</v>
+        <v>高松市亀田南町108-2</v>
       </c>
       <c r="F50" t="str">
-        <v>087-889-8181</v>
+        <v>087-847-7932</v>
       </c>
       <c r="G50" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h147/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h168/</v>
       </c>
       <c r="H50" t="str">
-        <v>私立認定こども園</v>
+        <v/>
+      </c>
+      <c r="I50" t="str">
+        <v>認定私立保育所</v>
+      </c>
+      <c r="J50" t="str">
+        <v/>
+      </c>
+      <c r="K50" t="str">
+        <v/>
+      </c>
+      <c r="L50" t="str">
+        <v>130</v>
+      </c>
+      <c r="M50" t="str">
+        <v>3か月～</v>
+      </c>
+      <c r="N50" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O50" t="str">
+        <v>07:00</v>
+      </c>
+      <c r="P50" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q50" t="str">
+        <v/>
+      </c>
+      <c r="R50" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51" t="str">
-        <v>34.303319</v>
+        <v>34.311827</v>
       </c>
       <c r="C51" t="str">
-        <v>133.949144</v>
+        <v>134.08609</v>
       </c>
       <c r="D51" t="str">
-        <v>いずみこども園</v>
+        <v>白樺保育園</v>
       </c>
       <c r="E51" t="str">
-        <v>高松市国分寺町国分2408</v>
+        <v>高松市元山町855-2</v>
       </c>
       <c r="F51" t="str">
-        <v>087-874-0882</v>
+        <v>087-866-6555</v>
       </c>
       <c r="G51" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h148</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h41/</v>
       </c>
       <c r="H51" t="str">
-        <v>私立認定こども園</v>
+        <v/>
+      </c>
+      <c r="I51" t="str">
+        <v>認定私立保育所</v>
+      </c>
+      <c r="J51" t="str">
+        <v/>
+      </c>
+      <c r="K51" t="str">
+        <v/>
+      </c>
+      <c r="L51" t="str">
+        <v>120</v>
+      </c>
+      <c r="M51" t="str">
+        <v>3か月～</v>
+      </c>
+      <c r="N51" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O51" t="str">
+        <v>07:00</v>
+      </c>
+      <c r="P51" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q51" t="str">
+        <v/>
+      </c>
+      <c r="R51" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52" t="str">
-        <v>34.304328</v>
+        <v>34.341315</v>
       </c>
       <c r="C52" t="str">
-        <v>133.97246</v>
+        <v>134.06296</v>
       </c>
       <c r="D52" t="str">
-        <v>いずみこども園分園</v>
+        <v>松福保育園</v>
       </c>
       <c r="E52" t="str">
-        <v>国分寺町新居281-1</v>
+        <v>高松市松福町二丁目18-16</v>
       </c>
       <c r="F52" t="str">
-        <v>087-875-0882</v>
+        <v>087-822-7605</v>
       </c>
       <c r="G52" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h211</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h42/</v>
       </c>
       <c r="H52" t="str">
-        <v>私立認定こども園</v>
+        <v/>
+      </c>
+      <c r="I52" t="str">
+        <v>認定私立保育所</v>
+      </c>
+      <c r="J52" t="str">
+        <v/>
+      </c>
+      <c r="K52" t="str">
+        <v/>
+      </c>
+      <c r="L52" t="str">
+        <v>120</v>
+      </c>
+      <c r="M52" t="str">
+        <v>2か月～</v>
+      </c>
+      <c r="N52" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O52" t="str">
+        <v>07:00</v>
+      </c>
+      <c r="P52" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q52" t="str">
+        <v/>
+      </c>
+      <c r="R52" t="str">
+        <v>有</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53" t="str">
-        <v>34.327571</v>
+        <v>34.320782</v>
       </c>
       <c r="C53" t="str">
-        <v>134.087355</v>
+        <v>134.067903</v>
       </c>
       <c r="D53" t="str">
-        <v>認定こども園高松東幼稚園</v>
+        <v>さくらんぼ保育園</v>
       </c>
       <c r="E53" t="str">
-        <v>高松市春日町688</v>
+        <v>高松市木太町1165-3</v>
       </c>
       <c r="F53" t="str">
-        <v>087-841-2306</v>
+        <v>087-867-4151</v>
       </c>
       <c r="G53" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h262</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h43/</v>
       </c>
       <c r="H53" t="str">
-        <v>私立認定こども園</v>
+        <v/>
+      </c>
+      <c r="I53" t="str">
+        <v>認定私立保育所</v>
+      </c>
+      <c r="J53" t="str">
+        <v/>
+      </c>
+      <c r="K53" t="str">
+        <v/>
+      </c>
+      <c r="L53" t="str">
+        <v>60</v>
+      </c>
+      <c r="M53" t="str">
+        <v>1歳児～</v>
+      </c>
+      <c r="N53" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O53" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P53" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q53" t="str">
+        <v/>
+      </c>
+      <c r="R53" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54" t="str">
-        <v>34.325356</v>
+        <v>34.263658</v>
       </c>
       <c r="C54" t="str">
-        <v>134.099079</v>
+        <v>134.108531</v>
       </c>
       <c r="D54" t="str">
-        <v>認定こども園新田幼稚園</v>
+        <v>すみれ保育園</v>
       </c>
       <c r="E54" t="str">
-        <v>高松市新田町甲2630-1</v>
+        <v>高松市十川東町556-1</v>
       </c>
       <c r="F54" t="str">
-        <v>087-841-3686</v>
+        <v>087-848-0806</v>
       </c>
       <c r="G54" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h263</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h169/</v>
       </c>
       <c r="H54" t="str">
-        <v>私立認定こども園</v>
+        <v/>
+      </c>
+      <c r="I54" t="str">
+        <v>認定私立保育所</v>
+      </c>
+      <c r="J54" t="str">
+        <v/>
+      </c>
+      <c r="K54" t="str">
+        <v/>
+      </c>
+      <c r="L54" t="str">
+        <v>120</v>
+      </c>
+      <c r="M54" t="str">
+        <v>3か月～</v>
+      </c>
+      <c r="N54" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O54" t="str">
+        <v>07:00</v>
+      </c>
+      <c r="P54" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q54" t="str">
+        <v/>
+      </c>
+      <c r="R54" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55" t="str">
-        <v>34.268464</v>
+        <v>34.343745</v>
       </c>
       <c r="C55" t="str">
-        <v>134.006758</v>
+        <v>134.052287</v>
       </c>
       <c r="D55" t="str">
-        <v>認定こども園和光こども園</v>
+        <v>高松第二保育園</v>
       </c>
       <c r="E55" t="str">
-        <v>高松市川部町1561-1</v>
+        <v>高松市御坊町2-2</v>
       </c>
       <c r="F55" t="str">
-        <v>087-886-5879</v>
+        <v>087-821-5241</v>
       </c>
       <c r="G55" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h39/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h44/</v>
       </c>
       <c r="H55" t="str">
-        <v>私立認定こども園</v>
+        <v/>
+      </c>
+      <c r="I55" t="str">
+        <v>認定私立保育所</v>
+      </c>
+      <c r="J55" t="str">
+        <v/>
+      </c>
+      <c r="K55" t="str">
+        <v/>
+      </c>
+      <c r="L55" t="str">
+        <v>30</v>
+      </c>
+      <c r="M55" t="str">
+        <v>2か月～</v>
+      </c>
+      <c r="N55" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O55" t="str">
+        <v>06:40</v>
+      </c>
+      <c r="P55" t="str">
+        <v>25:00</v>
+      </c>
+      <c r="Q55" t="str">
+        <v/>
+      </c>
+      <c r="R55" t="str">
+        <v>有</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56" t="str">
-        <v>34.331077</v>
+        <v>34.327799</v>
       </c>
       <c r="C56" t="str">
-        <v>134.094275</v>
+        <v>134.062199</v>
       </c>
       <c r="D56" t="str">
-        <v>認定こども園春日こども園</v>
+        <v>今里保育所</v>
       </c>
       <c r="E56" t="str">
-        <v>高松市春日町1287-1</v>
+        <v>高松市今里町二丁目1-5</v>
       </c>
       <c r="F56" t="str">
-        <v>087-843-3689</v>
+        <v>087-834-3535</v>
       </c>
       <c r="G56" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h163/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h45/</v>
       </c>
       <c r="H56" t="str">
-        <v>私立認定こども園</v>
+        <v/>
+      </c>
+      <c r="I56" t="str">
+        <v>認定私立保育所</v>
+      </c>
+      <c r="J56" t="str">
+        <v/>
+      </c>
+      <c r="K56" t="str">
+        <v/>
+      </c>
+      <c r="L56" t="str">
+        <v>130</v>
+      </c>
+      <c r="M56" t="str">
+        <v>2か月～</v>
+      </c>
+      <c r="N56" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O56" t="str">
+        <v>07:00</v>
+      </c>
+      <c r="P56" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q56" t="str">
+        <v/>
+      </c>
+      <c r="R56" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57" t="str">
-        <v>34.326539</v>
+        <v>34.25728</v>
       </c>
       <c r="C57" t="str">
-        <v>134.047837</v>
+        <v>134.035674</v>
       </c>
       <c r="D57" t="str">
-        <v>認定こども園花ノ宮こども園</v>
+        <v>さんさん保育園</v>
       </c>
       <c r="E57" t="str">
-        <v>高松市花ノ宮町一丁目10-22</v>
+        <v>高松市香川町浅野834-1</v>
       </c>
       <c r="F57" t="str">
-        <v>087-831-6318</v>
+        <v>087-888-6333</v>
       </c>
       <c r="G57" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h175/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h170/</v>
       </c>
       <c r="H57" t="str">
-        <v>私立認定こども園</v>
+        <v/>
+      </c>
+      <c r="I57" t="str">
+        <v>認定私立保育所</v>
+      </c>
+      <c r="J57" t="str">
+        <v/>
+      </c>
+      <c r="K57" t="str">
+        <v/>
+      </c>
+      <c r="L57" t="str">
+        <v>110</v>
+      </c>
+      <c r="M57" t="str">
+        <v>3か月～</v>
+      </c>
+      <c r="N57" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O57" t="str">
+        <v>07:00</v>
+      </c>
+      <c r="P57" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q57" t="str">
+        <v/>
+      </c>
+      <c r="R57" t="str">
+        <v>有</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58" t="str">
-        <v>34.333461</v>
+        <v>34.289495</v>
       </c>
       <c r="C58" t="str">
-        <v>134.04506</v>
+        <v>133.952485</v>
       </c>
       <c r="D58" t="str">
-        <v>認定こども園中野保育所</v>
+        <v>みよし保育園</v>
       </c>
       <c r="E58" t="str">
-        <v>高松市中野町27-5</v>
+        <v>高松市国分寺町柏原80</v>
       </c>
       <c r="F58" t="str">
-        <v>087-831-8659</v>
+        <v>087-874-0622</v>
       </c>
       <c r="G58" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h174/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h171/</v>
       </c>
       <c r="H58" t="str">
-        <v>私立認定こども園</v>
+        <v/>
+      </c>
+      <c r="I58" t="str">
+        <v>認定私立保育所</v>
+      </c>
+      <c r="J58" t="str">
+        <v/>
+      </c>
+      <c r="K58" t="str">
+        <v/>
+      </c>
+      <c r="L58" t="str">
+        <v>80</v>
+      </c>
+      <c r="M58" t="str">
+        <v>3か月～</v>
+      </c>
+      <c r="N58" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O58" t="str">
+        <v>07:00</v>
+      </c>
+      <c r="P58" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q58" t="str">
+        <v/>
+      </c>
+      <c r="R58" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59" t="str">
-        <v>34.279891</v>
+        <v>34.274113</v>
       </c>
       <c r="C59" t="str">
-        <v>134.042395</v>
+        <v>133.973116</v>
       </c>
       <c r="D59" t="str">
-        <v>幼保連携型認定こども園カナン保育園</v>
+        <v>みのり保育園</v>
       </c>
       <c r="E59" t="str">
-        <v>高松市仏生山町甲745-2</v>
+        <v>高松市国分寺町福家甲1982</v>
       </c>
       <c r="F59" t="str">
-        <v>087-889-1059</v>
+        <v>087-874-4309</v>
       </c>
       <c r="G59" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h166/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h172/</v>
       </c>
       <c r="H59" t="str">
-        <v>私立認定こども園</v>
+        <v/>
+      </c>
+      <c r="I59" t="str">
+        <v>認定私立保育所</v>
+      </c>
+      <c r="J59" t="str">
+        <v/>
+      </c>
+      <c r="K59" t="str">
+        <v/>
+      </c>
+      <c r="L59" t="str">
+        <v>150</v>
+      </c>
+      <c r="M59" t="str">
+        <v>3か月～</v>
+      </c>
+      <c r="N59" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O59" t="str">
+        <v>07:00</v>
+      </c>
+      <c r="P59" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q59" t="str">
+        <v/>
+      </c>
+      <c r="R59" t="str">
+        <v>有</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60" t="str">
-        <v>34.292691</v>
+        <v>34.337967</v>
       </c>
       <c r="C60" t="str">
-        <v>134.0352</v>
+        <v>134.130825</v>
       </c>
       <c r="D60" t="str">
-        <v>幼保連携型認定こども園すまいる</v>
+        <v>八栗保育所</v>
       </c>
       <c r="E60" t="str">
-        <v>高松市三名町591-1</v>
+        <v>高松市牟礼町牟礼401</v>
       </c>
       <c r="F60" t="str">
-        <v>087-802-3838</v>
+        <v>087-845-0033</v>
       </c>
       <c r="G60" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h275/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h173/</v>
       </c>
       <c r="H60" t="str">
-        <v>私立認定こども園</v>
+        <v/>
+      </c>
+      <c r="I60" t="str">
+        <v>認定私立保育所</v>
+      </c>
+      <c r="J60" t="str">
+        <v/>
+      </c>
+      <c r="K60" t="str">
+        <v/>
+      </c>
+      <c r="L60" t="str">
+        <v>70</v>
+      </c>
+      <c r="M60" t="str">
+        <v>2か月～</v>
+      </c>
+      <c r="N60" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O60" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P60" t="str">
+        <v>18:30</v>
+      </c>
+      <c r="Q60" t="str">
+        <v/>
+      </c>
+      <c r="R60" t="str">
+        <v>有</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61" t="str">
-        <v>34.2936161</v>
+        <v>34.347055</v>
       </c>
       <c r="C61" t="str">
-        <v>134.0789214</v>
+        <v>134.055965</v>
       </c>
       <c r="D61" t="str">
-        <v>げんき・結愛・げんきこども園</v>
+        <v>城東保育園</v>
       </c>
       <c r="E61" t="str">
-        <v>高松市六条町604番地7</v>
+        <v>高松市城東町一丁目1-45</v>
       </c>
       <c r="F61" t="str">
-        <v>087-813-9818</v>
+        <v>087-822-1340</v>
       </c>
       <c r="G61" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h37/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h46/</v>
       </c>
       <c r="H61" t="str">
-        <v>私立認定こども園</v>
+        <v/>
+      </c>
+      <c r="I61" t="str">
+        <v>認定私立保育所</v>
+      </c>
+      <c r="J61" t="str">
+        <v/>
+      </c>
+      <c r="K61" t="str">
+        <v/>
+      </c>
+      <c r="L61" t="str">
+        <v>130</v>
+      </c>
+      <c r="M61" t="str">
+        <v>2か月～</v>
+      </c>
+      <c r="N61" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O61" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P61" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q61" t="str">
+        <v/>
+      </c>
+      <c r="R61" t="str">
+        <v>有</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62" t="str">
-        <v>34.2734776</v>
+        <v>34.334252</v>
       </c>
       <c r="C62" t="str">
-        <v>134.1024882</v>
+        <v>134.057679</v>
       </c>
       <c r="D62" t="str">
-        <v>幼保連携型カナン十河こども園</v>
+        <v>こぶし花園保育園</v>
       </c>
       <c r="E62" t="str">
-        <v>高松市十川西町546-1</v>
+        <v>高松市花園町一丁目9-32</v>
       </c>
       <c r="F62" t="str">
-        <v>087-848-0320</v>
+        <v>087-831-5136</v>
       </c>
       <c r="G62" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h48/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h47/</v>
       </c>
       <c r="H62" t="str">
-        <v>私立認定こども園</v>
+        <v/>
+      </c>
+      <c r="I62" t="str">
+        <v>認定私立保育所</v>
+      </c>
+      <c r="J62" t="str">
+        <v/>
+      </c>
+      <c r="K62" t="str">
+        <v/>
+      </c>
+      <c r="L62" t="str">
+        <v>90</v>
+      </c>
+      <c r="M62" t="str">
+        <v>2か月～</v>
+      </c>
+      <c r="N62" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O62" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P62" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q62" t="str">
+        <v/>
+      </c>
+      <c r="R62" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63" t="str">
-        <v>34.3064057</v>
+        <v>0</v>
       </c>
       <c r="C63" t="str">
-        <v>134.042294</v>
+        <v>0</v>
       </c>
       <c r="D63" t="str">
-        <v>幼保連携型認定こども園高松和貴こども園</v>
+        <v/>
       </c>
       <c r="E63" t="str">
-        <v>高松市林町2197-1</v>
+        <v/>
       </c>
       <c r="F63" t="str">
-        <v>087-814-4141</v>
+        <v/>
       </c>
       <c r="G63" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h313/</v>
+        <v/>
       </c>
       <c r="H63" t="str">
-        <v>私立認定こども園</v>
+        <v/>
+      </c>
+      <c r="I63" t="str">
+        <v/>
+      </c>
+      <c r="J63" t="str">
+        <v/>
+      </c>
+      <c r="K63" t="str">
+        <v/>
+      </c>
+      <c r="L63" t="str">
+        <v/>
+      </c>
+      <c r="M63" t="str">
+        <v/>
+      </c>
+      <c r="N63" t="str">
+        <v/>
+      </c>
+      <c r="O63" t="str">
+        <v/>
+      </c>
+      <c r="P63" t="str">
+        <v/>
+      </c>
+      <c r="Q63" t="str">
+        <v/>
+      </c>
+      <c r="R63" t="str">
+        <v/>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64" t="str">
-        <v>34.3264572</v>
+        <v>34.287693</v>
       </c>
       <c r="C64" t="str">
-        <v>134.0769366</v>
+        <v>134.05974</v>
       </c>
       <c r="D64" t="str">
-        <v>みらい学園</v>
+        <v>れんげ保育園</v>
       </c>
       <c r="E64" t="str">
-        <v>高松市木太町3429-3</v>
+        <v>高松市多肥上町2390-1</v>
       </c>
       <c r="F64" t="str">
-        <v>087-899-2305</v>
+        <v>087-888-8080</v>
       </c>
       <c r="G64" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h49/</v>
       </c>
       <c r="H64" t="str">
-        <v>私立認定こども園</v>
+        <v/>
+      </c>
+      <c r="I64" t="str">
+        <v>認定私立保育所</v>
+      </c>
+      <c r="J64" t="str">
+        <v/>
+      </c>
+      <c r="K64" t="str">
+        <v/>
+      </c>
+      <c r="L64" t="str">
+        <v>90</v>
+      </c>
+      <c r="M64" t="str">
+        <v>3か月～</v>
+      </c>
+      <c r="N64" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O64" t="str">
+        <v>07:00</v>
+      </c>
+      <c r="P64" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q64" t="str">
+        <v/>
+      </c>
+      <c r="R64" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65" t="str">
-        <v>34.353781</v>
+        <v>34.308543</v>
       </c>
       <c r="C65" t="str">
-        <v>134.091115</v>
+        <v>134.056433</v>
       </c>
       <c r="D65" t="str">
-        <v>認定こども園やしま幼稚園</v>
+        <v>さくら伏石保育園</v>
       </c>
       <c r="E65" t="str">
-        <v>高松市屋島西町2477-4</v>
+        <v>高松市伏石町2135-3</v>
       </c>
       <c r="F65" t="str">
-        <v>087-843-2241</v>
+        <v>087-867-1100</v>
       </c>
       <c r="G65" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h149</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h50/</v>
       </c>
       <c r="H65" t="str">
-        <v>私立認定こども園</v>
+        <v/>
+      </c>
+      <c r="I65" t="str">
+        <v>認定私立保育所</v>
+      </c>
+      <c r="J65" t="str">
+        <v/>
+      </c>
+      <c r="K65" t="str">
+        <v/>
+      </c>
+      <c r="L65" t="str">
+        <v>90</v>
+      </c>
+      <c r="M65" t="str">
+        <v>3か月～</v>
+      </c>
+      <c r="N65" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O65" t="str">
+        <v>07:00</v>
+      </c>
+      <c r="P65" t="str">
+        <v>20:00</v>
+      </c>
+      <c r="Q65" t="str">
+        <v/>
+      </c>
+      <c r="R65" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66" t="str">
-        <v>34.338923</v>
+        <v>34.323827</v>
       </c>
       <c r="C66" t="str">
-        <v>134.031483</v>
+        <v>134.092254</v>
       </c>
       <c r="D66" t="str">
-        <v>高松聖ヤコブ幼稚園</v>
+        <v>らく楽保育園</v>
       </c>
       <c r="E66" t="str">
-        <v>高松市西宝町二丁目3-14</v>
+        <v>高松市春日町483-1</v>
       </c>
       <c r="F66" t="str">
-        <v>087-861-0425</v>
+        <v>087-844-0111</v>
       </c>
       <c r="G66" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h249</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h51/</v>
       </c>
       <c r="H66" t="str">
-        <v>私立認定こども園</v>
+        <v/>
+      </c>
+      <c r="I66" t="str">
+        <v>認定私立保育所</v>
+      </c>
+      <c r="J66" t="str">
+        <v/>
+      </c>
+      <c r="K66" t="str">
+        <v/>
+      </c>
+      <c r="L66" t="str">
+        <v>110</v>
+      </c>
+      <c r="M66" t="str">
+        <v>3か月～</v>
+      </c>
+      <c r="N66" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O66" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P66" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q66" t="str">
+        <v/>
+      </c>
+      <c r="R66" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67" t="str">
-        <v>34.338702</v>
+        <v>34.349557</v>
       </c>
       <c r="C67" t="str">
-        <v>134.038281</v>
+        <v>134.003925</v>
       </c>
       <c r="D67" t="str">
-        <v>認定こども園亀阜幼稚園</v>
+        <v>初音保育所</v>
       </c>
       <c r="E67" t="str">
-        <v>宮脇町一丁目2-23</v>
+        <v>高松市香西本町17-1</v>
       </c>
       <c r="F67" t="str">
-        <v>087-831-2557</v>
+        <v>087-813-3258</v>
       </c>
       <c r="G67" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h252</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h52/</v>
       </c>
       <c r="H67" t="str">
-        <v>私立認定こども園</v>
+        <v/>
+      </c>
+      <c r="I67" t="str">
+        <v>認定私立保育所</v>
+      </c>
+      <c r="J67" t="str">
+        <v/>
+      </c>
+      <c r="K67" t="str">
+        <v/>
+      </c>
+      <c r="L67" t="str">
+        <v>180</v>
+      </c>
+      <c r="M67" t="str">
+        <v>2か月～</v>
+      </c>
+      <c r="N67" t="str">
+        <v>月火水木金土日</v>
+      </c>
+      <c r="O67" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P67" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q67" t="str">
+        <v/>
+      </c>
+      <c r="R67" t="str">
+        <v>有</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68" t="str">
-        <v>34.279836</v>
+        <v>34.308532</v>
       </c>
       <c r="C68" t="str">
-        <v>134.022373</v>
+        <v>134.067283</v>
       </c>
       <c r="D68" t="str">
-        <v>らく楽寺井幼稚園</v>
+        <v>さくら木太保育園</v>
       </c>
       <c r="E68" t="str">
-        <v>高松市寺井町1369-4</v>
+        <v>高松市木太町5113-15</v>
       </c>
       <c r="F68" t="str">
-        <v>087-885-2038</v>
+        <v>087-802-8080</v>
       </c>
       <c r="G68" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h264</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h260/</v>
       </c>
       <c r="H68" t="str">
-        <v>私立認定こども園</v>
+        <v/>
+      </c>
+      <c r="I68" t="str">
+        <v>認定私立保育所</v>
+      </c>
+      <c r="J68" t="str">
+        <v/>
+      </c>
+      <c r="K68" t="str">
+        <v/>
+      </c>
+      <c r="L68" t="str">
+        <v>99</v>
+      </c>
+      <c r="M68" t="str">
+        <v>3か月～</v>
+      </c>
+      <c r="N68" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O68" t="str">
+        <v>07:00</v>
+      </c>
+      <c r="P68" t="str">
+        <v>20:00</v>
+      </c>
+      <c r="Q68" t="str">
+        <v/>
+      </c>
+      <c r="R68" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69" t="str">
-        <v>34.334019</v>
+        <v>0</v>
       </c>
       <c r="C69" t="str">
-        <v>134.114815</v>
+        <v>0</v>
       </c>
       <c r="D69" t="str">
-        <v>幼稚園型認定こども園つくし幼稚園</v>
+        <v/>
       </c>
       <c r="E69" t="str">
-        <v>高松市高松町1711-7</v>
+        <v/>
       </c>
       <c r="F69" t="str">
-        <v>087-843-4484</v>
+        <v/>
       </c>
       <c r="G69" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h272/</v>
+        <v/>
       </c>
       <c r="H69" t="str">
-        <v>私立認定こども園</v>
+        <v/>
+      </c>
+      <c r="I69" t="str">
+        <v/>
+      </c>
+      <c r="J69" t="str">
+        <v/>
+      </c>
+      <c r="K69" t="str">
+        <v/>
+      </c>
+      <c r="L69" t="str">
+        <v/>
+      </c>
+      <c r="M69" t="str">
+        <v/>
+      </c>
+      <c r="N69" t="str">
+        <v/>
+      </c>
+      <c r="O69" t="str">
+        <v/>
+      </c>
+      <c r="P69" t="str">
+        <v/>
+      </c>
+      <c r="Q69" t="str">
+        <v/>
+      </c>
+      <c r="R69" t="str">
+        <v/>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70" t="str">
-        <v>34.304505</v>
+        <v>34.333051</v>
       </c>
       <c r="C70" t="str">
-        <v>134.021922</v>
+        <v>134.055788</v>
       </c>
       <c r="D70" t="str">
-        <v>認定こども園勅使百華幼稚園</v>
+        <v>高松くりの木保育園</v>
       </c>
       <c r="E70" t="str">
-        <v>高松市勅使町955</v>
+        <v>高松市花園町三丁目4-5</v>
       </c>
       <c r="F70" t="str">
-        <v>087-865-9419</v>
+        <v>087-880-7211</v>
       </c>
       <c r="G70" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h273/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h268/</v>
       </c>
       <c r="H70" t="str">
-        <v>私立認定こども園</v>
+        <v/>
+      </c>
+      <c r="I70" t="str">
+        <v>認定私立保育所</v>
+      </c>
+      <c r="J70" t="str">
+        <v/>
+      </c>
+      <c r="K70" t="str">
+        <v/>
+      </c>
+      <c r="L70" t="str">
+        <v>105</v>
+      </c>
+      <c r="M70" t="str">
+        <v>3か月～</v>
+      </c>
+      <c r="N70" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O70" t="str">
+        <v>07:00</v>
+      </c>
+      <c r="P70" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q70" t="str">
+        <v/>
+      </c>
+      <c r="R70" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71" t="str">
+        <v>34.343232</v>
+      </c>
+      <c r="C71" t="str">
+        <v>134.065675</v>
+      </c>
+      <c r="D71" t="str">
+        <v>らく楽第二保育園</v>
+      </c>
+      <c r="E71" t="str">
+        <v>高松市松福町二丁目4-4</v>
+      </c>
+      <c r="F71" t="str">
+        <v>087-826-0111</v>
+      </c>
+      <c r="G71" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/h269/</v>
+      </c>
+      <c r="H71" t="str">
+        <v/>
+      </c>
+      <c r="I71" t="str">
+        <v>認定私立保育所</v>
+      </c>
+      <c r="J71" t="str">
+        <v/>
+      </c>
+      <c r="K71" t="str">
+        <v/>
+      </c>
+      <c r="L71" t="str">
+        <v>72</v>
+      </c>
+      <c r="M71" t="str">
+        <v>3か月～</v>
+      </c>
+      <c r="N71" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O71" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P71" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q71" t="str">
+        <v/>
+      </c>
+      <c r="R71" t="str">
+        <v>無</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>77</v>
+      </c>
+      <c r="B72" t="str">
+        <v>34.291607</v>
+      </c>
+      <c r="C72" t="str">
+        <v>134.075471</v>
+      </c>
+      <c r="D72" t="str">
+        <v>あさがお保育園</v>
+      </c>
+      <c r="E72" t="str">
+        <v>高松市上林町69</v>
+      </c>
+      <c r="F72" t="str">
+        <v>087-899-5660</v>
+      </c>
+      <c r="G72" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/h276/</v>
+      </c>
+      <c r="H72" t="str">
+        <v/>
+      </c>
+      <c r="I72" t="str">
+        <v>認定私立保育所</v>
+      </c>
+      <c r="J72" t="str">
+        <v/>
+      </c>
+      <c r="K72" t="str">
+        <v/>
+      </c>
+      <c r="L72" t="str">
+        <v>120</v>
+      </c>
+      <c r="M72" t="str">
+        <v>３か月～</v>
+      </c>
+      <c r="N72" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O72" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P72" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q72" t="str">
+        <v/>
+      </c>
+      <c r="R72" t="str">
+        <v>有</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>78</v>
+      </c>
+      <c r="B73" t="str">
+        <v>34.3051941</v>
+      </c>
+      <c r="C73" t="str">
+        <v>134.0610552</v>
+      </c>
+      <c r="D73" t="str">
+        <v>保育園アルペジオ高松多肥下町園</v>
+      </c>
+      <c r="E73" t="str">
+        <v>高松市多肥下町1524-15</v>
+      </c>
+      <c r="F73" t="str">
+        <v>087-802-5583</v>
+      </c>
+      <c r="G73" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/h288/</v>
+      </c>
+      <c r="H73" t="str">
+        <v/>
+      </c>
+      <c r="I73" t="str">
+        <v>認定私立保育所</v>
+      </c>
+      <c r="J73" t="str">
+        <v/>
+      </c>
+      <c r="K73" t="str">
+        <v/>
+      </c>
+      <c r="L73" t="str">
+        <v>80</v>
+      </c>
+      <c r="M73" t="str">
+        <v>6か月</v>
+      </c>
+      <c r="N73" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O73" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P73" t="str">
+        <v>19:30</v>
+      </c>
+      <c r="Q73" t="str">
+        <v/>
+      </c>
+      <c r="R73" t="str">
+        <v>有</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>79</v>
+      </c>
+      <c r="B74" t="str">
+        <v>34.3034175</v>
+      </c>
+      <c r="C74" t="str">
+        <v>134.0533292</v>
+      </c>
+      <c r="D74" t="str">
+        <v>さくら太田保育園</v>
+      </c>
+      <c r="E74" t="str">
+        <v>高松市太田下町3032-1</v>
+      </c>
+      <c r="F74" t="str">
+        <v>087-868-3700</v>
+      </c>
+      <c r="G74" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/h289/</v>
+      </c>
+      <c r="H74" t="str">
+        <v/>
+      </c>
+      <c r="I74" t="str">
+        <v>認定私立保育所</v>
+      </c>
+      <c r="J74" t="str">
+        <v/>
+      </c>
+      <c r="K74" t="str">
+        <v/>
+      </c>
+      <c r="L74" t="str">
+        <v>96</v>
+      </c>
+      <c r="M74" t="str">
+        <v>3か月</v>
+      </c>
+      <c r="N74" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O74" t="str">
+        <v>07:00</v>
+      </c>
+      <c r="P74" t="str">
+        <v>20:00</v>
+      </c>
+      <c r="Q74" t="str">
+        <v/>
+      </c>
+      <c r="R74" t="str">
+        <v>無</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>80</v>
+      </c>
+      <c r="B75" t="str">
+        <v>34.3064057</v>
+      </c>
+      <c r="C75" t="str">
+        <v>134.042294</v>
+      </c>
+      <c r="D75" t="str">
+        <v>にこにこ保育園</v>
+      </c>
+      <c r="E75" t="str">
+        <v>高松市林町294-1</v>
+      </c>
+      <c r="F75" t="str">
+        <v>087-813-8300</v>
+      </c>
+      <c r="G75" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/h308/</v>
+      </c>
+      <c r="H75" t="str">
+        <v/>
+      </c>
+      <c r="I75" t="str">
+        <v>認可私立保育所</v>
+      </c>
+      <c r="J75" t="str">
+        <v/>
+      </c>
+      <c r="K75" t="str">
+        <v/>
+      </c>
+      <c r="L75" t="str">
+        <v>72</v>
+      </c>
+      <c r="M75" t="str">
+        <v>おおむね2か月～</v>
+      </c>
+      <c r="N75" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O75" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P75" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q75" t="str">
+        <v/>
+      </c>
+      <c r="R75" t="str">
+        <v>有</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>81</v>
+      </c>
+      <c r="B76" t="str">
+        <v>34.3047038</v>
+      </c>
+      <c r="C76" t="str">
+        <v>134.0565783</v>
+      </c>
+      <c r="D76" t="str">
+        <v>あい保育園太田</v>
+      </c>
+      <c r="E76" t="str">
+        <v>高松市太田下町3027-3</v>
+      </c>
+      <c r="F76" t="str">
+        <v>087-802-9065</v>
+      </c>
+      <c r="G76" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/h312/</v>
+      </c>
+      <c r="H76" t="str">
+        <v/>
+      </c>
+      <c r="I76" t="str">
+        <v>認可私立保育所</v>
+      </c>
+      <c r="J76" t="str">
+        <v/>
+      </c>
+      <c r="K76" t="str">
+        <v/>
+      </c>
+      <c r="L76" t="str">
+        <v>100</v>
+      </c>
+      <c r="M76" t="str">
+        <v>３か月～</v>
+      </c>
+      <c r="N76" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O76" t="str">
+        <v>07:00</v>
+      </c>
+      <c r="P76" t="str">
+        <v>20:00</v>
+      </c>
+      <c r="Q76" t="str">
+        <v/>
+      </c>
+      <c r="R76" t="str">
+        <v>無</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>82</v>
+      </c>
+      <c r="B77" t="str">
+        <v>34.3431504</v>
+      </c>
+      <c r="C77" t="str">
+        <v>134.0615252</v>
+      </c>
+      <c r="D77" t="str">
+        <v>さくら福々保育園</v>
+      </c>
+      <c r="E77" t="str">
+        <v>高松市松福町一丁目229-55</v>
+      </c>
+      <c r="F77" t="str">
+        <v>087-802-1860</v>
+      </c>
+      <c r="G77" t="str">
+        <v/>
+      </c>
+      <c r="H77" t="str">
+        <v/>
+      </c>
+      <c r="I77" t="str">
+        <v>認可私立保育所</v>
+      </c>
+      <c r="J77" t="str">
+        <v/>
+      </c>
+      <c r="K77" t="str">
+        <v/>
+      </c>
+      <c r="L77" t="str">
+        <v>96</v>
+      </c>
+      <c r="M77" t="str">
+        <v>３か月～</v>
+      </c>
+      <c r="N77" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O77" t="str">
+        <v>07:00</v>
+      </c>
+      <c r="P77" t="str">
+        <v>20:00</v>
+      </c>
+      <c r="Q77" t="str">
+        <v/>
+      </c>
+      <c r="R77" t="str">
+        <v>無</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>83</v>
+      </c>
+      <c r="B78" t="str">
+        <v>34.292144</v>
+      </c>
+      <c r="C78" t="str">
+        <v>134.066237</v>
+      </c>
+      <c r="D78" t="str">
+        <v>サンシャインこどもの森</v>
+      </c>
+      <c r="E78" t="str">
+        <v>高松市上林町502-2</v>
+      </c>
+      <c r="F78" t="str">
+        <v>087-889-8181</v>
+      </c>
+      <c r="G78" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/h147/</v>
+      </c>
+      <c r="H78" t="str">
+        <v/>
+      </c>
+      <c r="I78" t="str">
+        <v>認定こども園（幼保連携型）</v>
+      </c>
+      <c r="J78" t="str">
+        <v/>
+      </c>
+      <c r="K78" t="str">
+        <v/>
+      </c>
+      <c r="L78" t="str">
+        <v>1号認定 15、2・3号認定 105</v>
+      </c>
+      <c r="M78" t="str">
+        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
+      </c>
+      <c r="N78" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O78" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P78" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q78" t="str">
+        <v/>
+      </c>
+      <c r="R78" t="str">
+        <v>有</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>84</v>
+      </c>
+      <c r="B79" t="str">
+        <v>34.303319</v>
+      </c>
+      <c r="C79" t="str">
+        <v>133.949144</v>
+      </c>
+      <c r="D79" t="str">
+        <v>いずみこども園</v>
+      </c>
+      <c r="E79" t="str">
+        <v>高松市国分寺町国分2408</v>
+      </c>
+      <c r="F79" t="str">
+        <v>087-874-0882</v>
+      </c>
+      <c r="G79" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/h148</v>
+      </c>
+      <c r="H79" t="str">
+        <v/>
+      </c>
+      <c r="I79" t="str">
+        <v>認定こども園（幼保連携型）</v>
+      </c>
+      <c r="J79" t="str">
+        <v/>
+      </c>
+      <c r="K79" t="str">
+        <v/>
+      </c>
+      <c r="L79" t="str">
+        <v>1号認定 15、2・3号認定 100</v>
+      </c>
+      <c r="M79" t="str">
+        <v>1号認定 満3歳～、2・3号認定 3か月～</v>
+      </c>
+      <c r="N79" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O79" t="str">
+        <v>07:00</v>
+      </c>
+      <c r="P79" t="str">
+        <v>20:00</v>
+      </c>
+      <c r="Q79" t="str">
+        <v/>
+      </c>
+      <c r="R79" t="str">
+        <v>有</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>85</v>
+      </c>
+      <c r="B80" t="str">
+        <v>34.304328</v>
+      </c>
+      <c r="C80" t="str">
+        <v>133.97246</v>
+      </c>
+      <c r="D80" t="str">
+        <v>いずみこども園分園</v>
+      </c>
+      <c r="E80" t="str">
+        <v>高松市国分寺町新居281-1</v>
+      </c>
+      <c r="F80" t="str">
+        <v>087-875-0882</v>
+      </c>
+      <c r="G80" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/h211</v>
+      </c>
+      <c r="H80" t="str">
+        <v/>
+      </c>
+      <c r="I80" t="str">
+        <v>認定こども園（幼保連携型）</v>
+      </c>
+      <c r="J80" t="str">
+        <v/>
+      </c>
+      <c r="K80" t="str">
+        <v/>
+      </c>
+      <c r="L80" t="str">
+        <v>2・3号認定 20</v>
+      </c>
+      <c r="M80" t="str">
+        <v>2・3号認定 3か月～</v>
+      </c>
+      <c r="N80" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O80" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P80" t="str">
+        <v>18:30</v>
+      </c>
+      <c r="Q80" t="str">
+        <v/>
+      </c>
+      <c r="R80" t="str">
+        <v>有</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>86</v>
+      </c>
+      <c r="B81" t="str">
+        <v>34.327571</v>
+      </c>
+      <c r="C81" t="str">
+        <v>134.087355</v>
+      </c>
+      <c r="D81" t="str">
+        <v>認定こども園高松東幼稚園</v>
+      </c>
+      <c r="E81" t="str">
+        <v>高松市春日町688</v>
+      </c>
+      <c r="F81" t="str">
+        <v>087-841-2306</v>
+      </c>
+      <c r="G81" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/h262</v>
+      </c>
+      <c r="H81" t="str">
+        <v/>
+      </c>
+      <c r="I81" t="str">
+        <v>認定こども園（幼保連携型）</v>
+      </c>
+      <c r="J81" t="str">
+        <v/>
+      </c>
+      <c r="K81" t="str">
+        <v/>
+      </c>
+      <c r="L81" t="str">
+        <v>1号認定 284、2・3号認定 166</v>
+      </c>
+      <c r="M81" t="str">
+        <v>1号認定 満3歳～、2・3号認定 3か月～</v>
+      </c>
+      <c r="N81" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O81" t="str">
+        <v>07:00</v>
+      </c>
+      <c r="P81" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q81" t="str">
+        <v/>
+      </c>
+      <c r="R81" t="str">
+        <v>無</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>87</v>
+      </c>
+      <c r="B82" t="str">
+        <v>34.325356</v>
+      </c>
+      <c r="C82" t="str">
+        <v>134.099079</v>
+      </c>
+      <c r="D82" t="str">
+        <v>認定こども園新田幼稚園</v>
+      </c>
+      <c r="E82" t="str">
+        <v>高松市新田町甲2630-1</v>
+      </c>
+      <c r="F82" t="str">
+        <v>087-841-3686</v>
+      </c>
+      <c r="G82" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/h263</v>
+      </c>
+      <c r="H82" t="str">
+        <v/>
+      </c>
+      <c r="I82" t="str">
+        <v>認定こども園（幼保連携型）</v>
+      </c>
+      <c r="J82" t="str">
+        <v/>
+      </c>
+      <c r="K82" t="str">
+        <v/>
+      </c>
+      <c r="L82" t="str">
+        <v>1号認定 75、2・3号認定 57</v>
+      </c>
+      <c r="M82" t="str">
+        <v>1号認定 3歳児～、2・3号認定 6か月～</v>
+      </c>
+      <c r="N82" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O82" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P82" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q82" t="str">
+        <v/>
+      </c>
+      <c r="R82" t="str">
+        <v>有</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>88</v>
+      </c>
+      <c r="B83" t="str">
+        <v>34.268464</v>
+      </c>
+      <c r="C83" t="str">
+        <v>134.006758</v>
+      </c>
+      <c r="D83" t="str">
+        <v>認定こども園和光こども園</v>
+      </c>
+      <c r="E83" t="str">
+        <v>高松市川部町1561-1</v>
+      </c>
+      <c r="F83" t="str">
+        <v>087-886-5879</v>
+      </c>
+      <c r="G83" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/h39/</v>
+      </c>
+      <c r="H83" t="str">
+        <v/>
+      </c>
+      <c r="I83" t="str">
+        <v>認定こども園（幼保連携型）</v>
+      </c>
+      <c r="J83" t="str">
+        <v/>
+      </c>
+      <c r="K83" t="str">
+        <v/>
+      </c>
+      <c r="L83" t="str">
+        <v>1号認定 15、2・3号認定 100</v>
+      </c>
+      <c r="M83" t="str">
+        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
+      </c>
+      <c r="N83" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O83" t="str">
+        <v>07:00</v>
+      </c>
+      <c r="P83" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q83" t="str">
+        <v/>
+      </c>
+      <c r="R83" t="str">
+        <v>無</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>89</v>
+      </c>
+      <c r="B84" t="str">
+        <v>34.331077</v>
+      </c>
+      <c r="C84" t="str">
+        <v>134.094275</v>
+      </c>
+      <c r="D84" t="str">
+        <v>認定こども園春日こども園</v>
+      </c>
+      <c r="E84" t="str">
+        <v>高松市春日町1287-1</v>
+      </c>
+      <c r="F84" t="str">
+        <v>087-843-3689</v>
+      </c>
+      <c r="G84" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/h163/</v>
+      </c>
+      <c r="H84" t="str">
+        <v/>
+      </c>
+      <c r="I84" t="str">
+        <v>認定こども園（幼保連携型）</v>
+      </c>
+      <c r="J84" t="str">
+        <v/>
+      </c>
+      <c r="K84" t="str">
+        <v/>
+      </c>
+      <c r="L84" t="str">
+        <v>1号認定 15、2・3号認定 160</v>
+      </c>
+      <c r="M84" t="str">
+        <v>1号認定 3歳児～、2・3号認定 2か月～</v>
+      </c>
+      <c r="N84" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O84" t="str">
+        <v>07:00</v>
+      </c>
+      <c r="P84" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q84" t="str">
+        <v/>
+      </c>
+      <c r="R84" t="str">
+        <v>有</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>90</v>
+      </c>
+      <c r="B85" t="str">
+        <v>34.326539</v>
+      </c>
+      <c r="C85" t="str">
+        <v>134.047837</v>
+      </c>
+      <c r="D85" t="str">
+        <v>認定こども園花ノ宮こども園</v>
+      </c>
+      <c r="E85" t="str">
+        <v>高松市花ノ宮町一丁目10-22</v>
+      </c>
+      <c r="F85" t="str">
+        <v>087-831-6318</v>
+      </c>
+      <c r="G85" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/h175/</v>
+      </c>
+      <c r="H85" t="str">
+        <v/>
+      </c>
+      <c r="I85" t="str">
+        <v>認定こども園（幼保連携型）</v>
+      </c>
+      <c r="J85" t="str">
+        <v/>
+      </c>
+      <c r="K85" t="str">
+        <v/>
+      </c>
+      <c r="L85" t="str">
+        <v>1号認定 15、2・3号認定 110</v>
+      </c>
+      <c r="M85" t="str">
+        <v>1号認定 3歳児～、2・3号認定 2か月～</v>
+      </c>
+      <c r="N85" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O85" t="str">
+        <v>07:00</v>
+      </c>
+      <c r="P85" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q85" t="str">
+        <v/>
+      </c>
+      <c r="R85" t="str">
+        <v>無</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>91</v>
+      </c>
+      <c r="B86" t="str">
+        <v>34.333461</v>
+      </c>
+      <c r="C86" t="str">
+        <v>134.04506</v>
+      </c>
+      <c r="D86" t="str">
+        <v>認定こども園中野保育所</v>
+      </c>
+      <c r="E86" t="str">
+        <v>高松市中野町27-5</v>
+      </c>
+      <c r="F86" t="str">
+        <v>087-831-8659</v>
+      </c>
+      <c r="G86" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/h174/</v>
+      </c>
+      <c r="H86" t="str">
+        <v/>
+      </c>
+      <c r="I86" t="str">
+        <v>認定こども園（幼保連携型）</v>
+      </c>
+      <c r="J86" t="str">
+        <v/>
+      </c>
+      <c r="K86" t="str">
+        <v/>
+      </c>
+      <c r="L86" t="str">
+        <v>1号認定 15、2・3号認定 160</v>
+      </c>
+      <c r="M86" t="str">
+        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
+      </c>
+      <c r="N86" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O86" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P86" t="str">
+        <v>19:30</v>
+      </c>
+      <c r="Q86" t="str">
+        <v/>
+      </c>
+      <c r="R86" t="str">
+        <v>有</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>92</v>
+      </c>
+      <c r="B87" t="str">
+        <v>34.279891</v>
+      </c>
+      <c r="C87" t="str">
+        <v>134.042395</v>
+      </c>
+      <c r="D87" t="str">
+        <v>幼保連携型認定こども園カナン保育園</v>
+      </c>
+      <c r="E87" t="str">
+        <v>高松市仏生山町甲745-2</v>
+      </c>
+      <c r="F87" t="str">
+        <v>087-889-1059</v>
+      </c>
+      <c r="G87" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/h166/</v>
+      </c>
+      <c r="H87" t="str">
+        <v/>
+      </c>
+      <c r="I87" t="str">
+        <v>認定こども園（幼保連携型）</v>
+      </c>
+      <c r="J87" t="str">
+        <v/>
+      </c>
+      <c r="K87" t="str">
+        <v/>
+      </c>
+      <c r="L87" t="str">
+        <v>1号認定 15、2・3号認定 105</v>
+      </c>
+      <c r="M87" t="str">
+        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
+      </c>
+      <c r="N87" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O87" t="str">
+        <v>07:00</v>
+      </c>
+      <c r="P87" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q87" t="str">
+        <v/>
+      </c>
+      <c r="R87" t="str">
+        <v>無</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>93</v>
+      </c>
+      <c r="B88" t="str">
+        <v>34.292691</v>
+      </c>
+      <c r="C88" t="str">
+        <v>134.0352</v>
+      </c>
+      <c r="D88" t="str">
+        <v>幼保連携型認定こども園すまいる</v>
+      </c>
+      <c r="E88" t="str">
+        <v>高松市三名町591-1</v>
+      </c>
+      <c r="F88" t="str">
+        <v>087-802-3838</v>
+      </c>
+      <c r="G88" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/h275/</v>
+      </c>
+      <c r="H88" t="str">
+        <v/>
+      </c>
+      <c r="I88" t="str">
+        <v>認定こども園（幼保連携型）</v>
+      </c>
+      <c r="J88" t="str">
+        <v/>
+      </c>
+      <c r="K88" t="str">
+        <v/>
+      </c>
+      <c r="L88" t="str">
+        <v>1号認定 75、2・3号認定 75</v>
+      </c>
+      <c r="M88" t="str">
+        <v>1号認定 3歳児～、2・3号認定 6か月～</v>
+      </c>
+      <c r="N88" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O88" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P88" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q88" t="str">
+        <v/>
+      </c>
+      <c r="R88" t="str">
+        <v>無</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>94</v>
+      </c>
+      <c r="B89" t="str">
+        <v>34.2936161</v>
+      </c>
+      <c r="C89" t="str">
+        <v>134.0789214</v>
+      </c>
+      <c r="D89" t="str">
+        <v>げんき・結愛・げんきこども園</v>
+      </c>
+      <c r="E89" t="str">
+        <v>高松市六条町604番地7</v>
+      </c>
+      <c r="F89" t="str">
+        <v>087-813-9818</v>
+      </c>
+      <c r="G89" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/h37/</v>
+      </c>
+      <c r="H89" t="str">
+        <v/>
+      </c>
+      <c r="I89" t="str">
+        <v>認定こども園（幼保連携型）</v>
+      </c>
+      <c r="J89" t="str">
+        <v/>
+      </c>
+      <c r="K89" t="str">
+        <v/>
+      </c>
+      <c r="L89" t="str">
+        <v>1号認定 15、2・3号認定 217</v>
+      </c>
+      <c r="M89" t="str">
+        <v>1号認定 3歳児～、2・3号認定 おおむね2か月～</v>
+      </c>
+      <c r="N89" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O89" t="str">
+        <v>07:00</v>
+      </c>
+      <c r="P89" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q89" t="str">
+        <v/>
+      </c>
+      <c r="R89" t="str">
+        <v>無</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>95</v>
+      </c>
+      <c r="B90" t="str">
+        <v>34.2734776</v>
+      </c>
+      <c r="C90" t="str">
+        <v>134.1024882</v>
+      </c>
+      <c r="D90" t="str">
+        <v>幼保連携型カナン十河こども園</v>
+      </c>
+      <c r="E90" t="str">
+        <v>高松市十川西町546-1</v>
+      </c>
+      <c r="F90" t="str">
+        <v>087-848-0320</v>
+      </c>
+      <c r="G90" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/h48/</v>
+      </c>
+      <c r="H90" t="str">
+        <v/>
+      </c>
+      <c r="I90" t="str">
+        <v>認定こども園（幼保連携型）</v>
+      </c>
+      <c r="J90" t="str">
+        <v/>
+      </c>
+      <c r="K90" t="str">
+        <v/>
+      </c>
+      <c r="L90" t="str">
+        <v>1号認定 15、2・3号認定 110</v>
+      </c>
+      <c r="M90" t="str">
+        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
+      </c>
+      <c r="N90" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O90" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P90" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q90" t="str">
+        <v/>
+      </c>
+      <c r="R90" t="str">
+        <v>有</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>96</v>
+      </c>
+      <c r="B91" t="str">
+        <v>34.3064057</v>
+      </c>
+      <c r="C91" t="str">
+        <v>134.042294</v>
+      </c>
+      <c r="D91" t="str">
+        <v>幼保連携型認定こども園高松和貴こども園</v>
+      </c>
+      <c r="E91" t="str">
+        <v>高松市林町2197-1</v>
+      </c>
+      <c r="F91" t="str">
+        <v>087-814-4141</v>
+      </c>
+      <c r="G91" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/h313/</v>
+      </c>
+      <c r="H91" t="str">
+        <v/>
+      </c>
+      <c r="I91" t="str">
+        <v>認定こども園（幼保連携型）</v>
+      </c>
+      <c r="J91" t="str">
+        <v/>
+      </c>
+      <c r="K91" t="str">
+        <v/>
+      </c>
+      <c r="L91" t="str">
+        <v>1号認定 15、2・3号認定 165</v>
+      </c>
+      <c r="M91" t="str">
+        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
+      </c>
+      <c r="N91" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O91" t="str">
+        <v>07:00</v>
+      </c>
+      <c r="P91" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q91" t="str">
+        <v/>
+      </c>
+      <c r="R91" t="str">
+        <v>無</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>97</v>
+      </c>
+      <c r="B92" t="str">
+        <v>34.3264572</v>
+      </c>
+      <c r="C92" t="str">
+        <v>134.0769366</v>
+      </c>
+      <c r="D92" t="str">
+        <v>みらい学園</v>
+      </c>
+      <c r="E92" t="str">
+        <v>高松市木太町3429-3</v>
+      </c>
+      <c r="F92" t="str">
+        <v>087-899-2305</v>
+      </c>
+      <c r="G92" t="str">
+        <v/>
+      </c>
+      <c r="H92" t="str">
+        <v/>
+      </c>
+      <c r="I92" t="str">
+        <v>認定こども園（幼保連携型）</v>
+      </c>
+      <c r="J92" t="str">
+        <v/>
+      </c>
+      <c r="K92" t="str">
+        <v/>
+      </c>
+      <c r="L92" t="str">
+        <v>1号認定 15、2・3号認定 75</v>
+      </c>
+      <c r="M92" t="str">
+        <v>1号認定 3歳児～、2・3号認定 6か月～</v>
+      </c>
+      <c r="N92" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O92" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P92" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q92" t="str">
+        <v/>
+      </c>
+      <c r="R92" t="str">
+        <v>無</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>98</v>
+      </c>
+      <c r="B93" t="str">
+        <v>34.353781</v>
+      </c>
+      <c r="C93" t="str">
+        <v>134.091115</v>
+      </c>
+      <c r="D93" t="str">
+        <v>認定こども園やしま幼稚園</v>
+      </c>
+      <c r="E93" t="str">
+        <v>高松市屋島西町2477-4</v>
+      </c>
+      <c r="F93" t="str">
+        <v>087-843-2241</v>
+      </c>
+      <c r="G93" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/h149</v>
+      </c>
+      <c r="H93" t="str">
+        <v/>
+      </c>
+      <c r="I93" t="str">
+        <v>認定こども園（幼稚園型）</v>
+      </c>
+      <c r="J93" t="str">
+        <v/>
+      </c>
+      <c r="K93" t="str">
+        <v/>
+      </c>
+      <c r="L93" t="str">
+        <v>1号認定 228、2・3号認定 72</v>
+      </c>
+      <c r="M93" t="str">
+        <v>1号認定 満3歳～、2・3号認定 18か月～</v>
+      </c>
+      <c r="N93" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O93" t="str">
+        <v>07:45</v>
+      </c>
+      <c r="P93" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q93" t="str">
+        <v/>
+      </c>
+      <c r="R93" t="str">
+        <v>無</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>99</v>
+      </c>
+      <c r="B94" t="str">
+        <v>34.338923</v>
+      </c>
+      <c r="C94" t="str">
+        <v>134.031483</v>
+      </c>
+      <c r="D94" t="str">
+        <v>高松聖ヤコブ幼稚園</v>
+      </c>
+      <c r="E94" t="str">
+        <v>高松市西宝町二丁目3-14</v>
+      </c>
+      <c r="F94" t="str">
+        <v>087-861-0425</v>
+      </c>
+      <c r="G94" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/h249</v>
+      </c>
+      <c r="H94" t="str">
+        <v/>
+      </c>
+      <c r="I94" t="str">
+        <v>認定こども園（幼稚園型）</v>
+      </c>
+      <c r="J94" t="str">
+        <v/>
+      </c>
+      <c r="K94" t="str">
+        <v/>
+      </c>
+      <c r="L94" t="str">
+        <v>1号認定 135、2号認定 15</v>
+      </c>
+      <c r="M94" t="str">
+        <v>1号認定 満3歳～、2号認定 3歳児～</v>
+      </c>
+      <c r="N94" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O94" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P94" t="str">
+        <v>18:30</v>
+      </c>
+      <c r="Q94" t="str">
+        <v/>
+      </c>
+      <c r="R94" t="str">
+        <v>無</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>100</v>
+      </c>
+      <c r="B95" t="str">
+        <v>34.338702</v>
+      </c>
+      <c r="C95" t="str">
+        <v>134.038281</v>
+      </c>
+      <c r="D95" t="str">
+        <v>認定こども園亀阜幼稚園</v>
+      </c>
+      <c r="E95" t="str">
+        <v>宮脇町一丁目2-23</v>
+      </c>
+      <c r="F95" t="str">
+        <v>087-831-2557</v>
+      </c>
+      <c r="G95" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/h252</v>
+      </c>
+      <c r="H95" t="str">
+        <v/>
+      </c>
+      <c r="I95" t="str">
+        <v>認定こども園（幼稚園型）</v>
+      </c>
+      <c r="J95" t="str">
+        <v/>
+      </c>
+      <c r="K95" t="str">
+        <v/>
+      </c>
+      <c r="L95" t="str">
+        <v>1号認定 109、2・3号認定 99</v>
+      </c>
+      <c r="M95" t="str">
+        <v>1号認定 満3歳～、2・3号認定 1歳児～</v>
+      </c>
+      <c r="N95" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O95" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P95" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q95" t="str">
+        <v/>
+      </c>
+      <c r="R95" t="str">
+        <v>無</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>101</v>
+      </c>
+      <c r="B96" t="str">
+        <v>34.279836</v>
+      </c>
+      <c r="C96" t="str">
+        <v>134.022373</v>
+      </c>
+      <c r="D96" t="str">
+        <v>らく楽寺井幼稚園</v>
+      </c>
+      <c r="E96" t="str">
+        <v>高松市寺井町1369-4</v>
+      </c>
+      <c r="F96" t="str">
+        <v>087-885-2038</v>
+      </c>
+      <c r="G96" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/h264</v>
+      </c>
+      <c r="H96" t="str">
+        <v/>
+      </c>
+      <c r="I96" t="str">
+        <v>認定こども園（幼稚園型）</v>
+      </c>
+      <c r="J96" t="str">
+        <v/>
+      </c>
+      <c r="K96" t="str">
+        <v/>
+      </c>
+      <c r="L96" t="str">
+        <v>1号認定 112、2・3号認定 128</v>
+      </c>
+      <c r="M96" t="str">
+        <v>1号認定 満3歳～、2・3号認定 3か月～</v>
+      </c>
+      <c r="N96" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O96" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P96" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q96" t="str">
+        <v/>
+      </c>
+      <c r="R96" t="str">
+        <v>無</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>102</v>
+      </c>
+      <c r="B97" t="str">
+        <v>34.334019</v>
+      </c>
+      <c r="C97" t="str">
+        <v>134.114815</v>
+      </c>
+      <c r="D97" t="str">
+        <v>幼稚園型認定こども園つくし幼稚園</v>
+      </c>
+      <c r="E97" t="str">
+        <v>高松市高松町1711-7</v>
+      </c>
+      <c r="F97" t="str">
+        <v>087-843-4484</v>
+      </c>
+      <c r="G97" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/h272/</v>
+      </c>
+      <c r="H97" t="str">
+        <v/>
+      </c>
+      <c r="I97" t="str">
+        <v>認定こども園（幼稚園型）</v>
+      </c>
+      <c r="J97" t="str">
+        <v/>
+      </c>
+      <c r="K97" t="str">
+        <v/>
+      </c>
+      <c r="L97" t="str">
+        <v>1号認定 274、2・3号認定 48</v>
+      </c>
+      <c r="M97" t="str">
+        <v>1号認定 満3歳～、2・3号認定 2歳児～</v>
+      </c>
+      <c r="N97" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O97" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P97" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q97" t="str">
+        <v/>
+      </c>
+      <c r="R97" t="str">
+        <v>無</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>103</v>
+      </c>
+      <c r="B98" t="str">
+        <v>34.304505</v>
+      </c>
+      <c r="C98" t="str">
+        <v>134.021922</v>
+      </c>
+      <c r="D98" t="str">
+        <v>認定こども園勅使百華幼稚園</v>
+      </c>
+      <c r="E98" t="str">
+        <v>高松市勅使町955</v>
+      </c>
+      <c r="F98" t="str">
+        <v>087-865-9419</v>
+      </c>
+      <c r="G98" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/h273/</v>
+      </c>
+      <c r="H98" t="str">
+        <v/>
+      </c>
+      <c r="I98" t="str">
+        <v>認定こども園（幼稚園型）</v>
+      </c>
+      <c r="J98" t="str">
+        <v/>
+      </c>
+      <c r="K98" t="str">
+        <v/>
+      </c>
+      <c r="L98" t="str">
+        <v>1号認定 265、2・3号認定 51</v>
+      </c>
+      <c r="M98" t="str">
+        <v>1号認定 満3歳～、2・3号認定 18か月～</v>
+      </c>
+      <c r="N98" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O98" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P98" t="str">
+        <v>18:30</v>
+      </c>
+      <c r="Q98" t="str">
+        <v/>
+      </c>
+      <c r="R98" t="str">
+        <v>無</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>104</v>
+      </c>
+      <c r="B99" t="str">
+        <v>34.235856</v>
+      </c>
+      <c r="C99" t="str">
+        <v>133.994046</v>
+      </c>
+      <c r="D99" t="str">
+        <v>カナン空港こども園</v>
+      </c>
+      <c r="E99" t="str">
+        <v>高松市香南町西庄1671-2</v>
+      </c>
+      <c r="F99" t="str">
+        <v>087-815-8072</v>
+      </c>
+      <c r="G99" t="str">
+        <v>https://kagawa-colorful.com/%253Fpage_id%253D3202</v>
+      </c>
+      <c r="H99" t="str">
+        <v/>
+      </c>
+      <c r="I99" t="str">
+        <v>地域型保育事業（小規模保育事業A型）</v>
+      </c>
+      <c r="J99" t="str">
+        <v/>
+      </c>
+      <c r="K99" t="str">
+        <v/>
+      </c>
+      <c r="L99" t="str">
+        <v>18</v>
+      </c>
+      <c r="M99" t="str">
+        <v>3か月～2歳児</v>
+      </c>
+      <c r="N99" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O99" t="str">
+        <v>07:15</v>
+      </c>
+      <c r="P99" t="str">
+        <v>18:15</v>
+      </c>
+      <c r="Q99" t="str">
+        <v/>
+      </c>
+      <c r="R99" t="str">
+        <v>無</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>105</v>
+      </c>
+      <c r="B100" t="str">
+        <v>34.332072</v>
+      </c>
+      <c r="C100" t="str">
+        <v>134.049227</v>
+      </c>
+      <c r="D100" t="str">
+        <v>栗林にこにこ保育園</v>
+      </c>
+      <c r="E100" t="str">
+        <v>高松市栗林町二丁目3-2</v>
+      </c>
+      <c r="F100" t="str">
+        <v>087-831-1319</v>
+      </c>
+      <c r="G100" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/%25E6%25A0%2597%25E6%259E%2597%25E3%2581%25AB%25E3%2581%2593%25E3%2581%25AB%25E3%2581%2593%25E4%25BF%259D%25E8%2582%25B2%25E5%259C%2592/</v>
+      </c>
+      <c r="H100" t="str">
+        <v/>
+      </c>
+      <c r="I100" t="str">
+        <v>地域型保育事業（小規模保育事業A型）</v>
+      </c>
+      <c r="J100" t="str">
+        <v/>
+      </c>
+      <c r="K100" t="str">
+        <v/>
+      </c>
+      <c r="L100" t="str">
+        <v>12</v>
+      </c>
+      <c r="M100" t="str">
+        <v>おおむね2か月～2歳児</v>
+      </c>
+      <c r="N100" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O100" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P100" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q100" t="str">
+        <v/>
+      </c>
+      <c r="R100" t="str">
+        <v>有</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>106</v>
+      </c>
+      <c r="B101" t="str">
+        <v>34.332365</v>
+      </c>
+      <c r="C101" t="str">
+        <v>134.097201</v>
+      </c>
+      <c r="D101" t="str">
+        <v>小規模保育所もも</v>
+      </c>
+      <c r="E101" t="str">
+        <v>高松市春日町1176</v>
+      </c>
+      <c r="F101" t="str">
+        <v>087-843-8255</v>
+      </c>
+      <c r="G101" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/%25E5%25B0%258F%25E8%25A6%258F%25E6%25A8%25A1%25E4%25BF%259D%25E8%2582%25B2%25E6%2589%2580%25E3%2580%2580%25E3%2582%2582%25E3%2582%2582/</v>
+      </c>
+      <c r="H101" t="str">
+        <v/>
+      </c>
+      <c r="I101" t="str">
+        <v>地域型保育事業（小規模保育事業A型）</v>
+      </c>
+      <c r="J101" t="str">
+        <v/>
+      </c>
+      <c r="K101" t="str">
+        <v/>
+      </c>
+      <c r="L101" t="str">
+        <v>9</v>
+      </c>
+      <c r="M101" t="str">
+        <v>2か月～2歳児</v>
+      </c>
+      <c r="N101" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O101" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P101" t="str">
+        <v>18:30</v>
+      </c>
+      <c r="Q101" t="str">
+        <v/>
+      </c>
+      <c r="R101" t="str">
+        <v>無</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>107</v>
+      </c>
+      <c r="B102" t="str">
+        <v>34.288288</v>
+      </c>
+      <c r="C102" t="str">
+        <v>134.059379</v>
+      </c>
+      <c r="D102" t="str">
+        <v>らく楽多肥保育園</v>
+      </c>
+      <c r="E102" t="str">
+        <v>高松市多肥上町1713</v>
+      </c>
+      <c r="F102" t="str">
+        <v>087-816-8301</v>
+      </c>
+      <c r="G102" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/らく楽多肥保育園/</v>
+      </c>
+      <c r="H102" t="str">
+        <v/>
+      </c>
+      <c r="I102" t="str">
+        <v>地域型保育事業（小規模保育事業A型）</v>
+      </c>
+      <c r="J102" t="str">
+        <v/>
+      </c>
+      <c r="K102" t="str">
+        <v/>
+      </c>
+      <c r="L102" t="str">
+        <v>12</v>
+      </c>
+      <c r="M102" t="str">
+        <v>3か月～2歳児</v>
+      </c>
+      <c r="N102" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O102" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P102" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q102" t="str">
+        <v/>
+      </c>
+      <c r="R102" t="str">
+        <v>無</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>108</v>
+      </c>
+      <c r="B103" t="str">
+        <v>34.316351</v>
+      </c>
+      <c r="C103" t="str">
+        <v>134.073388</v>
+      </c>
+      <c r="D103" t="str">
+        <v>ソラ小規模保育園たかまつ</v>
+      </c>
+      <c r="E103" t="str">
+        <v>高松市木太町786-2</v>
+      </c>
+      <c r="F103" t="str">
+        <v>087-816-5150</v>
+      </c>
+      <c r="G103" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/ソラ小規模保育園たかまつ/</v>
+      </c>
+      <c r="H103" t="str">
+        <v/>
+      </c>
+      <c r="I103" t="str">
+        <v>地域型保育事業（小規模保育事業A型）</v>
+      </c>
+      <c r="J103" t="str">
+        <v/>
+      </c>
+      <c r="K103" t="str">
+        <v/>
+      </c>
+      <c r="L103" t="str">
+        <v>19</v>
+      </c>
+      <c r="M103" t="str">
+        <v>54日～2歳児</v>
+      </c>
+      <c r="N103" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O103" t="str">
+        <v>07:00</v>
+      </c>
+      <c r="P103" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q103" t="str">
+        <v/>
+      </c>
+      <c r="R103" t="str">
+        <v>無</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>109</v>
+      </c>
+      <c r="B104" t="str">
+        <v>34.303424</v>
+      </c>
+      <c r="C104" t="str">
+        <v>134.060713</v>
+      </c>
+      <c r="D104" t="str">
+        <v>ニチイキッズたひ東保育園</v>
+      </c>
+      <c r="E104" t="str">
+        <v>高松市多肥下町1533-3</v>
+      </c>
+      <c r="F104" t="str">
+        <v>087-864-3133</v>
+      </c>
+      <c r="G104" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/ニチイキッズたひ東/</v>
+      </c>
+      <c r="H104" t="str">
+        <v/>
+      </c>
+      <c r="I104" t="str">
+        <v>地域型保育事業（小規模保育事業A型）</v>
+      </c>
+      <c r="J104" t="str">
+        <v/>
+      </c>
+      <c r="K104" t="str">
+        <v/>
+      </c>
+      <c r="L104" t="str">
+        <v>19</v>
+      </c>
+      <c r="M104" t="str">
+        <v>2か月～2歳児</v>
+      </c>
+      <c r="N104" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O104" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P104" t="str">
+        <v>19:30</v>
+      </c>
+      <c r="Q104" t="str">
+        <v/>
+      </c>
+      <c r="R104" t="str">
+        <v>無</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>110</v>
+      </c>
+      <c r="B105" t="str">
+        <v>34.298947</v>
+      </c>
+      <c r="C105" t="str">
+        <v>134.055734</v>
+      </c>
+      <c r="D105" t="str">
+        <v>ニチイキッズたひ西保育園</v>
+      </c>
+      <c r="E105" t="str">
+        <v>高松市多肥下町1581-6</v>
+      </c>
+      <c r="F105" t="str">
+        <v>087-815-0224</v>
+      </c>
+      <c r="G105" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/ニチイキッズたひ西/</v>
+      </c>
+      <c r="H105" t="str">
+        <v/>
+      </c>
+      <c r="I105" t="str">
+        <v>地域型保育事業（小規模保育事業A型）</v>
+      </c>
+      <c r="J105" t="str">
+        <v/>
+      </c>
+      <c r="K105" t="str">
+        <v/>
+      </c>
+      <c r="L105" t="str">
+        <v>19</v>
+      </c>
+      <c r="M105" t="str">
+        <v>2か月～2歳児</v>
+      </c>
+      <c r="N105" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O105" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P105" t="str">
+        <v>19:30</v>
+      </c>
+      <c r="Q105" t="str">
+        <v/>
+      </c>
+      <c r="R105" t="str">
+        <v>無</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>111</v>
+      </c>
+      <c r="B106" t="str">
+        <v>34.37717</v>
+      </c>
+      <c r="C106" t="str">
+        <v>134.122418</v>
+      </c>
+      <c r="D106" t="str">
+        <v>おるごーる</v>
+      </c>
+      <c r="E106" t="str">
+        <v>高松市庵治町156-36</v>
+      </c>
+      <c r="F106" t="str">
+        <v>087-871-3503</v>
+      </c>
+      <c r="G106" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/オルゴール/</v>
+      </c>
+      <c r="H106" t="str">
+        <v/>
+      </c>
+      <c r="I106" t="str">
+        <v>地域型保育事業（小規模保育事業A型）</v>
+      </c>
+      <c r="J106" t="str">
+        <v/>
+      </c>
+      <c r="K106" t="str">
+        <v/>
+      </c>
+      <c r="L106" t="str">
+        <v>11</v>
+      </c>
+      <c r="M106" t="str">
+        <v>おおむね2か月～2歳児</v>
+      </c>
+      <c r="N106" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O106" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P106" t="str">
+        <v>18:30</v>
+      </c>
+      <c r="Q106" t="str">
+        <v/>
+      </c>
+      <c r="R106" t="str">
+        <v>無</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>112</v>
+      </c>
+      <c r="B107" t="str">
+        <v>34.2899</v>
+      </c>
+      <c r="C107" t="str">
+        <v>134.05856</v>
+      </c>
+      <c r="D107" t="str">
+        <v>にじいろうさぎ保育園</v>
+      </c>
+      <c r="E107" t="str">
+        <v>高松市多肥上町1622-13</v>
+      </c>
+      <c r="F107" t="str">
+        <v>087-889-3711</v>
+      </c>
+      <c r="G107" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/にじいろうさぎ保育園/</v>
+      </c>
+      <c r="H107" t="str">
+        <v/>
+      </c>
+      <c r="I107" t="str">
+        <v>地域型保育事業（小規模保育事業A型）</v>
+      </c>
+      <c r="J107" t="str">
+        <v/>
+      </c>
+      <c r="K107" t="str">
+        <v/>
+      </c>
+      <c r="L107" t="str">
+        <v>9</v>
+      </c>
+      <c r="M107" t="str">
+        <v>おおむね2か月～2歳児</v>
+      </c>
+      <c r="N107" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O107" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P107" t="str">
+        <v>18:30</v>
+      </c>
+      <c r="Q107" t="str">
+        <v/>
+      </c>
+      <c r="R107" t="str">
+        <v>有</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>113</v>
+      </c>
+      <c r="B108" t="str">
+        <v>34.336075</v>
+      </c>
+      <c r="C108" t="str">
+        <v>134.072522</v>
+      </c>
+      <c r="D108" t="str">
+        <v>木太にこにこ保育園</v>
+      </c>
+      <c r="E108" t="str">
+        <v>高松市木太町2321-1</v>
+      </c>
+      <c r="F108" t="str">
+        <v>087-837-5330</v>
+      </c>
+      <c r="G108" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/木太にこにこ保育園/</v>
+      </c>
+      <c r="H108" t="str">
+        <v/>
+      </c>
+      <c r="I108" t="str">
+        <v>地域型保育事業（小規模保育事業A型）</v>
+      </c>
+      <c r="J108" t="str">
+        <v/>
+      </c>
+      <c r="K108" t="str">
+        <v/>
+      </c>
+      <c r="L108" t="str">
+        <v>12</v>
+      </c>
+      <c r="M108" t="str">
+        <v>おおむね2か月～2歳児</v>
+      </c>
+      <c r="N108" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O108" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P108" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q108" t="str">
+        <v/>
+      </c>
+      <c r="R108" t="str">
+        <v>有</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>114</v>
+      </c>
+      <c r="B109" t="str">
+        <v>34.311371</v>
+      </c>
+      <c r="C109" t="str">
+        <v>134.055948</v>
+      </c>
+      <c r="D109" t="str">
+        <v>伏石にこにこ保育園</v>
+      </c>
+      <c r="E109" t="str">
+        <v>高松市伏石町2100-1</v>
+      </c>
+      <c r="F109" t="str">
+        <v>087-868-3339</v>
+      </c>
+      <c r="G109" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/伏石にこにこ保育園/</v>
+      </c>
+      <c r="H109" t="str">
+        <v/>
+      </c>
+      <c r="I109" t="str">
+        <v>地域型保育事業（小規模保育事業A型）</v>
+      </c>
+      <c r="J109" t="str">
+        <v/>
+      </c>
+      <c r="K109" t="str">
+        <v/>
+      </c>
+      <c r="L109" t="str">
+        <v>12</v>
+      </c>
+      <c r="M109" t="str">
+        <v>おおむね2か月～2歳児</v>
+      </c>
+      <c r="N109" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O109" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P109" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q109" t="str">
+        <v/>
+      </c>
+      <c r="R109" t="str">
+        <v>有</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>115</v>
+      </c>
+      <c r="B110" t="str">
+        <v>34.316136</v>
+      </c>
+      <c r="C110" t="str">
+        <v>134.061202</v>
+      </c>
+      <c r="D110" t="str">
+        <v>ニチイキッズまつなわ西保育園</v>
+      </c>
+      <c r="E110" t="str">
+        <v>高松市松縄町1118-8</v>
+      </c>
+      <c r="F110" t="str">
+        <v>087-864-3155</v>
+      </c>
+      <c r="G110" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/ニチイキッズまつなわ西保育園/</v>
+      </c>
+      <c r="H110" t="str">
+        <v/>
+      </c>
+      <c r="I110" t="str">
+        <v>地域型保育事業（小規模保育事業A型）</v>
+      </c>
+      <c r="J110" t="str">
+        <v/>
+      </c>
+      <c r="K110" t="str">
+        <v/>
+      </c>
+      <c r="L110" t="str">
+        <v>19</v>
+      </c>
+      <c r="M110" t="str">
+        <v>2か月～2歳児</v>
+      </c>
+      <c r="N110" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O110" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P110" t="str">
+        <v>19:30</v>
+      </c>
+      <c r="Q110" t="str">
+        <v/>
+      </c>
+      <c r="R110" t="str">
+        <v>無</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>116</v>
+      </c>
+      <c r="B111" t="str">
+        <v>34.3049893</v>
+      </c>
+      <c r="C111" t="str">
+        <v>134.0560416</v>
+      </c>
+      <c r="D111" t="str">
+        <v>太田にこにこ保育園</v>
+      </c>
+      <c r="E111" t="str">
+        <v>高松市太田下町3026-13</v>
+      </c>
+      <c r="F111" t="str">
+        <v>087-868-2355</v>
+      </c>
+      <c r="G111" t="str">
+        <v>https://kagawa-colorful.com/hoikusho/%E5%A4%AA%E7%94%B0%E3%81%AB%E3%81%93%E3%81%AB%E3%81%93%E4%BF%9D%E8%82%B2%E5%9C%92/</v>
+      </c>
+      <c r="H111" t="str">
+        <v/>
+      </c>
+      <c r="I111" t="str">
+        <v>地域型保育事業（小規模保育事業A型）</v>
+      </c>
+      <c r="J111" t="str">
+        <v/>
+      </c>
+      <c r="K111" t="str">
+        <v/>
+      </c>
+      <c r="L111" t="str">
+        <v>19</v>
+      </c>
+      <c r="M111" t="str">
+        <v>おおむね2か月～2歳児</v>
+      </c>
+      <c r="N111" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O111" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P111" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q111" t="str">
+        <v/>
+      </c>
+      <c r="R111" t="str">
+        <v>有</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>117</v>
+      </c>
+      <c r="B112" t="str">
+        <v>34.2989616</v>
+      </c>
+      <c r="C112" t="str">
+        <v>134.0640027</v>
+      </c>
+      <c r="D112" t="str">
+        <v>林にこにこ保育園</v>
+      </c>
+      <c r="E112" t="str">
+        <v>高松市林町252-1</v>
+      </c>
+      <c r="F112" t="str">
+        <v>087-868-0103</v>
+      </c>
+      <c r="G112" t="str">
+        <v>https://kagawa-colorful.com/hoikusho/%E6%9E%97%E3%81%AB%E3%81%93%E3%81%AB%E3%81%93%E4%BF%9D%E8%82%B2%E5%9C%92/</v>
+      </c>
+      <c r="H112" t="str">
+        <v/>
+      </c>
+      <c r="I112" t="str">
+        <v>地域型保育事業（小規模保育事業A型）</v>
+      </c>
+      <c r="J112" t="str">
+        <v/>
+      </c>
+      <c r="K112" t="str">
+        <v/>
+      </c>
+      <c r="L112" t="str">
+        <v>19</v>
+      </c>
+      <c r="M112" t="str">
+        <v>おおむね2か月～2歳児</v>
+      </c>
+      <c r="N112" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O112" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P112" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q112" t="str">
+        <v/>
+      </c>
+      <c r="R112" t="str">
+        <v>有</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>118</v>
+      </c>
+      <c r="B113" t="str">
+        <v>34.2612106</v>
+      </c>
+      <c r="C113" t="str">
+        <v>134.0367875</v>
+      </c>
+      <c r="D113" t="str">
+        <v>保育の家みいろ</v>
+      </c>
+      <c r="E113" t="str">
+        <v>高松市香川町浅野668-5</v>
+      </c>
+      <c r="F113" t="str">
+        <v>087-880-3274</v>
+      </c>
+      <c r="G113" t="str">
+        <v>https://kagawa-colorful.com/hoikusho/%E4%BF%9D%E8%82%B2%E3%81%AE%E5%AE%B6%E3%81%BF%E3%81%84%E3%82%8D/</v>
+      </c>
+      <c r="H113" t="str">
+        <v/>
+      </c>
+      <c r="I113" t="str">
+        <v>地域型保育事業（小規模保育事業A型）</v>
+      </c>
+      <c r="J113" t="str">
+        <v/>
+      </c>
+      <c r="K113" t="str">
+        <v/>
+      </c>
+      <c r="L113" t="str">
+        <v>12</v>
+      </c>
+      <c r="M113" t="str">
+        <v>３か月～2歳児</v>
+      </c>
+      <c r="N113" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O113" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P113" t="str">
+        <v>18:30</v>
+      </c>
+      <c r="Q113" t="str">
+        <v/>
+      </c>
+      <c r="R113" t="str">
+        <v>有</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>119</v>
+      </c>
+      <c r="B114" t="str">
+        <v>34.3389027</v>
+      </c>
+      <c r="C114" t="str">
+        <v>134.052851</v>
+      </c>
+      <c r="D114" t="str">
+        <v>瓦町FLAG保育園</v>
+      </c>
+      <c r="E114" t="str">
+        <v>高松市常磐町一丁目3-1瓦町FLAG1F</v>
+      </c>
+      <c r="F114" t="str">
+        <v>087-802-6966</v>
+      </c>
+      <c r="G114" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/%E7%93%A6%E7%94%BAFLAG%E4%BF%9D%E8%82%B2%E5%9C%92/</v>
+      </c>
+      <c r="H114" t="str">
+        <v/>
+      </c>
+      <c r="I114" t="str">
+        <v>地域型保育事業（小規模保育事業A型）</v>
+      </c>
+      <c r="J114" t="str">
+        <v/>
+      </c>
+      <c r="K114" t="str">
+        <v/>
+      </c>
+      <c r="L114" t="str">
+        <v>18</v>
+      </c>
+      <c r="M114" t="str">
+        <v>３か月～2歳児</v>
+      </c>
+      <c r="N114" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O114" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P114" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="Q114" t="str">
+        <v/>
+      </c>
+      <c r="R114" t="str">
+        <v>無</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>120</v>
+      </c>
+      <c r="B115" t="str">
+        <v>34.340379</v>
+      </c>
+      <c r="C115" t="str">
+        <v>134.044986</v>
+      </c>
+      <c r="D115" t="str">
+        <v>院内保育所てふてふ</v>
+      </c>
+      <c r="E115" t="str">
+        <v>高松市天神前5-6 高松メディカルモール</v>
+      </c>
+      <c r="F115" t="str">
+        <v>087-813-0218</v>
+      </c>
+      <c r="G115" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/%25E9%2599%25A2%25E5%2586%2585%25E4%25BF%259D%25E8%2582%25B2%25E6%2589%2580%25E3%2580%2580%25E3%2581%25A6%25E3%2581%25B5%25E3%2581%25A6%25E3%2581%25B5/</v>
+      </c>
+      <c r="H115" t="str">
+        <v/>
+      </c>
+      <c r="I115" t="str">
+        <v>地域型保育事業（事業所内保育事業）</v>
+      </c>
+      <c r="J115" t="str">
+        <v/>
+      </c>
+      <c r="K115" t="str">
+        <v/>
+      </c>
+      <c r="L115" t="str">
+        <v>7</v>
+      </c>
+      <c r="M115" t="str">
+        <v>6か月～2歳児</v>
+      </c>
+      <c r="N115" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O115" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P115" t="str">
+        <v>18:30</v>
+      </c>
+      <c r="Q115" t="str">
+        <v/>
+      </c>
+      <c r="R115" t="str">
+        <v>無</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>121</v>
+      </c>
+      <c r="B116" t="str">
         <v>34.30287</v>
       </c>
-      <c r="C71" t="str">
+      <c r="C116" t="str">
         <v>134.016075</v>
       </c>
-      <c r="D71" t="str">
+      <c r="D116" t="str">
         <v>メリーＧＯランド高松園</v>
       </c>
-      <c r="E71" t="str">
+      <c r="E116" t="str">
         <v>高松市成合町796-1</v>
       </c>
-      <c r="F71" t="str">
+      <c r="F116" t="str">
         <v>087-886-6669</v>
       </c>
-      <c r="G71" t="str">
+      <c r="G116" t="str">
         <v>https://kagawa-colorful.com/hoikusyo/h274/</v>
       </c>
-      <c r="H71" t="str">
-        <v>私立認定こども園</v>
+      <c r="H116" t="str">
+        <v/>
+      </c>
+      <c r="I116" t="str">
+        <v>認定こども園（地方裁量型）</v>
+      </c>
+      <c r="J116" t="str">
+        <v/>
+      </c>
+      <c r="K116" t="str">
+        <v/>
+      </c>
+      <c r="L116" t="str">
+        <v>1号認定 20、2・3号認定 35</v>
+      </c>
+      <c r="M116" t="str">
+        <v>1号認定 満3歳～、2・3号認定 1歳半～</v>
+      </c>
+      <c r="N116" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O116" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P116" t="str">
+        <v>18:00</v>
+      </c>
+      <c r="Q116" t="str">
+        <v/>
+      </c>
+      <c r="R116" t="str">
+        <v>無</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H71"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:R116"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/kindergarten/data.xlsx
+++ b/data/kindergarten/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -742,22 +742,22 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14" t="str">
-        <v>34.276993</v>
+        <v>34.325778</v>
       </c>
       <c r="C14" t="str">
-        <v>134.085666</v>
+        <v>134.091344</v>
       </c>
       <c r="D14" t="str">
-        <v>高松市立山田幼稚園</v>
+        <v>高松市立春日幼稚園</v>
       </c>
       <c r="E14" t="str">
-        <v>高松市川島本町191-10</v>
+        <v>高松市春日町744</v>
       </c>
       <c r="F14" t="str">
-        <v>087-848-1978</v>
+        <v>087-843-2767</v>
       </c>
       <c r="G14" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kosodate/youchien_hoiku/kodomoen/chiiki_suishin/gaiyou.html</v>
@@ -768,22 +768,22 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" t="str">
-        <v>34.325778</v>
+        <v>34.336237</v>
       </c>
       <c r="C15" t="str">
-        <v>134.091344</v>
+        <v>134.07927</v>
       </c>
       <c r="D15" t="str">
-        <v>高松市立春日幼稚園</v>
+        <v>高松市立木太北部幼稚園</v>
       </c>
       <c r="E15" t="str">
-        <v>高松市春日町744</v>
+        <v>高松市木太町2604-5</v>
       </c>
       <c r="F15" t="str">
-        <v>087-843-2767</v>
+        <v>087-862-1031</v>
       </c>
       <c r="G15" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kosodate/youchien_hoiku/kodomoen/chiiki_suishin/gaiyou.html</v>
@@ -794,22 +794,22 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" t="str">
-        <v>34.336237</v>
+        <v>34.35044</v>
       </c>
       <c r="C16" t="str">
-        <v>134.07927</v>
+        <v>134.126751</v>
       </c>
       <c r="D16" t="str">
-        <v>高松市立木太北部幼稚園</v>
+        <v>高松市立栗山幼稚園</v>
       </c>
       <c r="E16" t="str">
-        <v>高松市木太町2604-5</v>
+        <v>高松市牟礼町牟礼3028</v>
       </c>
       <c r="F16" t="str">
-        <v>087-862-1031</v>
+        <v>087-845-1646</v>
       </c>
       <c r="G16" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kosodate/youchien_hoiku/kodomoen/chiiki_suishin/gaiyou.html</v>
@@ -820,22 +820,22 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" t="str">
-        <v>34.35044</v>
+        <v>34.344356</v>
       </c>
       <c r="C17" t="str">
-        <v>134.126751</v>
+        <v>134.137129</v>
       </c>
       <c r="D17" t="str">
-        <v>高松市立栗山幼稚園</v>
+        <v>高松市立田井幼稚園（令和2年4月1日から休園）</v>
       </c>
       <c r="E17" t="str">
-        <v>高松市牟礼町牟礼3028</v>
+        <v>高松市牟礼町牟礼1243-2</v>
       </c>
       <c r="F17" t="str">
-        <v>087-845-1646</v>
+        <v>087-845-3701</v>
       </c>
       <c r="G17" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kosodate/youchien_hoiku/kodomoen/chiiki_suishin/gaiyou.html</v>
@@ -846,22 +846,22 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" t="str">
-        <v>34.344356</v>
+        <v>34.33989</v>
       </c>
       <c r="C18" t="str">
-        <v>134.137129</v>
+        <v>134.148384</v>
       </c>
       <c r="D18" t="str">
-        <v>高松市立田井幼稚園（令和2年4月1日から休園）</v>
+        <v>高松市立大町幼稚園</v>
       </c>
       <c r="E18" t="str">
-        <v>高松市牟礼町牟礼1243-2</v>
+        <v>高松市牟礼町牟礼100-1</v>
       </c>
       <c r="F18" t="str">
-        <v>087-845-3701</v>
+        <v>087-845-5718</v>
       </c>
       <c r="G18" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kosodate/youchien_hoiku/kodomoen/chiiki_suishin/gaiyou.html</v>
@@ -872,22 +872,22 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" t="str">
-        <v>34.33989</v>
+        <v>34.267361</v>
       </c>
       <c r="C19" t="str">
-        <v>134.148384</v>
+        <v>134.024324</v>
       </c>
       <c r="D19" t="str">
-        <v>高松市立大町幼稚園</v>
+        <v>高松市立大野幼稚園</v>
       </c>
       <c r="E19" t="str">
-        <v>高松市牟礼町牟礼100-1</v>
+        <v>高松市香川町大野1331-1</v>
       </c>
       <c r="F19" t="str">
-        <v>087-845-5718</v>
+        <v>087-886-5010</v>
       </c>
       <c r="G19" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kosodate/youchien_hoiku/kodomoen/chiiki_suishin/gaiyou.html</v>
@@ -898,22 +898,22 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20" t="str">
-        <v>34.267361</v>
+        <v>34.306989</v>
       </c>
       <c r="C20" t="str">
-        <v>134.024324</v>
+        <v>133.963516</v>
       </c>
       <c r="D20" t="str">
-        <v>高松市立大野幼稚園</v>
+        <v>高松市立国分寺北部幼稚園</v>
       </c>
       <c r="E20" t="str">
-        <v>高松市香川町大野1331-1</v>
+        <v>高松市国分寺町新居1870-2</v>
       </c>
       <c r="F20" t="str">
-        <v>087-886-5010</v>
+        <v>087-874-1155</v>
       </c>
       <c r="G20" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kosodate/youchien_hoiku/kodomoen/chiiki_suishin/gaiyou.html</v>
@@ -924,22 +924,22 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21" t="str">
-        <v>34.260769</v>
+        <v>34.285316</v>
       </c>
       <c r="C21" t="str">
-        <v>134.041964</v>
+        <v>133.961113</v>
       </c>
       <c r="D21" t="str">
-        <v>高松市立浅野幼稚園</v>
+        <v>高松市立国分寺南部幼稚園</v>
       </c>
       <c r="E21" t="str">
-        <v>高松市香川町浅野3117</v>
+        <v>高松市国分寺町福家甲3123-1</v>
       </c>
       <c r="F21" t="str">
-        <v>087-889-2489</v>
+        <v>087-874-1159</v>
       </c>
       <c r="G21" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kosodate/youchien_hoiku/kodomoen/chiiki_suishin/gaiyou.html</v>
@@ -950,77 +950,77 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22" t="str">
-        <v>34.306989</v>
+        <v>34.358509</v>
       </c>
       <c r="C22" t="str">
-        <v>133.963516</v>
+        <v>133.967533</v>
       </c>
       <c r="D22" t="str">
-        <v>高松市立国分寺北部幼稚園</v>
+        <v>高松市下笠居こども園</v>
       </c>
       <c r="E22" t="str">
-        <v>高松市国分寺町新居1870-2</v>
+        <v>高松市生島町335</v>
       </c>
       <c r="F22" t="str">
-        <v>087-874-1155</v>
+        <v>087-882-2531</v>
       </c>
       <c r="G22" t="str">
-        <v>http://www.city.takamatsu.kagawa.jp/kurashi/kosodate/youchien_hoiku/kodomoen/chiiki_suishin/gaiyou.html</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h142</v>
       </c>
       <c r="H22" t="str">
-        <v>市立幼稚園</v>
+        <v>市立認定こども園</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23" t="str">
-        <v>34.285316</v>
+        <v>34.328643</v>
       </c>
       <c r="C23" t="str">
-        <v>133.961113</v>
+        <v>134.156038</v>
       </c>
       <c r="D23" t="str">
-        <v>高松市立国分寺南部幼稚園</v>
+        <v>高松市はらこども園</v>
       </c>
       <c r="E23" t="str">
-        <v>高松市国分寺町福家甲3123-1</v>
+        <v>高松市牟礼町原570-1</v>
       </c>
       <c r="F23" t="str">
-        <v>087-874-1159</v>
+        <v>087-845-0234</v>
       </c>
       <c r="G23" t="str">
-        <v>http://www.city.takamatsu.kagawa.jp/kurashi/kosodate/youchien_hoiku/kodomoen/chiiki_suishin/gaiyou.html</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h143</v>
       </c>
       <c r="H23" t="str">
-        <v>市立幼稚園</v>
+        <v>市立認定こども園</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24" t="str">
-        <v>34.358509</v>
+        <v>34.385761</v>
       </c>
       <c r="C24" t="str">
-        <v>133.967533</v>
+        <v>134.131516</v>
       </c>
       <c r="D24" t="str">
-        <v>高松市下笠居こども園</v>
+        <v>高松市庵治こども園</v>
       </c>
       <c r="E24" t="str">
-        <v>高松市生島町335</v>
+        <v>高松市庵治町853-1</v>
       </c>
       <c r="F24" t="str">
-        <v>087-882-2531</v>
+        <v>087-871-2535</v>
       </c>
       <c r="G24" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h142</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h144</v>
       </c>
       <c r="H24" t="str">
         <v>市立認定こども園</v>
@@ -1028,25 +1028,25 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25" t="str">
-        <v>34.328643</v>
+        <v>34.242096</v>
       </c>
       <c r="C25" t="str">
-        <v>134.156038</v>
+        <v>134.005834</v>
       </c>
       <c r="D25" t="str">
-        <v>高松市はらこども園</v>
+        <v>高松市香南こども園</v>
       </c>
       <c r="E25" t="str">
-        <v>高松市牟礼町原570-1</v>
+        <v>高松市香南町横井865-1</v>
       </c>
       <c r="F25" t="str">
-        <v>087-845-0234</v>
+        <v>087-887-7876</v>
       </c>
       <c r="G25" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h143</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h145</v>
       </c>
       <c r="H25" t="str">
         <v>市立認定こども園</v>
@@ -1054,25 +1054,25 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26" t="str">
-        <v>34.385761</v>
+        <v>34.188524</v>
       </c>
       <c r="C26" t="str">
-        <v>134.131516</v>
+        <v>134.061382</v>
       </c>
       <c r="D26" t="str">
-        <v>高松市庵治こども園</v>
+        <v>高松市塩江こども園</v>
       </c>
       <c r="E26" t="str">
-        <v>高松市庵治町853-1</v>
+        <v>高松市塩江町安原下第1号887</v>
       </c>
       <c r="F26" t="str">
-        <v>087-871-2535</v>
+        <v>087-890-2022</v>
       </c>
       <c r="G26" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h144</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h146</v>
       </c>
       <c r="H26" t="str">
         <v>市立認定こども園</v>
@@ -1080,25 +1080,25 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27" t="str">
-        <v>34.242096</v>
+        <v>34.237755</v>
       </c>
       <c r="C27" t="str">
-        <v>134.005834</v>
+        <v>134.035134</v>
       </c>
       <c r="D27" t="str">
-        <v>高松市香南こども園</v>
+        <v>高松市川東こども園</v>
       </c>
       <c r="E27" t="str">
-        <v>高松市香南町横井865-1</v>
+        <v>高松市香川町川東上1987-4</v>
       </c>
       <c r="F27" t="str">
-        <v>087-887-7876</v>
+        <v>087-879-4602</v>
       </c>
       <c r="G27" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h145</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h27</v>
       </c>
       <c r="H27" t="str">
         <v>市立認定こども園</v>
@@ -1106,25 +1106,25 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28" t="str">
-        <v>34.188524</v>
+        <v>34.342609</v>
       </c>
       <c r="C28" t="str">
-        <v>134.061382</v>
+        <v>134.099868</v>
       </c>
       <c r="D28" t="str">
-        <v>高松市塩江こども園</v>
+        <v>屋島こども園</v>
       </c>
       <c r="E28" t="str">
-        <v>高松市塩江町安原下第1号887</v>
+        <v>高松市屋島西町1744-1</v>
       </c>
       <c r="F28" t="str">
-        <v>087-890-2022</v>
+        <v>087-841-9711</v>
       </c>
       <c r="G28" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h146</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h307/</v>
       </c>
       <c r="H28" t="str">
         <v>市立認定こども園</v>
@@ -1132,25 +1132,25 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29" t="str">
-        <v>34.237755</v>
+        <v>34.2959789</v>
       </c>
       <c r="C29" t="str">
-        <v>134.035134</v>
+        <v>134.0789659</v>
       </c>
       <c r="D29" t="str">
-        <v>高松市川東こども園</v>
+        <v>林こども園</v>
       </c>
       <c r="E29" t="str">
-        <v>高松市香川町川東上1987-4</v>
+        <v>高松市林町1405-4</v>
       </c>
       <c r="F29" t="str">
-        <v>087-879-4602</v>
+        <v>087-865-1676</v>
       </c>
       <c r="G29" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h27</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h306/</v>
       </c>
       <c r="H29" t="str">
         <v>市立認定こども園</v>
@@ -1158,100 +1158,100 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30" t="str">
-        <v>34.342609</v>
+        <v>34.339334</v>
       </c>
       <c r="C30" t="str">
-        <v>134.099868</v>
+        <v>134.043665</v>
       </c>
       <c r="D30" t="str">
-        <v>屋島こども園</v>
+        <v>香川大学教育学部附属幼稚園高松園舎</v>
       </c>
       <c r="E30" t="str">
-        <v>高松市屋島西町1744-1</v>
+        <v>高松市番町五丁目1-55</v>
       </c>
       <c r="F30" t="str">
-        <v>087-841-9711</v>
+        <v>087-861-2393</v>
       </c>
       <c r="G30" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h307/</v>
+        <v/>
       </c>
       <c r="H30" t="str">
-        <v>市立認定こども園</v>
+        <v>国立幼稚園</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31" t="str">
-        <v>34.2959789</v>
+        <v>34.33993</v>
       </c>
       <c r="C31" t="str">
-        <v>134.0789659</v>
+        <v>134.060168</v>
       </c>
       <c r="D31" t="str">
-        <v>林こども園</v>
+        <v>高松中央高校幼稚園</v>
       </c>
       <c r="E31" t="str">
-        <v>高松市林町1405-4</v>
+        <v>高松市松島町一丁目14-8</v>
       </c>
       <c r="F31" t="str">
-        <v>087-865-1676</v>
+        <v>087-831-0338</v>
       </c>
       <c r="G31" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h306/</v>
+        <v/>
       </c>
       <c r="H31" t="str">
-        <v>市立認定こども園</v>
+        <v>私立幼稚園</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32" t="str">
-        <v>34.339334</v>
+        <v>34.299667</v>
       </c>
       <c r="C32" t="str">
-        <v>134.043665</v>
+        <v>134.049999</v>
       </c>
       <c r="D32" t="str">
-        <v>香川大学教育学部附属幼稚園高松園舎</v>
+        <v>マリア幼稚園</v>
       </c>
       <c r="E32" t="str">
-        <v>高松市番町五丁目1-55</v>
+        <v>高松市多肥下町14-3</v>
       </c>
       <c r="F32" t="str">
-        <v>087-861-2393</v>
+        <v>087-867-7303</v>
       </c>
       <c r="G32" t="str">
         <v/>
       </c>
       <c r="H32" t="str">
-        <v>国立幼稚園</v>
+        <v>私立幼稚園</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33" t="str">
-        <v>34.33993</v>
+        <v>34.341348</v>
       </c>
       <c r="C33" t="str">
-        <v>134.060168</v>
+        <v>134.10799</v>
       </c>
       <c r="D33" t="str">
-        <v>高松中央高校幼稚園</v>
+        <v>のぞみ幼稚園</v>
       </c>
       <c r="E33" t="str">
-        <v>高松市松島町一丁目14-8</v>
+        <v>高松市屋島中町30</v>
       </c>
       <c r="F33" t="str">
-        <v>087-831-0338</v>
+        <v>087-843-2107</v>
       </c>
       <c r="G33" t="str">
         <v/>
@@ -1262,22 +1262,22 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34" t="str">
-        <v>34.299667</v>
+        <v>34.330038</v>
       </c>
       <c r="C34" t="str">
-        <v>134.049999</v>
+        <v>134.05066</v>
       </c>
       <c r="D34" t="str">
-        <v>マリア幼稚園</v>
+        <v>栗林幼稚園</v>
       </c>
       <c r="E34" t="str">
-        <v>高松市多肥下町14-3</v>
+        <v>高松市栗林町二丁目19-4</v>
       </c>
       <c r="F34" t="str">
-        <v>087-867-7303</v>
+        <v>087-834-0263</v>
       </c>
       <c r="G34" t="str">
         <v/>
@@ -1288,22 +1288,22 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35" t="str">
-        <v>34.341348</v>
+        <v>34.337611</v>
       </c>
       <c r="C35" t="str">
-        <v>134.10799</v>
+        <v>134.042829</v>
       </c>
       <c r="D35" t="str">
-        <v>のぞみ幼稚園</v>
+        <v>高松幼稚園</v>
       </c>
       <c r="E35" t="str">
-        <v>高松市屋島中町30</v>
+        <v>高松市亀岡町1-6</v>
       </c>
       <c r="F35" t="str">
-        <v>087-843-2107</v>
+        <v>087-861-3666</v>
       </c>
       <c r="G35" t="str">
         <v/>
@@ -1314,22 +1314,22 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36" t="str">
-        <v>34.330038</v>
+        <v>34.330593</v>
       </c>
       <c r="C36" t="str">
-        <v>134.05066</v>
+        <v>134.051379</v>
       </c>
       <c r="D36" t="str">
-        <v>栗林幼稚園</v>
+        <v>桜町聖母幼稚園</v>
       </c>
       <c r="E36" t="str">
-        <v>高松市栗林町二丁目19-4</v>
+        <v>高松市桜町一丁目8-13</v>
       </c>
       <c r="F36" t="str">
-        <v>087-834-0263</v>
+        <v>087-831-0328</v>
       </c>
       <c r="G36" t="str">
         <v/>
@@ -1340,22 +1340,22 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37" t="str">
-        <v>34.337611</v>
+        <v>34.280112</v>
       </c>
       <c r="C37" t="str">
-        <v>134.042829</v>
+        <v>134.047253</v>
       </c>
       <c r="D37" t="str">
-        <v>高松幼稚園</v>
+        <v>相愛幼稚園</v>
       </c>
       <c r="E37" t="str">
-        <v>高松市亀岡町1-6</v>
+        <v>高松市仏生山町甲546</v>
       </c>
       <c r="F37" t="str">
-        <v>087-861-3666</v>
+        <v>087-888-2606</v>
       </c>
       <c r="G37" t="str">
         <v/>
@@ -1366,22 +1366,22 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38" t="str">
-        <v>34.330593</v>
+        <v>34.301496</v>
       </c>
       <c r="C38" t="str">
-        <v>134.051379</v>
+        <v>134.044062</v>
       </c>
       <c r="D38" t="str">
-        <v>桜町聖母幼稚園</v>
+        <v>太田百華幼稚園</v>
       </c>
       <c r="E38" t="str">
-        <v>高松市桜町一丁目8-13</v>
+        <v>高松市太田上町932</v>
       </c>
       <c r="F38" t="str">
-        <v>087-831-0328</v>
+        <v>087-867-7445</v>
       </c>
       <c r="G38" t="str">
         <v/>
@@ -1392,22 +1392,22 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39" t="str">
-        <v>34.280112</v>
+        <v>34.340658</v>
       </c>
       <c r="C39" t="str">
-        <v>134.047253</v>
+        <v>134.052507</v>
       </c>
       <c r="D39" t="str">
-        <v>相愛幼稚園</v>
+        <v>光華幼稚園</v>
       </c>
       <c r="E39" t="str">
-        <v>高松市仏生山町甲546</v>
+        <v>高松市瓦町一丁目13-8</v>
       </c>
       <c r="F39" t="str">
-        <v>087-888-2606</v>
+        <v>087-831-5011</v>
       </c>
       <c r="G39" t="str">
         <v/>
@@ -1418,22 +1418,22 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40" t="str">
-        <v>34.301496</v>
+        <v>34.322588</v>
       </c>
       <c r="C40" t="str">
-        <v>134.044062</v>
+        <v>134.052686</v>
       </c>
       <c r="D40" t="str">
-        <v>太田百華幼稚園</v>
+        <v>くにとう幼稚園</v>
       </c>
       <c r="E40" t="str">
-        <v>高松市太田上町932</v>
+        <v>高松市伏石町1611</v>
       </c>
       <c r="F40" t="str">
-        <v>087-867-7445</v>
+        <v>087-866-1666</v>
       </c>
       <c r="G40" t="str">
         <v/>
@@ -1444,74 +1444,74 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41" t="str">
-        <v>34.340658</v>
+        <v>34.344964</v>
       </c>
       <c r="C41" t="str">
-        <v>134.052507</v>
+        <v>134.095292</v>
       </c>
       <c r="D41" t="str">
-        <v>光華幼稚園</v>
+        <v>屋島教会幼稚園</v>
       </c>
       <c r="E41" t="str">
-        <v>高松市瓦町一丁目13-8</v>
+        <v>高松市屋島西町1392-7</v>
       </c>
       <c r="F41" t="str">
-        <v>087-831-5011</v>
+        <v>087-841-1925</v>
       </c>
       <c r="G41" t="str">
         <v/>
       </c>
       <c r="H41" t="str">
-        <v>私立幼稚園</v>
+        <v>新制度に移行している私立幼稚園</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42" t="str">
-        <v>34.322588</v>
+        <v>34.318503</v>
       </c>
       <c r="C42" t="str">
-        <v>134.052686</v>
+        <v>134.045934</v>
       </c>
       <c r="D42" t="str">
-        <v>くにとう幼稚園</v>
+        <v>青空幼稚園</v>
       </c>
       <c r="E42" t="str">
-        <v>高松市伏石町1611</v>
+        <v>高松市三条町498</v>
       </c>
       <c r="F42" t="str">
-        <v>087-866-1666</v>
+        <v>087-867-7314</v>
       </c>
       <c r="G42" t="str">
         <v/>
       </c>
       <c r="H42" t="str">
-        <v>私立幼稚園</v>
+        <v>新制度に移行している私立幼稚園</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43" t="str">
-        <v>34.344964</v>
+        <v>34.319073</v>
       </c>
       <c r="C43" t="str">
-        <v>134.095292</v>
+        <v>134.034293</v>
       </c>
       <c r="D43" t="str">
-        <v>屋島教会幼稚園</v>
+        <v>愛育幼稚園</v>
       </c>
       <c r="E43" t="str">
-        <v>高松市屋島西町1392-7</v>
+        <v>高松市西ハゼ町310</v>
       </c>
       <c r="F43" t="str">
-        <v>087-841-1925</v>
+        <v>087-865-5845</v>
       </c>
       <c r="G43" t="str">
         <v/>
@@ -1522,22 +1522,22 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44" t="str">
-        <v>34.318503</v>
+        <v>34.304447</v>
       </c>
       <c r="C44" t="str">
-        <v>134.045934</v>
+        <v>134.000126</v>
       </c>
       <c r="D44" t="str">
-        <v>青空幼稚園</v>
+        <v>まゆみ幼稚園</v>
       </c>
       <c r="E44" t="str">
-        <v>高松市三条町498</v>
+        <v>高松市檀紙町1541-4</v>
       </c>
       <c r="F44" t="str">
-        <v>087-867-7314</v>
+        <v>087-885-0756</v>
       </c>
       <c r="G44" t="str">
         <v/>
@@ -1548,22 +1548,22 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45" t="str">
-        <v>34.319073</v>
+        <v>34.343464</v>
       </c>
       <c r="C45" t="str">
-        <v>134.034293</v>
+        <v>134.031956</v>
       </c>
       <c r="D45" t="str">
-        <v>愛育幼稚園</v>
+        <v>二番丁幼稚園</v>
       </c>
       <c r="E45" t="str">
-        <v>高松市西ハゼ町310</v>
+        <v>高松市昭和町二丁目7-1</v>
       </c>
       <c r="F45" t="str">
-        <v>087-865-5845</v>
+        <v>087-861-3575</v>
       </c>
       <c r="G45" t="str">
         <v/>
@@ -1574,22 +1574,22 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46" t="str">
-        <v>34.304447</v>
+        <v>34.314879</v>
       </c>
       <c r="C46" t="str">
-        <v>134.000126</v>
+        <v>133.994961</v>
       </c>
       <c r="D46" t="str">
-        <v>まゆみ幼稚園</v>
+        <v>ときわ幼稚園</v>
       </c>
       <c r="E46" t="str">
-        <v>高松市檀紙町1541-4</v>
+        <v>高松市飯田町138</v>
       </c>
       <c r="F46" t="str">
-        <v>087-885-0756</v>
+        <v>087-881-2796</v>
       </c>
       <c r="G46" t="str">
         <v/>
@@ -1600,22 +1600,22 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47" t="str">
-        <v>34.343464</v>
+        <v>34.343412</v>
       </c>
       <c r="C47" t="str">
-        <v>134.031956</v>
+        <v>134.044394</v>
       </c>
       <c r="D47" t="str">
-        <v>二番丁幼稚園</v>
+        <v>高松聖母幼稚園</v>
       </c>
       <c r="E47" t="str">
-        <v>高松市昭和町二丁目7-1</v>
+        <v>高松市番町二丁目4-31</v>
       </c>
       <c r="F47" t="str">
-        <v>087-861-3575</v>
+        <v>087-851-2372</v>
       </c>
       <c r="G47" t="str">
         <v/>
@@ -1626,77 +1626,77 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48" t="str">
-        <v>34.314879</v>
+        <v>34.292144</v>
       </c>
       <c r="C48" t="str">
-        <v>133.994961</v>
+        <v>134.066237</v>
       </c>
       <c r="D48" t="str">
-        <v>ときわ幼稚園</v>
+        <v>サンシャインこどもの森</v>
       </c>
       <c r="E48" t="str">
-        <v>高松市飯田町138</v>
+        <v>高松市上林町502-2</v>
       </c>
       <c r="F48" t="str">
-        <v>087-881-2796</v>
+        <v>087-889-8181</v>
       </c>
       <c r="G48" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h147/</v>
       </c>
       <c r="H48" t="str">
-        <v>新制度に移行している私立幼稚園</v>
+        <v>私立認定こども園</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49" t="str">
-        <v>34.343412</v>
+        <v>34.303319</v>
       </c>
       <c r="C49" t="str">
-        <v>134.044394</v>
+        <v>133.949144</v>
       </c>
       <c r="D49" t="str">
-        <v>高松聖母幼稚園</v>
+        <v>いずみこども園</v>
       </c>
       <c r="E49" t="str">
-        <v>高松市番町二丁目4-31</v>
+        <v>高松市国分寺町国分2408</v>
       </c>
       <c r="F49" t="str">
-        <v>087-851-2372</v>
+        <v>087-874-0882</v>
       </c>
       <c r="G49" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h148</v>
       </c>
       <c r="H49" t="str">
-        <v>新制度に移行している私立幼稚園</v>
+        <v>私立認定こども園</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50" t="str">
-        <v>34.292144</v>
+        <v>34.304328</v>
       </c>
       <c r="C50" t="str">
-        <v>134.066237</v>
+        <v>133.97246</v>
       </c>
       <c r="D50" t="str">
-        <v>サンシャインこどもの森</v>
+        <v>いずみこども園分園</v>
       </c>
       <c r="E50" t="str">
-        <v>高松市上林町502-2</v>
+        <v>国分寺町新居281-1</v>
       </c>
       <c r="F50" t="str">
-        <v>087-889-8181</v>
+        <v>087-875-0882</v>
       </c>
       <c r="G50" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h147/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h211</v>
       </c>
       <c r="H50" t="str">
         <v>私立認定こども園</v>
@@ -1704,25 +1704,25 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51" t="str">
-        <v>34.303319</v>
+        <v>34.327571</v>
       </c>
       <c r="C51" t="str">
-        <v>133.949144</v>
+        <v>134.087355</v>
       </c>
       <c r="D51" t="str">
-        <v>いずみこども園</v>
+        <v>認定こども園高松東幼稚園</v>
       </c>
       <c r="E51" t="str">
-        <v>高松市国分寺町国分2408</v>
+        <v>高松市春日町688</v>
       </c>
       <c r="F51" t="str">
-        <v>087-874-0882</v>
+        <v>087-841-2306</v>
       </c>
       <c r="G51" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h148</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h262</v>
       </c>
       <c r="H51" t="str">
         <v>私立認定こども園</v>
@@ -1730,25 +1730,25 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52" t="str">
-        <v>34.304328</v>
+        <v>34.325356</v>
       </c>
       <c r="C52" t="str">
-        <v>133.97246</v>
+        <v>134.099079</v>
       </c>
       <c r="D52" t="str">
-        <v>いずみこども園分園</v>
+        <v>幼保連携型認定こども園新田幼稚園</v>
       </c>
       <c r="E52" t="str">
-        <v>国分寺町新居281-1</v>
+        <v>高松市新田町甲2630-1</v>
       </c>
       <c r="F52" t="str">
-        <v>087-875-0882</v>
+        <v>087-841-3686</v>
       </c>
       <c r="G52" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h211</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h263</v>
       </c>
       <c r="H52" t="str">
         <v>私立認定こども園</v>
@@ -1756,25 +1756,25 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53" t="str">
-        <v>34.327571</v>
+        <v>34.268464</v>
       </c>
       <c r="C53" t="str">
-        <v>134.087355</v>
+        <v>134.006758</v>
       </c>
       <c r="D53" t="str">
-        <v>認定こども園高松東幼稚園</v>
+        <v>認定こども園和光こども園</v>
       </c>
       <c r="E53" t="str">
-        <v>高松市春日町688</v>
+        <v>高松市川部町1561-1</v>
       </c>
       <c r="F53" t="str">
-        <v>087-841-2306</v>
+        <v>087-886-5879</v>
       </c>
       <c r="G53" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h262</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h39/</v>
       </c>
       <c r="H53" t="str">
         <v>私立認定こども園</v>
@@ -1782,25 +1782,25 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54" t="str">
-        <v>34.325356</v>
+        <v>34.331077</v>
       </c>
       <c r="C54" t="str">
-        <v>134.099079</v>
+        <v>134.094275</v>
       </c>
       <c r="D54" t="str">
-        <v>認定こども園新田幼稚園</v>
+        <v>認定こども園春日こども園</v>
       </c>
       <c r="E54" t="str">
-        <v>高松市新田町甲2630-1</v>
+        <v>高松市春日町1287-1</v>
       </c>
       <c r="F54" t="str">
-        <v>087-841-3686</v>
+        <v>087-843-3689</v>
       </c>
       <c r="G54" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h263</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h163/</v>
       </c>
       <c r="H54" t="str">
         <v>私立認定こども園</v>
@@ -1808,25 +1808,25 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55" t="str">
-        <v>34.268464</v>
+        <v>34.326539</v>
       </c>
       <c r="C55" t="str">
-        <v>134.006758</v>
+        <v>134.047837</v>
       </c>
       <c r="D55" t="str">
-        <v>認定こども園和光こども園</v>
+        <v>認定こども園花ノ宮こども園</v>
       </c>
       <c r="E55" t="str">
-        <v>高松市川部町1561-1</v>
+        <v>高松市花ノ宮町一丁目10-22</v>
       </c>
       <c r="F55" t="str">
-        <v>087-886-5879</v>
+        <v>087-831-6318</v>
       </c>
       <c r="G55" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h39/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h175/</v>
       </c>
       <c r="H55" t="str">
         <v>私立認定こども園</v>
@@ -1834,25 +1834,25 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56" t="str">
-        <v>34.331077</v>
+        <v>34.333461</v>
       </c>
       <c r="C56" t="str">
-        <v>134.094275</v>
+        <v>134.04506</v>
       </c>
       <c r="D56" t="str">
-        <v>認定こども園春日こども園</v>
+        <v>認定こども園中野保育所</v>
       </c>
       <c r="E56" t="str">
-        <v>高松市春日町1287-1</v>
+        <v>高松市中野町27-5</v>
       </c>
       <c r="F56" t="str">
-        <v>087-843-3689</v>
+        <v>087-831-8659</v>
       </c>
       <c r="G56" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h163/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h174/</v>
       </c>
       <c r="H56" t="str">
         <v>私立認定こども園</v>
@@ -1860,25 +1860,25 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57" t="str">
-        <v>34.326539</v>
+        <v>34.279891</v>
       </c>
       <c r="C57" t="str">
-        <v>134.047837</v>
+        <v>134.042395</v>
       </c>
       <c r="D57" t="str">
-        <v>認定こども園花ノ宮こども園</v>
+        <v>幼保連携型認定こども園カナン保育園</v>
       </c>
       <c r="E57" t="str">
-        <v>高松市花ノ宮町一丁目10-22</v>
+        <v>高松市仏生山町甲745-2</v>
       </c>
       <c r="F57" t="str">
-        <v>087-831-6318</v>
+        <v>087-889-1059</v>
       </c>
       <c r="G57" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h175/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h166/</v>
       </c>
       <c r="H57" t="str">
         <v>私立認定こども園</v>
@@ -1886,25 +1886,25 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58" t="str">
-        <v>34.333461</v>
+        <v>34.292691</v>
       </c>
       <c r="C58" t="str">
-        <v>134.04506</v>
+        <v>134.0352</v>
       </c>
       <c r="D58" t="str">
-        <v>認定こども園中野保育所</v>
+        <v>幼保連携型認定こども園すまいる</v>
       </c>
       <c r="E58" t="str">
-        <v>高松市中野町27-5</v>
+        <v>高松市三名町591-1</v>
       </c>
       <c r="F58" t="str">
-        <v>087-831-8659</v>
+        <v>087-802-3838</v>
       </c>
       <c r="G58" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h174/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h275/</v>
       </c>
       <c r="H58" t="str">
         <v>私立認定こども園</v>
@@ -1912,25 +1912,25 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59" t="str">
-        <v>34.279891</v>
+        <v>34.2936161</v>
       </c>
       <c r="C59" t="str">
-        <v>134.042395</v>
+        <v>134.0789214</v>
       </c>
       <c r="D59" t="str">
-        <v>幼保連携型認定こども園カナン保育園</v>
+        <v>げんき・結愛・げんきこども園</v>
       </c>
       <c r="E59" t="str">
-        <v>高松市仏生山町甲745-2</v>
+        <v>高松市六条町604番地7</v>
       </c>
       <c r="F59" t="str">
-        <v>087-889-1059</v>
+        <v>087-813-9818</v>
       </c>
       <c r="G59" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h166/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h37/</v>
       </c>
       <c r="H59" t="str">
         <v>私立認定こども園</v>
@@ -1938,25 +1938,25 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60" t="str">
-        <v>34.292691</v>
+        <v>34.2734776</v>
       </c>
       <c r="C60" t="str">
-        <v>134.0352</v>
+        <v>134.1024882</v>
       </c>
       <c r="D60" t="str">
-        <v>幼保連携型認定こども園すまいる</v>
+        <v>幼保連携型カナン十河こども園</v>
       </c>
       <c r="E60" t="str">
-        <v>高松市三名町591-1</v>
+        <v>高松市十川西町546-1</v>
       </c>
       <c r="F60" t="str">
-        <v>087-802-3838</v>
+        <v>087-848-0320</v>
       </c>
       <c r="G60" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h275/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h48/</v>
       </c>
       <c r="H60" t="str">
         <v>私立認定こども園</v>
@@ -1964,25 +1964,25 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61" t="str">
-        <v>34.2936161</v>
+        <v>34.3064057</v>
       </c>
       <c r="C61" t="str">
-        <v>134.0789214</v>
+        <v>134.042294</v>
       </c>
       <c r="D61" t="str">
-        <v>げんき・結愛・げんきこども園</v>
+        <v>幼保連携型認定こども園高松和貴こども園</v>
       </c>
       <c r="E61" t="str">
-        <v>高松市六条町604番地7</v>
+        <v>高松市林町2197-1</v>
       </c>
       <c r="F61" t="str">
-        <v>087-813-9818</v>
+        <v>087-814-4141</v>
       </c>
       <c r="G61" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h37/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h313/</v>
       </c>
       <c r="H61" t="str">
         <v>私立認定こども園</v>
@@ -1990,25 +1990,25 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62" t="str">
-        <v>34.2734776</v>
+        <v>34.3264572</v>
       </c>
       <c r="C62" t="str">
-        <v>134.1024882</v>
+        <v>134.0769366</v>
       </c>
       <c r="D62" t="str">
-        <v>幼保連携型カナン十河こども園</v>
+        <v>みらい学園</v>
       </c>
       <c r="E62" t="str">
-        <v>高松市十川西町546-1</v>
+        <v>高松市木太町3429-3</v>
       </c>
       <c r="F62" t="str">
-        <v>087-848-0320</v>
+        <v>087-899-2305</v>
       </c>
       <c r="G62" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h48/</v>
+        <v/>
       </c>
       <c r="H62" t="str">
         <v>私立認定こども園</v>
@@ -2016,25 +2016,25 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63" t="str">
-        <v>34.3064057</v>
+        <v>34.353781</v>
       </c>
       <c r="C63" t="str">
-        <v>134.042294</v>
+        <v>134.091115</v>
       </c>
       <c r="D63" t="str">
-        <v>幼保連携型認定こども園高松和貴こども園</v>
+        <v>認定こども園やしま幼稚園</v>
       </c>
       <c r="E63" t="str">
-        <v>高松市林町2197-1</v>
+        <v>高松市屋島西町2477-4</v>
       </c>
       <c r="F63" t="str">
-        <v>087-814-4141</v>
+        <v>087-843-2241</v>
       </c>
       <c r="G63" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h313/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h149</v>
       </c>
       <c r="H63" t="str">
         <v>私立認定こども園</v>
@@ -2042,25 +2042,25 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64" t="str">
-        <v>34.3264572</v>
+        <v>34.338923</v>
       </c>
       <c r="C64" t="str">
-        <v>134.0769366</v>
+        <v>134.031483</v>
       </c>
       <c r="D64" t="str">
-        <v>みらい学園</v>
+        <v>高松聖ヤコブ幼稚園</v>
       </c>
       <c r="E64" t="str">
-        <v>高松市木太町3429-3</v>
+        <v>高松市西宝町二丁目3-14</v>
       </c>
       <c r="F64" t="str">
-        <v>087-899-2305</v>
+        <v>087-861-0425</v>
       </c>
       <c r="G64" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h249</v>
       </c>
       <c r="H64" t="str">
         <v>私立認定こども園</v>
@@ -2068,25 +2068,25 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65" t="str">
-        <v>34.353781</v>
+        <v>34.338702</v>
       </c>
       <c r="C65" t="str">
-        <v>134.091115</v>
+        <v>134.038281</v>
       </c>
       <c r="D65" t="str">
-        <v>認定こども園やしま幼稚園</v>
+        <v>認定こども園亀阜幼稚園</v>
       </c>
       <c r="E65" t="str">
-        <v>高松市屋島西町2477-4</v>
+        <v>宮脇町一丁目2-23</v>
       </c>
       <c r="F65" t="str">
-        <v>087-843-2241</v>
+        <v>087-831-2557</v>
       </c>
       <c r="G65" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h149</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h252</v>
       </c>
       <c r="H65" t="str">
         <v>私立認定こども園</v>
@@ -2094,25 +2094,25 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66" t="str">
-        <v>34.338923</v>
+        <v>34.279836</v>
       </c>
       <c r="C66" t="str">
-        <v>134.031483</v>
+        <v>134.022373</v>
       </c>
       <c r="D66" t="str">
-        <v>高松聖ヤコブ幼稚園</v>
+        <v>らく楽寺井幼稚園</v>
       </c>
       <c r="E66" t="str">
-        <v>高松市西宝町二丁目3-14</v>
+        <v>高松市寺井町1369-4</v>
       </c>
       <c r="F66" t="str">
-        <v>087-861-0425</v>
+        <v>087-885-2038</v>
       </c>
       <c r="G66" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h249</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h264</v>
       </c>
       <c r="H66" t="str">
         <v>私立認定こども園</v>
@@ -2120,25 +2120,25 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67" t="str">
-        <v>34.338702</v>
+        <v>34.334019</v>
       </c>
       <c r="C67" t="str">
-        <v>134.038281</v>
+        <v>134.114815</v>
       </c>
       <c r="D67" t="str">
-        <v>認定こども園亀阜幼稚園</v>
+        <v>幼稚園型認定こども園つくし幼稚園</v>
       </c>
       <c r="E67" t="str">
-        <v>宮脇町一丁目2-23</v>
+        <v>高松市高松町1711-7</v>
       </c>
       <c r="F67" t="str">
-        <v>087-831-2557</v>
+        <v>087-843-4484</v>
       </c>
       <c r="G67" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h252</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h272/</v>
       </c>
       <c r="H67" t="str">
         <v>私立認定こども園</v>
@@ -2146,25 +2146,25 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68" t="str">
-        <v>34.279836</v>
+        <v>34.304505</v>
       </c>
       <c r="C68" t="str">
-        <v>134.022373</v>
+        <v>134.021922</v>
       </c>
       <c r="D68" t="str">
-        <v>らく楽寺井幼稚園</v>
+        <v>認定こども園勅使百華幼稚園</v>
       </c>
       <c r="E68" t="str">
-        <v>高松市寺井町1369-4</v>
+        <v>高松市勅使町955</v>
       </c>
       <c r="F68" t="str">
-        <v>087-885-2038</v>
+        <v>087-865-9419</v>
       </c>
       <c r="G68" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h264</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h273/</v>
       </c>
       <c r="H68" t="str">
         <v>私立認定こども園</v>
@@ -2172,85 +2172,33 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69" t="str">
-        <v>34.334019</v>
+        <v>34.30287</v>
       </c>
       <c r="C69" t="str">
-        <v>134.114815</v>
+        <v>134.016075</v>
       </c>
       <c r="D69" t="str">
-        <v>幼稚園型認定こども園つくし幼稚園</v>
+        <v>メリーＧＯランド高松園</v>
       </c>
       <c r="E69" t="str">
-        <v>高松市高松町1711-7</v>
+        <v>高松市成合町796-1</v>
       </c>
       <c r="F69" t="str">
-        <v>087-843-4484</v>
+        <v>087-886-6669</v>
       </c>
       <c r="G69" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h272/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h274/</v>
       </c>
       <c r="H69" t="str">
         <v>私立認定こども園</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="str">
-        <v>73</v>
-      </c>
-      <c r="B70" t="str">
-        <v>34.304505</v>
-      </c>
-      <c r="C70" t="str">
-        <v>134.021922</v>
-      </c>
-      <c r="D70" t="str">
-        <v>認定こども園勅使百華幼稚園</v>
-      </c>
-      <c r="E70" t="str">
-        <v>高松市勅使町955</v>
-      </c>
-      <c r="F70" t="str">
-        <v>087-865-9419</v>
-      </c>
-      <c r="G70" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h273/</v>
-      </c>
-      <c r="H70" t="str">
-        <v>私立認定こども園</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="str">
-        <v>74</v>
-      </c>
-      <c r="B71" t="str">
-        <v>34.30287</v>
-      </c>
-      <c r="C71" t="str">
-        <v>134.016075</v>
-      </c>
-      <c r="D71" t="str">
-        <v>メリーＧＯランド高松園</v>
-      </c>
-      <c r="E71" t="str">
-        <v>高松市成合町796-1</v>
-      </c>
-      <c r="F71" t="str">
-        <v>087-886-6669</v>
-      </c>
-      <c r="G71" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h274/</v>
-      </c>
-      <c r="H71" t="str">
-        <v>私立認定こども園</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H71"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H69"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/kindergarten/data.xlsx
+++ b/data/kindergarten/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -742,22 +742,22 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="str">
-        <v>34.325778</v>
+        <v>34.336237</v>
       </c>
       <c r="C14" t="str">
-        <v>134.091344</v>
+        <v>134.07927</v>
       </c>
       <c r="D14" t="str">
-        <v>高松市立春日幼稚園</v>
+        <v>高松市立木太北部幼稚園</v>
       </c>
       <c r="E14" t="str">
-        <v>高松市春日町744</v>
+        <v>高松市木太町2604-5</v>
       </c>
       <c r="F14" t="str">
-        <v>087-843-2767</v>
+        <v>087-862-1031</v>
       </c>
       <c r="G14" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kosodate/youchien_hoiku/kodomoen/chiiki_suishin/gaiyou.html</v>
@@ -768,22 +768,22 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="str">
-        <v>34.336237</v>
+        <v>34.35044</v>
       </c>
       <c r="C15" t="str">
-        <v>134.07927</v>
+        <v>134.126751</v>
       </c>
       <c r="D15" t="str">
-        <v>高松市立木太北部幼稚園</v>
+        <v>高松市立栗山幼稚園</v>
       </c>
       <c r="E15" t="str">
-        <v>高松市木太町2604-5</v>
+        <v>高松市牟礼町牟礼3028</v>
       </c>
       <c r="F15" t="str">
-        <v>087-862-1031</v>
+        <v>087-845-1646</v>
       </c>
       <c r="G15" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kosodate/youchien_hoiku/kodomoen/chiiki_suishin/gaiyou.html</v>
@@ -794,22 +794,22 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="str">
-        <v>34.35044</v>
+        <v>34.344356</v>
       </c>
       <c r="C16" t="str">
-        <v>134.126751</v>
+        <v>134.137129</v>
       </c>
       <c r="D16" t="str">
-        <v>高松市立栗山幼稚園</v>
+        <v>高松市立田井幼稚園（令和2年4月1日から休園）</v>
       </c>
       <c r="E16" t="str">
-        <v>高松市牟礼町牟礼3028</v>
+        <v>高松市牟礼町牟礼1243-2</v>
       </c>
       <c r="F16" t="str">
-        <v>087-845-1646</v>
+        <v>087-845-3701</v>
       </c>
       <c r="G16" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kosodate/youchien_hoiku/kodomoen/chiiki_suishin/gaiyou.html</v>
@@ -820,22 +820,22 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="str">
-        <v>34.344356</v>
+        <v>34.33989</v>
       </c>
       <c r="C17" t="str">
-        <v>134.137129</v>
+        <v>134.148384</v>
       </c>
       <c r="D17" t="str">
-        <v>高松市立田井幼稚園（令和2年4月1日から休園）</v>
+        <v>高松市立大町幼稚園</v>
       </c>
       <c r="E17" t="str">
-        <v>高松市牟礼町牟礼1243-2</v>
+        <v>高松市牟礼町牟礼100-1</v>
       </c>
       <c r="F17" t="str">
-        <v>087-845-3701</v>
+        <v>087-845-5718</v>
       </c>
       <c r="G17" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kosodate/youchien_hoiku/kodomoen/chiiki_suishin/gaiyou.html</v>
@@ -846,22 +846,22 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="str">
-        <v>34.33989</v>
+        <v>34.267361</v>
       </c>
       <c r="C18" t="str">
-        <v>134.148384</v>
+        <v>134.024324</v>
       </c>
       <c r="D18" t="str">
-        <v>高松市立大町幼稚園</v>
+        <v>高松市立大野幼稚園</v>
       </c>
       <c r="E18" t="str">
-        <v>高松市牟礼町牟礼100-1</v>
+        <v>高松市香川町大野1331-1</v>
       </c>
       <c r="F18" t="str">
-        <v>087-845-5718</v>
+        <v>087-886-5010</v>
       </c>
       <c r="G18" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kosodate/youchien_hoiku/kodomoen/chiiki_suishin/gaiyou.html</v>
@@ -872,22 +872,22 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19" t="str">
-        <v>34.267361</v>
+        <v>34.306989</v>
       </c>
       <c r="C19" t="str">
-        <v>134.024324</v>
+        <v>133.963516</v>
       </c>
       <c r="D19" t="str">
-        <v>高松市立大野幼稚園</v>
+        <v>高松市立国分寺北部幼稚園</v>
       </c>
       <c r="E19" t="str">
-        <v>高松市香川町大野1331-1</v>
+        <v>高松市国分寺町新居1870-2</v>
       </c>
       <c r="F19" t="str">
-        <v>087-886-5010</v>
+        <v>087-874-1155</v>
       </c>
       <c r="G19" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kosodate/youchien_hoiku/kodomoen/chiiki_suishin/gaiyou.html</v>
@@ -898,22 +898,22 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="str">
-        <v>34.306989</v>
+        <v>34.285316</v>
       </c>
       <c r="C20" t="str">
-        <v>133.963516</v>
+        <v>133.961113</v>
       </c>
       <c r="D20" t="str">
-        <v>高松市立国分寺北部幼稚園</v>
+        <v>高松市立国分寺南部幼稚園</v>
       </c>
       <c r="E20" t="str">
-        <v>高松市国分寺町新居1870-2</v>
+        <v>高松市国分寺町福家甲3123-1</v>
       </c>
       <c r="F20" t="str">
-        <v>087-874-1155</v>
+        <v>087-874-1159</v>
       </c>
       <c r="G20" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kosodate/youchien_hoiku/kodomoen/chiiki_suishin/gaiyou.html</v>
@@ -924,51 +924,51 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" t="str">
-        <v>34.285316</v>
+        <v>34.358509</v>
       </c>
       <c r="C21" t="str">
-        <v>133.961113</v>
+        <v>133.967533</v>
       </c>
       <c r="D21" t="str">
-        <v>高松市立国分寺南部幼稚園</v>
+        <v>高松市下笠居こども園</v>
       </c>
       <c r="E21" t="str">
-        <v>高松市国分寺町福家甲3123-1</v>
+        <v>高松市生島町335</v>
       </c>
       <c r="F21" t="str">
-        <v>087-874-1159</v>
+        <v>087-882-2531</v>
       </c>
       <c r="G21" t="str">
-        <v>http://www.city.takamatsu.kagawa.jp/kurashi/kosodate/youchien_hoiku/kodomoen/chiiki_suishin/gaiyou.html</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h142</v>
       </c>
       <c r="H21" t="str">
-        <v>市立幼稚園</v>
+        <v>市立認定こども園</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" t="str">
-        <v>34.358509</v>
+        <v>34.328643</v>
       </c>
       <c r="C22" t="str">
-        <v>133.967533</v>
+        <v>134.156038</v>
       </c>
       <c r="D22" t="str">
-        <v>高松市下笠居こども園</v>
+        <v>高松市はらこども園</v>
       </c>
       <c r="E22" t="str">
-        <v>高松市生島町335</v>
+        <v>高松市牟礼町原570-1</v>
       </c>
       <c r="F22" t="str">
-        <v>087-882-2531</v>
+        <v>087-845-0234</v>
       </c>
       <c r="G22" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h142</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h143</v>
       </c>
       <c r="H22" t="str">
         <v>市立認定こども園</v>
@@ -976,25 +976,25 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" t="str">
-        <v>34.328643</v>
+        <v>34.385761</v>
       </c>
       <c r="C23" t="str">
-        <v>134.156038</v>
+        <v>134.131516</v>
       </c>
       <c r="D23" t="str">
-        <v>高松市はらこども園</v>
+        <v>高松市庵治こども園</v>
       </c>
       <c r="E23" t="str">
-        <v>高松市牟礼町原570-1</v>
+        <v>高松市庵治町853-1</v>
       </c>
       <c r="F23" t="str">
-        <v>087-845-0234</v>
+        <v>087-871-2535</v>
       </c>
       <c r="G23" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h143</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h144</v>
       </c>
       <c r="H23" t="str">
         <v>市立認定こども園</v>
@@ -1002,25 +1002,25 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" t="str">
-        <v>34.385761</v>
+        <v>34.242096</v>
       </c>
       <c r="C24" t="str">
-        <v>134.131516</v>
+        <v>134.005834</v>
       </c>
       <c r="D24" t="str">
-        <v>高松市庵治こども園</v>
+        <v>高松市香南こども園</v>
       </c>
       <c r="E24" t="str">
-        <v>高松市庵治町853-1</v>
+        <v>高松市香南町横井865-1</v>
       </c>
       <c r="F24" t="str">
-        <v>087-871-2535</v>
+        <v>087-887-7876</v>
       </c>
       <c r="G24" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h144</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h145</v>
       </c>
       <c r="H24" t="str">
         <v>市立認定こども園</v>
@@ -1028,25 +1028,25 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25" t="str">
-        <v>34.242096</v>
+        <v>34.188524</v>
       </c>
       <c r="C25" t="str">
-        <v>134.005834</v>
+        <v>134.061382</v>
       </c>
       <c r="D25" t="str">
-        <v>高松市香南こども園</v>
+        <v>高松市塩江こども園</v>
       </c>
       <c r="E25" t="str">
-        <v>高松市香南町横井865-1</v>
+        <v>高松市塩江町安原下第1号887</v>
       </c>
       <c r="F25" t="str">
-        <v>087-887-7876</v>
+        <v>087-890-2022</v>
       </c>
       <c r="G25" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h145</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h146</v>
       </c>
       <c r="H25" t="str">
         <v>市立認定こども園</v>
@@ -1054,25 +1054,25 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26" t="str">
-        <v>34.188524</v>
+        <v>34.237755</v>
       </c>
       <c r="C26" t="str">
-        <v>134.061382</v>
+        <v>134.035134</v>
       </c>
       <c r="D26" t="str">
-        <v>高松市塩江こども園</v>
+        <v>高松市川東こども園</v>
       </c>
       <c r="E26" t="str">
-        <v>高松市塩江町安原下第1号887</v>
+        <v>高松市香川町川東上1987-4</v>
       </c>
       <c r="F26" t="str">
-        <v>087-890-2022</v>
+        <v>087-879-4602</v>
       </c>
       <c r="G26" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h146</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h27</v>
       </c>
       <c r="H26" t="str">
         <v>市立認定こども園</v>
@@ -1080,25 +1080,25 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" t="str">
-        <v>34.237755</v>
+        <v>34.342609</v>
       </c>
       <c r="C27" t="str">
-        <v>134.035134</v>
+        <v>134.099868</v>
       </c>
       <c r="D27" t="str">
-        <v>高松市川東こども園</v>
+        <v>屋島こども園</v>
       </c>
       <c r="E27" t="str">
-        <v>高松市香川町川東上1987-4</v>
+        <v>高松市屋島西町1744-1</v>
       </c>
       <c r="F27" t="str">
-        <v>087-879-4602</v>
+        <v>087-841-9711</v>
       </c>
       <c r="G27" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h27</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h307/</v>
       </c>
       <c r="H27" t="str">
         <v>市立認定こども園</v>
@@ -1106,25 +1106,25 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28" t="str">
-        <v>34.342609</v>
+        <v>34.2959789</v>
       </c>
       <c r="C28" t="str">
-        <v>134.099868</v>
+        <v>134.0789659</v>
       </c>
       <c r="D28" t="str">
-        <v>屋島こども園</v>
+        <v>林こども園</v>
       </c>
       <c r="E28" t="str">
-        <v>高松市屋島西町1744-1</v>
+        <v>高松市林町1405-4</v>
       </c>
       <c r="F28" t="str">
-        <v>087-841-9711</v>
+        <v>087-865-1676</v>
       </c>
       <c r="G28" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h307/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h306/</v>
       </c>
       <c r="H28" t="str">
         <v>市立認定こども園</v>
@@ -1132,74 +1132,74 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29" t="str">
-        <v>34.2959789</v>
+        <v>34.339334</v>
       </c>
       <c r="C29" t="str">
-        <v>134.0789659</v>
+        <v>134.043665</v>
       </c>
       <c r="D29" t="str">
-        <v>林こども園</v>
+        <v>香川大学教育学部附属幼稚園高松園舎</v>
       </c>
       <c r="E29" t="str">
-        <v>高松市林町1405-4</v>
+        <v>高松市番町五丁目1-55</v>
       </c>
       <c r="F29" t="str">
-        <v>087-865-1676</v>
+        <v>087-861-2393</v>
       </c>
       <c r="G29" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h306/</v>
+        <v/>
       </c>
       <c r="H29" t="str">
-        <v>市立認定こども園</v>
+        <v>国立幼稚園</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30" t="str">
-        <v>34.339334</v>
+        <v>34.33993</v>
       </c>
       <c r="C30" t="str">
-        <v>134.043665</v>
+        <v>134.060168</v>
       </c>
       <c r="D30" t="str">
-        <v>香川大学教育学部附属幼稚園高松園舎</v>
+        <v>高松中央高校幼稚園</v>
       </c>
       <c r="E30" t="str">
-        <v>高松市番町五丁目1-55</v>
+        <v>高松市松島町一丁目14-8</v>
       </c>
       <c r="F30" t="str">
-        <v>087-861-2393</v>
+        <v>087-831-0338</v>
       </c>
       <c r="G30" t="str">
         <v/>
       </c>
       <c r="H30" t="str">
-        <v>国立幼稚園</v>
+        <v>私立幼稚園</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" t="str">
-        <v>34.33993</v>
+        <v>34.299667</v>
       </c>
       <c r="C31" t="str">
-        <v>134.060168</v>
+        <v>134.049999</v>
       </c>
       <c r="D31" t="str">
-        <v>高松中央高校幼稚園</v>
+        <v>マリア幼稚園</v>
       </c>
       <c r="E31" t="str">
-        <v>高松市松島町一丁目14-8</v>
+        <v>高松市多肥下町14-3</v>
       </c>
       <c r="F31" t="str">
-        <v>087-831-0338</v>
+        <v>087-867-7303</v>
       </c>
       <c r="G31" t="str">
         <v/>
@@ -1210,22 +1210,22 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32" t="str">
-        <v>34.299667</v>
+        <v>34.341348</v>
       </c>
       <c r="C32" t="str">
-        <v>134.049999</v>
+        <v>134.10799</v>
       </c>
       <c r="D32" t="str">
-        <v>マリア幼稚園</v>
+        <v>のぞみ幼稚園</v>
       </c>
       <c r="E32" t="str">
-        <v>高松市多肥下町14-3</v>
+        <v>高松市屋島中町30</v>
       </c>
       <c r="F32" t="str">
-        <v>087-867-7303</v>
+        <v>087-843-2107</v>
       </c>
       <c r="G32" t="str">
         <v/>
@@ -1236,22 +1236,22 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" t="str">
-        <v>34.341348</v>
+        <v>34.330038</v>
       </c>
       <c r="C33" t="str">
-        <v>134.10799</v>
+        <v>134.05066</v>
       </c>
       <c r="D33" t="str">
-        <v>のぞみ幼稚園</v>
+        <v>栗林幼稚園</v>
       </c>
       <c r="E33" t="str">
-        <v>高松市屋島中町30</v>
+        <v>高松市栗林町二丁目19-4</v>
       </c>
       <c r="F33" t="str">
-        <v>087-843-2107</v>
+        <v>087-834-0263</v>
       </c>
       <c r="G33" t="str">
         <v/>
@@ -1262,22 +1262,22 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34" t="str">
-        <v>34.330038</v>
+        <v>34.337611</v>
       </c>
       <c r="C34" t="str">
-        <v>134.05066</v>
+        <v>134.042829</v>
       </c>
       <c r="D34" t="str">
-        <v>栗林幼稚園</v>
+        <v>高松幼稚園</v>
       </c>
       <c r="E34" t="str">
-        <v>高松市栗林町二丁目19-4</v>
+        <v>高松市亀岡町1-6</v>
       </c>
       <c r="F34" t="str">
-        <v>087-834-0263</v>
+        <v>087-861-3666</v>
       </c>
       <c r="G34" t="str">
         <v/>
@@ -1288,22 +1288,22 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35" t="str">
-        <v>34.337611</v>
+        <v>34.330593</v>
       </c>
       <c r="C35" t="str">
-        <v>134.042829</v>
+        <v>134.051379</v>
       </c>
       <c r="D35" t="str">
-        <v>高松幼稚園</v>
+        <v>桜町聖母幼稚園</v>
       </c>
       <c r="E35" t="str">
-        <v>高松市亀岡町1-6</v>
+        <v>高松市桜町一丁目8-13</v>
       </c>
       <c r="F35" t="str">
-        <v>087-861-3666</v>
+        <v>087-831-0328</v>
       </c>
       <c r="G35" t="str">
         <v/>
@@ -1314,22 +1314,22 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36" t="str">
-        <v>34.330593</v>
+        <v>34.280112</v>
       </c>
       <c r="C36" t="str">
-        <v>134.051379</v>
+        <v>134.047253</v>
       </c>
       <c r="D36" t="str">
-        <v>桜町聖母幼稚園</v>
+        <v>相愛幼稚園</v>
       </c>
       <c r="E36" t="str">
-        <v>高松市桜町一丁目8-13</v>
+        <v>高松市仏生山町甲546</v>
       </c>
       <c r="F36" t="str">
-        <v>087-831-0328</v>
+        <v>087-888-2606</v>
       </c>
       <c r="G36" t="str">
         <v/>
@@ -1340,22 +1340,22 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37" t="str">
-        <v>34.280112</v>
+        <v>34.301496</v>
       </c>
       <c r="C37" t="str">
-        <v>134.047253</v>
+        <v>134.044062</v>
       </c>
       <c r="D37" t="str">
-        <v>相愛幼稚園</v>
+        <v>太田百華幼稚園</v>
       </c>
       <c r="E37" t="str">
-        <v>高松市仏生山町甲546</v>
+        <v>高松市太田上町932</v>
       </c>
       <c r="F37" t="str">
-        <v>087-888-2606</v>
+        <v>087-867-7445</v>
       </c>
       <c r="G37" t="str">
         <v/>
@@ -1366,22 +1366,22 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38" t="str">
-        <v>34.301496</v>
+        <v>34.340658</v>
       </c>
       <c r="C38" t="str">
-        <v>134.044062</v>
+        <v>134.052507</v>
       </c>
       <c r="D38" t="str">
-        <v>太田百華幼稚園</v>
+        <v>光華幼稚園</v>
       </c>
       <c r="E38" t="str">
-        <v>高松市太田上町932</v>
+        <v>高松市瓦町一丁目13-8</v>
       </c>
       <c r="F38" t="str">
-        <v>087-867-7445</v>
+        <v>087-831-5011</v>
       </c>
       <c r="G38" t="str">
         <v/>
@@ -1392,22 +1392,22 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" t="str">
-        <v>34.340658</v>
+        <v>34.322588</v>
       </c>
       <c r="C39" t="str">
-        <v>134.052507</v>
+        <v>134.052686</v>
       </c>
       <c r="D39" t="str">
-        <v>光華幼稚園</v>
+        <v>くにとう幼稚園</v>
       </c>
       <c r="E39" t="str">
-        <v>高松市瓦町一丁目13-8</v>
+        <v>高松市伏石町1611</v>
       </c>
       <c r="F39" t="str">
-        <v>087-831-5011</v>
+        <v>087-866-1666</v>
       </c>
       <c r="G39" t="str">
         <v/>
@@ -1418,48 +1418,48 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B40" t="str">
-        <v>34.322588</v>
+        <v>34.344964</v>
       </c>
       <c r="C40" t="str">
-        <v>134.052686</v>
+        <v>134.095292</v>
       </c>
       <c r="D40" t="str">
-        <v>くにとう幼稚園</v>
+        <v>屋島教会幼稚園</v>
       </c>
       <c r="E40" t="str">
-        <v>高松市伏石町1611</v>
+        <v>高松市屋島西町1392-7</v>
       </c>
       <c r="F40" t="str">
-        <v>087-866-1666</v>
+        <v>087-841-1925</v>
       </c>
       <c r="G40" t="str">
         <v/>
       </c>
       <c r="H40" t="str">
-        <v>私立幼稚園</v>
+        <v>新制度に移行している私立幼稚園</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41" t="str">
-        <v>34.344964</v>
+        <v>34.318503</v>
       </c>
       <c r="C41" t="str">
-        <v>134.095292</v>
+        <v>134.045934</v>
       </c>
       <c r="D41" t="str">
-        <v>屋島教会幼稚園</v>
+        <v>青空幼稚園</v>
       </c>
       <c r="E41" t="str">
-        <v>高松市屋島西町1392-7</v>
+        <v>高松市三条町498</v>
       </c>
       <c r="F41" t="str">
-        <v>087-841-1925</v>
+        <v>087-867-7314</v>
       </c>
       <c r="G41" t="str">
         <v/>
@@ -1470,22 +1470,22 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B42" t="str">
-        <v>34.318503</v>
+        <v>34.319073</v>
       </c>
       <c r="C42" t="str">
-        <v>134.045934</v>
+        <v>134.034293</v>
       </c>
       <c r="D42" t="str">
-        <v>青空幼稚園</v>
+        <v>愛育幼稚園</v>
       </c>
       <c r="E42" t="str">
-        <v>高松市三条町498</v>
+        <v>高松市西ハゼ町310</v>
       </c>
       <c r="F42" t="str">
-        <v>087-867-7314</v>
+        <v>087-865-5845</v>
       </c>
       <c r="G42" t="str">
         <v/>
@@ -1496,22 +1496,22 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B43" t="str">
-        <v>34.319073</v>
+        <v>34.304447</v>
       </c>
       <c r="C43" t="str">
-        <v>134.034293</v>
+        <v>134.000126</v>
       </c>
       <c r="D43" t="str">
-        <v>愛育幼稚園</v>
+        <v>まゆみ幼稚園</v>
       </c>
       <c r="E43" t="str">
-        <v>高松市西ハゼ町310</v>
+        <v>高松市檀紙町1541-4</v>
       </c>
       <c r="F43" t="str">
-        <v>087-865-5845</v>
+        <v>087-885-0756</v>
       </c>
       <c r="G43" t="str">
         <v/>
@@ -1522,22 +1522,22 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B44" t="str">
-        <v>34.304447</v>
+        <v>34.343464</v>
       </c>
       <c r="C44" t="str">
-        <v>134.000126</v>
+        <v>134.031956</v>
       </c>
       <c r="D44" t="str">
-        <v>まゆみ幼稚園</v>
+        <v>二番丁幼稚園</v>
       </c>
       <c r="E44" t="str">
-        <v>高松市檀紙町1541-4</v>
+        <v>高松市昭和町二丁目7-1</v>
       </c>
       <c r="F44" t="str">
-        <v>087-885-0756</v>
+        <v>087-861-3575</v>
       </c>
       <c r="G44" t="str">
         <v/>
@@ -1548,22 +1548,22 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B45" t="str">
-        <v>34.343464</v>
+        <v>34.314879</v>
       </c>
       <c r="C45" t="str">
-        <v>134.031956</v>
+        <v>133.994961</v>
       </c>
       <c r="D45" t="str">
-        <v>二番丁幼稚園</v>
+        <v>ときわ幼稚園</v>
       </c>
       <c r="E45" t="str">
-        <v>高松市昭和町二丁目7-1</v>
+        <v>高松市飯田町138</v>
       </c>
       <c r="F45" t="str">
-        <v>087-861-3575</v>
+        <v>087-881-2796</v>
       </c>
       <c r="G45" t="str">
         <v/>
@@ -1574,22 +1574,22 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B46" t="str">
-        <v>34.314879</v>
+        <v>34.343412</v>
       </c>
       <c r="C46" t="str">
-        <v>133.994961</v>
+        <v>134.044394</v>
       </c>
       <c r="D46" t="str">
-        <v>ときわ幼稚園</v>
+        <v>高松聖母幼稚園</v>
       </c>
       <c r="E46" t="str">
-        <v>高松市飯田町138</v>
+        <v>高松市番町二丁目4-31</v>
       </c>
       <c r="F46" t="str">
-        <v>087-881-2796</v>
+        <v>087-851-2372</v>
       </c>
       <c r="G46" t="str">
         <v/>
@@ -1600,51 +1600,51 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B47" t="str">
-        <v>34.343412</v>
+        <v>34.292144</v>
       </c>
       <c r="C47" t="str">
-        <v>134.044394</v>
+        <v>134.066237</v>
       </c>
       <c r="D47" t="str">
-        <v>高松聖母幼稚園</v>
+        <v>サンシャインこどもの森</v>
       </c>
       <c r="E47" t="str">
-        <v>高松市番町二丁目4-31</v>
+        <v>高松市上林町502-2</v>
       </c>
       <c r="F47" t="str">
-        <v>087-851-2372</v>
+        <v>087-889-8181</v>
       </c>
       <c r="G47" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h147/</v>
       </c>
       <c r="H47" t="str">
-        <v>新制度に移行している私立幼稚園</v>
+        <v>私立認定こども園</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B48" t="str">
-        <v>34.292144</v>
+        <v>34.303319</v>
       </c>
       <c r="C48" t="str">
-        <v>134.066237</v>
+        <v>133.949144</v>
       </c>
       <c r="D48" t="str">
-        <v>サンシャインこどもの森</v>
+        <v>いずみこども園</v>
       </c>
       <c r="E48" t="str">
-        <v>高松市上林町502-2</v>
+        <v>高松市国分寺町国分2408</v>
       </c>
       <c r="F48" t="str">
-        <v>087-889-8181</v>
+        <v>087-874-0882</v>
       </c>
       <c r="G48" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h147/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h148</v>
       </c>
       <c r="H48" t="str">
         <v>私立認定こども園</v>
@@ -1652,25 +1652,25 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B49" t="str">
-        <v>34.303319</v>
+        <v>34.304328</v>
       </c>
       <c r="C49" t="str">
-        <v>133.949144</v>
+        <v>133.97246</v>
       </c>
       <c r="D49" t="str">
-        <v>いずみこども園</v>
+        <v>いずみこども園分園</v>
       </c>
       <c r="E49" t="str">
-        <v>高松市国分寺町国分2408</v>
+        <v>国分寺町新居281-1</v>
       </c>
       <c r="F49" t="str">
-        <v>087-874-0882</v>
+        <v>087-875-0882</v>
       </c>
       <c r="G49" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h148</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h211</v>
       </c>
       <c r="H49" t="str">
         <v>私立認定こども園</v>
@@ -1678,25 +1678,25 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B50" t="str">
-        <v>34.304328</v>
+        <v>34.327571</v>
       </c>
       <c r="C50" t="str">
-        <v>133.97246</v>
+        <v>134.087355</v>
       </c>
       <c r="D50" t="str">
-        <v>いずみこども園分園</v>
+        <v>認定こども園高松東幼稚園</v>
       </c>
       <c r="E50" t="str">
-        <v>国分寺町新居281-1</v>
+        <v>高松市春日町688</v>
       </c>
       <c r="F50" t="str">
-        <v>087-875-0882</v>
+        <v>087-841-2306</v>
       </c>
       <c r="G50" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h211</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h262</v>
       </c>
       <c r="H50" t="str">
         <v>私立認定こども園</v>
@@ -1704,25 +1704,25 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B51" t="str">
-        <v>34.327571</v>
+        <v>34.325356</v>
       </c>
       <c r="C51" t="str">
-        <v>134.087355</v>
+        <v>134.099079</v>
       </c>
       <c r="D51" t="str">
-        <v>認定こども園高松東幼稚園</v>
+        <v>幼保連携型認定こども園新田幼稚園</v>
       </c>
       <c r="E51" t="str">
-        <v>高松市春日町688</v>
+        <v>高松市新田町甲2630-1</v>
       </c>
       <c r="F51" t="str">
-        <v>087-841-2306</v>
+        <v>087-841-3686</v>
       </c>
       <c r="G51" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h262</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h263</v>
       </c>
       <c r="H51" t="str">
         <v>私立認定こども園</v>
@@ -1730,25 +1730,25 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B52" t="str">
-        <v>34.325356</v>
+        <v>34.268464</v>
       </c>
       <c r="C52" t="str">
-        <v>134.099079</v>
+        <v>134.006758</v>
       </c>
       <c r="D52" t="str">
-        <v>幼保連携型認定こども園新田幼稚園</v>
+        <v>認定こども園和光こども園</v>
       </c>
       <c r="E52" t="str">
-        <v>高松市新田町甲2630-1</v>
+        <v>高松市川部町1561-1</v>
       </c>
       <c r="F52" t="str">
-        <v>087-841-3686</v>
+        <v>087-886-5879</v>
       </c>
       <c r="G52" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h263</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h39/</v>
       </c>
       <c r="H52" t="str">
         <v>私立認定こども園</v>
@@ -1756,25 +1756,25 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B53" t="str">
-        <v>34.268464</v>
+        <v>34.331077</v>
       </c>
       <c r="C53" t="str">
-        <v>134.006758</v>
+        <v>134.094275</v>
       </c>
       <c r="D53" t="str">
-        <v>認定こども園和光こども園</v>
+        <v>認定こども園春日こども園</v>
       </c>
       <c r="E53" t="str">
-        <v>高松市川部町1561-1</v>
+        <v>高松市春日町1287-1</v>
       </c>
       <c r="F53" t="str">
-        <v>087-886-5879</v>
+        <v>087-843-3689</v>
       </c>
       <c r="G53" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h39/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h163/</v>
       </c>
       <c r="H53" t="str">
         <v>私立認定こども園</v>
@@ -1782,25 +1782,25 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B54" t="str">
-        <v>34.331077</v>
+        <v>34.326539</v>
       </c>
       <c r="C54" t="str">
-        <v>134.094275</v>
+        <v>134.047837</v>
       </c>
       <c r="D54" t="str">
-        <v>認定こども園春日こども園</v>
+        <v>認定こども園花ノ宮こども園</v>
       </c>
       <c r="E54" t="str">
-        <v>高松市春日町1287-1</v>
+        <v>高松市花ノ宮町一丁目10-22</v>
       </c>
       <c r="F54" t="str">
-        <v>087-843-3689</v>
+        <v>087-831-6318</v>
       </c>
       <c r="G54" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h163/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h175/</v>
       </c>
       <c r="H54" t="str">
         <v>私立認定こども園</v>
@@ -1808,25 +1808,25 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B55" t="str">
-        <v>34.326539</v>
+        <v>34.333461</v>
       </c>
       <c r="C55" t="str">
-        <v>134.047837</v>
+        <v>134.04506</v>
       </c>
       <c r="D55" t="str">
-        <v>認定こども園花ノ宮こども園</v>
+        <v>認定こども園中野保育所</v>
       </c>
       <c r="E55" t="str">
-        <v>高松市花ノ宮町一丁目10-22</v>
+        <v>高松市中野町27-5</v>
       </c>
       <c r="F55" t="str">
-        <v>087-831-6318</v>
+        <v>087-831-8659</v>
       </c>
       <c r="G55" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h175/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h174/</v>
       </c>
       <c r="H55" t="str">
         <v>私立認定こども園</v>
@@ -1834,25 +1834,25 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B56" t="str">
-        <v>34.333461</v>
+        <v>34.279891</v>
       </c>
       <c r="C56" t="str">
-        <v>134.04506</v>
+        <v>134.042395</v>
       </c>
       <c r="D56" t="str">
-        <v>認定こども園中野保育所</v>
+        <v>幼保連携型認定こども園カナン保育園</v>
       </c>
       <c r="E56" t="str">
-        <v>高松市中野町27-5</v>
+        <v>高松市仏生山町甲745-2</v>
       </c>
       <c r="F56" t="str">
-        <v>087-831-8659</v>
+        <v>087-889-1059</v>
       </c>
       <c r="G56" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h174/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h166/</v>
       </c>
       <c r="H56" t="str">
         <v>私立認定こども園</v>
@@ -1860,25 +1860,25 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B57" t="str">
-        <v>34.279891</v>
+        <v>34.292691</v>
       </c>
       <c r="C57" t="str">
-        <v>134.042395</v>
+        <v>134.0352</v>
       </c>
       <c r="D57" t="str">
-        <v>幼保連携型認定こども園カナン保育園</v>
+        <v>幼保連携型認定こども園すまいる</v>
       </c>
       <c r="E57" t="str">
-        <v>高松市仏生山町甲745-2</v>
+        <v>高松市三名町591-1</v>
       </c>
       <c r="F57" t="str">
-        <v>087-889-1059</v>
+        <v>087-802-3838</v>
       </c>
       <c r="G57" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h166/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h275/</v>
       </c>
       <c r="H57" t="str">
         <v>私立認定こども園</v>
@@ -1886,25 +1886,25 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B58" t="str">
-        <v>34.292691</v>
+        <v>34.2936161</v>
       </c>
       <c r="C58" t="str">
-        <v>134.0352</v>
+        <v>134.0789214</v>
       </c>
       <c r="D58" t="str">
-        <v>幼保連携型認定こども園すまいる</v>
+        <v>げんき・結愛・げんきこども園</v>
       </c>
       <c r="E58" t="str">
-        <v>高松市三名町591-1</v>
+        <v>高松市六条町604番地7</v>
       </c>
       <c r="F58" t="str">
-        <v>087-802-3838</v>
+        <v>087-813-9818</v>
       </c>
       <c r="G58" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h275/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h37/</v>
       </c>
       <c r="H58" t="str">
         <v>私立認定こども園</v>
@@ -1912,25 +1912,25 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B59" t="str">
-        <v>34.2936161</v>
+        <v>34.2734776</v>
       </c>
       <c r="C59" t="str">
-        <v>134.0789214</v>
+        <v>134.1024882</v>
       </c>
       <c r="D59" t="str">
-        <v>げんき・結愛・げんきこども園</v>
+        <v>幼保連携型カナン十河こども園</v>
       </c>
       <c r="E59" t="str">
-        <v>高松市六条町604番地7</v>
+        <v>高松市十川西町546-1</v>
       </c>
       <c r="F59" t="str">
-        <v>087-813-9818</v>
+        <v>087-848-0320</v>
       </c>
       <c r="G59" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h37/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h48/</v>
       </c>
       <c r="H59" t="str">
         <v>私立認定こども園</v>
@@ -1938,25 +1938,25 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B60" t="str">
-        <v>34.2734776</v>
+        <v>34.3064057</v>
       </c>
       <c r="C60" t="str">
-        <v>134.1024882</v>
+        <v>134.042294</v>
       </c>
       <c r="D60" t="str">
-        <v>幼保連携型カナン十河こども園</v>
+        <v>幼保連携型認定こども園高松和貴こども園</v>
       </c>
       <c r="E60" t="str">
-        <v>高松市十川西町546-1</v>
+        <v>高松市林町2197-1</v>
       </c>
       <c r="F60" t="str">
-        <v>087-848-0320</v>
+        <v>087-814-4141</v>
       </c>
       <c r="G60" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h48/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h313/</v>
       </c>
       <c r="H60" t="str">
         <v>私立認定こども園</v>
@@ -1964,25 +1964,25 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B61" t="str">
-        <v>34.3064057</v>
+        <v>34.3264572</v>
       </c>
       <c r="C61" t="str">
-        <v>134.042294</v>
+        <v>134.0769366</v>
       </c>
       <c r="D61" t="str">
-        <v>幼保連携型認定こども園高松和貴こども園</v>
+        <v>みらい学園</v>
       </c>
       <c r="E61" t="str">
-        <v>高松市林町2197-1</v>
+        <v>高松市木太町3429-3</v>
       </c>
       <c r="F61" t="str">
-        <v>087-814-4141</v>
+        <v>087-899-2305</v>
       </c>
       <c r="G61" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h313/</v>
+        <v/>
       </c>
       <c r="H61" t="str">
         <v>私立認定こども園</v>
@@ -1990,25 +1990,25 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B62" t="str">
-        <v>34.3264572</v>
+        <v>34.353781</v>
       </c>
       <c r="C62" t="str">
-        <v>134.0769366</v>
+        <v>134.091115</v>
       </c>
       <c r="D62" t="str">
-        <v>みらい学園</v>
+        <v>認定こども園やしま幼稚園</v>
       </c>
       <c r="E62" t="str">
-        <v>高松市木太町3429-3</v>
+        <v>高松市屋島西町2477-4</v>
       </c>
       <c r="F62" t="str">
-        <v>087-899-2305</v>
+        <v>087-843-2241</v>
       </c>
       <c r="G62" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h149</v>
       </c>
       <c r="H62" t="str">
         <v>私立認定こども園</v>
@@ -2016,25 +2016,25 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B63" t="str">
-        <v>34.353781</v>
+        <v>34.338923</v>
       </c>
       <c r="C63" t="str">
-        <v>134.091115</v>
+        <v>134.031483</v>
       </c>
       <c r="D63" t="str">
-        <v>認定こども園やしま幼稚園</v>
+        <v>高松聖ヤコブ幼稚園</v>
       </c>
       <c r="E63" t="str">
-        <v>高松市屋島西町2477-4</v>
+        <v>高松市西宝町二丁目3-14</v>
       </c>
       <c r="F63" t="str">
-        <v>087-843-2241</v>
+        <v>087-861-0425</v>
       </c>
       <c r="G63" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h149</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h249</v>
       </c>
       <c r="H63" t="str">
         <v>私立認定こども園</v>
@@ -2042,25 +2042,25 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B64" t="str">
-        <v>34.338923</v>
+        <v>34.338702</v>
       </c>
       <c r="C64" t="str">
-        <v>134.031483</v>
+        <v>134.038281</v>
       </c>
       <c r="D64" t="str">
-        <v>高松聖ヤコブ幼稚園</v>
+        <v>認定こども園亀阜幼稚園</v>
       </c>
       <c r="E64" t="str">
-        <v>高松市西宝町二丁目3-14</v>
+        <v>宮脇町一丁目2-23</v>
       </c>
       <c r="F64" t="str">
-        <v>087-861-0425</v>
+        <v>087-831-2557</v>
       </c>
       <c r="G64" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h249</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h252</v>
       </c>
       <c r="H64" t="str">
         <v>私立認定こども園</v>
@@ -2068,25 +2068,25 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B65" t="str">
-        <v>34.338702</v>
+        <v>34.279836</v>
       </c>
       <c r="C65" t="str">
-        <v>134.038281</v>
+        <v>134.022373</v>
       </c>
       <c r="D65" t="str">
-        <v>認定こども園亀阜幼稚園</v>
+        <v>らく楽寺井幼稚園</v>
       </c>
       <c r="E65" t="str">
-        <v>宮脇町一丁目2-23</v>
+        <v>高松市寺井町1369-4</v>
       </c>
       <c r="F65" t="str">
-        <v>087-831-2557</v>
+        <v>087-885-2038</v>
       </c>
       <c r="G65" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h252</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h264</v>
       </c>
       <c r="H65" t="str">
         <v>私立認定こども園</v>
@@ -2094,25 +2094,25 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B66" t="str">
-        <v>34.279836</v>
+        <v>34.334019</v>
       </c>
       <c r="C66" t="str">
-        <v>134.022373</v>
+        <v>134.114815</v>
       </c>
       <c r="D66" t="str">
-        <v>らく楽寺井幼稚園</v>
+        <v>幼稚園型認定こども園つくし幼稚園</v>
       </c>
       <c r="E66" t="str">
-        <v>高松市寺井町1369-4</v>
+        <v>高松市高松町1711-7</v>
       </c>
       <c r="F66" t="str">
-        <v>087-885-2038</v>
+        <v>087-843-4484</v>
       </c>
       <c r="G66" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h264</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h272/</v>
       </c>
       <c r="H66" t="str">
         <v>私立認定こども園</v>
@@ -2120,25 +2120,25 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B67" t="str">
-        <v>34.334019</v>
+        <v>34.304505</v>
       </c>
       <c r="C67" t="str">
-        <v>134.114815</v>
+        <v>134.021922</v>
       </c>
       <c r="D67" t="str">
-        <v>幼稚園型認定こども園つくし幼稚園</v>
+        <v>認定こども園勅使百華幼稚園</v>
       </c>
       <c r="E67" t="str">
-        <v>高松市高松町1711-7</v>
+        <v>高松市勅使町955</v>
       </c>
       <c r="F67" t="str">
-        <v>087-843-4484</v>
+        <v>087-865-9419</v>
       </c>
       <c r="G67" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h272/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h273/</v>
       </c>
       <c r="H67" t="str">
         <v>私立認定こども園</v>
@@ -2146,59 +2146,33 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B68" t="str">
-        <v>34.304505</v>
+        <v>34.30287</v>
       </c>
       <c r="C68" t="str">
-        <v>134.021922</v>
+        <v>134.016075</v>
       </c>
       <c r="D68" t="str">
-        <v>認定こども園勅使百華幼稚園</v>
+        <v>メリーＧＯランド高松園</v>
       </c>
       <c r="E68" t="str">
-        <v>高松市勅使町955</v>
+        <v>高松市成合町796-1</v>
       </c>
       <c r="F68" t="str">
-        <v>087-865-9419</v>
+        <v>087-886-6669</v>
       </c>
       <c r="G68" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h273/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h274/</v>
       </c>
       <c r="H68" t="str">
         <v>私立認定こども園</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="str">
-        <v>74</v>
-      </c>
-      <c r="B69" t="str">
-        <v>34.30287</v>
-      </c>
-      <c r="C69" t="str">
-        <v>134.016075</v>
-      </c>
-      <c r="D69" t="str">
-        <v>メリーＧＯランド高松園</v>
-      </c>
-      <c r="E69" t="str">
-        <v>高松市成合町796-1</v>
-      </c>
-      <c r="F69" t="str">
-        <v>087-886-6669</v>
-      </c>
-      <c r="G69" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h274/</v>
-      </c>
-      <c r="H69" t="str">
-        <v>私立認定こども園</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H69"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H68"/>
   </ignoredErrors>
 </worksheet>
 </file>